--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Liquidity_GAP.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Liquidity Gap Report</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: June, 2020        Evaluation Date: June 30, 2020</t>
   </si>
   <si>
-    <t>Printed on: 09/18/20 2:04:54 PM</t>
+    <t>Printed on: 11/12/20 4:46:53 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-202006</t>
+  </si>
+  <si>
+    <t>Printed on: 11/12/20 4:46:52 AM</t>
   </si>
   <si>
     <t>Notes</t>
@@ -9860,7 +9863,7 @@
       <c r="I3" s="227"/>
       <c r="J3" s="227"/>
       <c r="K3" s="232" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -9954,34 +9957,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27301.485413904946</v>
+        <v>27301.488756605329</v>
       </c>
       <c r="C9" s="231">
-        <v>2419.2179264583506</v>
+        <v>2419.237712828638</v>
       </c>
       <c r="D9" s="231">
-        <v>6080.4672794481439</v>
+        <v>6080.52875149297</v>
       </c>
       <c r="E9" s="231">
-        <v>25827.794095959474</v>
+        <v>25827.87649099472</v>
       </c>
       <c r="F9" s="231">
-        <v>3587.983432005351</v>
+        <v>3587.9934107924641</v>
       </c>
       <c r="G9" s="231">
-        <v>4940.3613195441576</v>
+        <v>4940.3579590445588</v>
       </c>
       <c r="H9" s="231">
-        <v>5044.8201799940953</v>
+        <v>5044.7667171006278</v>
       </c>
       <c r="I9" s="231">
-        <v>4035.8849431585982</v>
+        <v>4035.5771798723135</v>
       </c>
       <c r="J9" s="231">
-        <v>1730.985409526882</v>
+        <v>1731.1730212684051</v>
       </c>
       <c r="K9" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="10" hidden="1" ht="15" customHeight="1">
@@ -10004,31 +10007,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27301.485413904946</v>
+        <v>27301.488756605329</v>
       </c>
       <c r="C11" s="231">
-        <v>29720.703340363296</v>
+        <v>29720.726469433968</v>
       </c>
       <c r="D11" s="231">
-        <v>35801.170619811441</v>
+        <v>35801.255220926934</v>
       </c>
       <c r="E11" s="231">
-        <v>61628.964715770911</v>
+        <v>61629.131711921655</v>
       </c>
       <c r="F11" s="231">
-        <v>65216.94814777626</v>
+        <v>65217.125122714118</v>
       </c>
       <c r="G11" s="231">
-        <v>70157.309467320418</v>
+        <v>70157.483081758677</v>
       </c>
       <c r="H11" s="231">
-        <v>75202.129647314519</v>
+        <v>75202.24979885931</v>
       </c>
       <c r="I11" s="231">
-        <v>79238.014590473118</v>
+        <v>79237.826978731624</v>
       </c>
       <c r="J11" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K11" s="231">
         <v>0</v>
@@ -10039,19 +10042,19 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>5974.737510120468</v>
+        <v>5974.7375101204789</v>
       </c>
       <c r="C12" s="231">
-        <v>6143.0196380983889</v>
+        <v>6143.019638098398</v>
       </c>
       <c r="D12" s="231">
-        <v>10365.002641619698</v>
+        <v>10365.002641619689</v>
       </c>
       <c r="E12" s="231">
-        <v>13087.947063670692</v>
+        <v>13087.947063670701</v>
       </c>
       <c r="F12" s="231">
-        <v>9042.15051339235</v>
+        <v>9042.15051339234</v>
       </c>
       <c r="G12" s="231">
         <v>9588.98685505367</v>
@@ -10063,7 +10066,7 @@
         <v>2516.5791681125474</v>
       </c>
       <c r="J12" s="231">
-        <v>-317.50089914581622</v>
+        <v>-317.50089914583077</v>
       </c>
       <c r="K12" s="231">
         <v>63696</v>
@@ -10098,10 +10101,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="K13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -10109,31 +10112,31 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>5974.737510120468</v>
+        <v>5974.7375101204789</v>
       </c>
       <c r="C14" s="231">
-        <v>12117.757148218858</v>
+        <v>12117.757148218876</v>
       </c>
       <c r="D14" s="231">
-        <v>22482.759789838557</v>
+        <v>22482.759789838565</v>
       </c>
       <c r="E14" s="231">
-        <v>35570.706853509248</v>
+        <v>35570.706853509269</v>
       </c>
       <c r="F14" s="231">
-        <v>44612.8573669016</v>
+        <v>44612.857366901611</v>
       </c>
       <c r="G14" s="231">
-        <v>54201.844221955267</v>
+        <v>54201.844221955282</v>
       </c>
       <c r="H14" s="231">
-        <v>61496.921731033268</v>
+        <v>61496.921731033282</v>
       </c>
       <c r="I14" s="231">
-        <v>64013.500899145816</v>
+        <v>64013.500899145831</v>
       </c>
       <c r="J14" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K14" s="231"/>
     </row>
@@ -10142,31 +10145,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>21326.747903784479</v>
+        <v>21326.751246484851</v>
       </c>
       <c r="C15" s="231">
-        <v>-3723.8017116400383</v>
+        <v>-3723.78192526976</v>
       </c>
       <c r="D15" s="231">
-        <v>-4284.535362171554</v>
+        <v>-4284.4738901267192</v>
       </c>
       <c r="E15" s="231">
-        <v>12739.847032288782</v>
+        <v>12739.929427324019</v>
       </c>
       <c r="F15" s="231">
-        <v>-5454.1670813869987</v>
+        <v>-5454.1571025998765</v>
       </c>
       <c r="G15" s="231">
-        <v>-4648.6255355095127</v>
+        <v>-4648.6288960091115</v>
       </c>
       <c r="H15" s="231">
-        <v>-2250.2573290839046</v>
+        <v>-2250.310791977372</v>
       </c>
       <c r="I15" s="231">
-        <v>1519.3057750460507</v>
+        <v>1518.9980117597661</v>
       </c>
       <c r="J15" s="231">
-        <v>-15224.513691327302</v>
+        <v>-15224.326079585793</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -10175,31 +10178,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.26339398910428036</v>
+        <v>0.26339403038798603</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.04599046192542873</v>
+        <v>-0.045990217555728227</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.052915750005206361</v>
+        <v>-0.052914990800512755</v>
       </c>
       <c r="E16" s="236">
-        <v>0.15734227954264943</v>
+        <v>0.15734329715476311</v>
       </c>
       <c r="F16" s="237">
-        <v>-0.067361176269769882</v>
+        <v>-0.0673610530277004</v>
       </c>
       <c r="G16" s="236">
-        <v>-0.0574124113612557</v>
+        <v>-0.057412452864789118</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.027791590967949521</v>
+        <v>-0.027792251256374304</v>
       </c>
       <c r="I16" s="236">
-        <v>0.0187640427206221</v>
+        <v>0.018760241719173579</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.1880289208379417</v>
+        <v>-0.1880266037568179</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -10208,28 +10211,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>21326.747903784479</v>
+        <v>21326.751246484851</v>
       </c>
       <c r="C17" s="231">
-        <v>17602.946192144438</v>
+        <v>17602.969321215092</v>
       </c>
       <c r="D17" s="231">
-        <v>13318.410829972883</v>
+        <v>13318.49543108837</v>
       </c>
       <c r="E17" s="231">
-        <v>26058.257862261664</v>
+        <v>26058.424858412385</v>
       </c>
       <c r="F17" s="231">
-        <v>20604.090780874663</v>
+        <v>20604.267755812507</v>
       </c>
       <c r="G17" s="231">
-        <v>15955.465245365151</v>
+        <v>15955.638859803396</v>
       </c>
       <c r="H17" s="231">
-        <v>13705.207916281252</v>
+        <v>13705.328067826027</v>
       </c>
       <c r="I17" s="231">
-        <v>15224.513691327302</v>
+        <v>15224.326079585793</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -10241,28 +10244,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.26339398910428036</v>
+        <v>0.26339403038798603</v>
       </c>
       <c r="C18" s="236">
-        <v>0.21740352717885161</v>
+        <v>0.21740381283225785</v>
       </c>
       <c r="D18" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E18" s="236">
-        <v>0.32183005671629467</v>
+        <v>0.32183211918650811</v>
       </c>
       <c r="F18" s="237">
-        <v>0.25446888044652477</v>
+        <v>0.25447106615880771</v>
       </c>
       <c r="G18" s="236">
-        <v>0.19705646908526905</v>
+        <v>0.19705861329401855</v>
       </c>
       <c r="H18" s="236">
-        <v>0.16926487811731961</v>
+        <v>0.16926636203764431</v>
       </c>
       <c r="I18" s="236">
-        <v>0.1880289208379417</v>
+        <v>0.1880266037568179</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -10274,31 +10277,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>4.56948700552277</v>
+        <v>4.5694875649951028</v>
       </c>
       <c r="C19" s="236">
-        <v>0.39381575657915929</v>
+        <v>0.39381897753097939</v>
       </c>
       <c r="D19" s="236">
-        <v>0.58663441676634</v>
+        <v>0.58664034749756655</v>
       </c>
       <c r="E19" s="236">
-        <v>1.9734030073862263</v>
+        <v>1.9734093028758724</v>
       </c>
       <c r="F19" s="237">
-        <v>0.39680642637956326</v>
+        <v>0.39680752996516511</v>
       </c>
       <c r="G19" s="236">
-        <v>0.51521202335786354</v>
+        <v>0.51521167290378012</v>
       </c>
       <c r="H19" s="236">
-        <v>0.69153757087794032</v>
+        <v>0.69153024225211</v>
       </c>
       <c r="I19" s="236">
-        <v>1.6037186488297686</v>
+        <v>1.6035963545303544</v>
       </c>
       <c r="J19" s="236">
-        <v>0.10208991190590659</v>
+        <v>0.10210097685541976</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -10307,28 +10310,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>4.56948700552277</v>
+        <v>4.5694875649951028</v>
       </c>
       <c r="C20" s="236">
-        <v>2.4526571193689772</v>
+        <v>2.4526590280613489</v>
       </c>
       <c r="D20" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E20" s="236">
-        <v>1.7325763294380772</v>
+        <v>1.7325810242042339</v>
       </c>
       <c r="F20" s="237">
-        <v>1.461841988990396</v>
+        <v>1.461845955894743</v>
       </c>
       <c r="G20" s="236">
-        <v>1.2943712612439515</v>
+        <v>1.2943744643533792</v>
       </c>
       <c r="H20" s="236">
-        <v>1.2228600640569165</v>
+        <v>1.2228620178383642</v>
       </c>
       <c r="I20" s="236">
-        <v>1.2378328552177413</v>
+        <v>1.2378299244025401</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -10371,28 +10374,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="C23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E23" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -10402,28 +10405,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="D24" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="F24" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="G24" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="H24" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="I24" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -10759,34 +10762,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>367.62055175777</v>
+        <v>367.624028530563</v>
       </c>
       <c r="C50" s="246">
-        <v>388.914906442239</v>
+        <v>388.917946181358</v>
       </c>
       <c r="D50" s="246">
-        <v>707.191247195597</v>
+        <v>707.200036338763</v>
       </c>
       <c r="E50" s="246">
-        <v>1126.4414604881101</v>
+        <v>1126.4647256654998</v>
       </c>
       <c r="F50" s="246">
-        <v>863.37153703230206</v>
+        <v>863.39091550521493</v>
       </c>
       <c r="G50" s="246">
-        <v>1295.56006289878</v>
+        <v>1295.58619584264</v>
       </c>
       <c r="H50" s="246">
-        <v>1971.6550184716</v>
+        <v>1971.6596065792198</v>
       </c>
       <c r="I50" s="246">
-        <v>2017.44846465919</v>
+        <v>2017.3597943023299</v>
       </c>
       <c r="J50" s="246">
-        <v>354.79675105441129</v>
+        <v>354.79675105442038</v>
       </c>
       <c r="K50" s="246">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -10794,34 +10797,34 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>367.62055175777</v>
+        <v>367.624028530563</v>
       </c>
       <c r="C51" s="248">
-        <v>388.914906442239</v>
+        <v>388.917946181358</v>
       </c>
       <c r="D51" s="248">
-        <v>707.191247195597</v>
+        <v>707.200036338763</v>
       </c>
       <c r="E51" s="248">
-        <v>1126.4414604881101</v>
+        <v>1126.4647256654998</v>
       </c>
       <c r="F51" s="248">
-        <v>863.37153703230206</v>
+        <v>863.39091550521493</v>
       </c>
       <c r="G51" s="248">
-        <v>1295.56006289878</v>
+        <v>1295.58619584264</v>
       </c>
       <c r="H51" s="248">
-        <v>1971.6550184716</v>
+        <v>1971.6596065792198</v>
       </c>
       <c r="I51" s="248">
-        <v>2017.44846465919</v>
+        <v>2017.3597943023299</v>
       </c>
       <c r="J51" s="248">
-        <v>354.79675105441129</v>
+        <v>354.79675105442038</v>
       </c>
       <c r="K51" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -10829,34 +10832,34 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>367.62055175777</v>
+        <v>367.624028530563</v>
       </c>
       <c r="C52" s="248">
-        <v>388.914906442239</v>
+        <v>388.917946181358</v>
       </c>
       <c r="D52" s="248">
-        <v>707.191247195597</v>
+        <v>707.200036338763</v>
       </c>
       <c r="E52" s="248">
-        <v>1126.4414604881101</v>
+        <v>1126.4647256654998</v>
       </c>
       <c r="F52" s="248">
-        <v>863.37153703230206</v>
+        <v>863.39091550521493</v>
       </c>
       <c r="G52" s="248">
-        <v>1295.56006289878</v>
+        <v>1295.58619584264</v>
       </c>
       <c r="H52" s="248">
-        <v>1971.6550184716</v>
+        <v>1971.6596065792198</v>
       </c>
       <c r="I52" s="248">
-        <v>2017.44846465919</v>
+        <v>2017.3597943023299</v>
       </c>
       <c r="J52" s="248">
-        <v>354.79675105441129</v>
+        <v>354.79675105442038</v>
       </c>
       <c r="K52" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
@@ -10864,34 +10867,34 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>15168.015613075169</v>
+        <v>15168.019089847961</v>
       </c>
       <c r="C53" s="248">
-        <v>535.44979413344106</v>
+        <v>535.45283387256</v>
       </c>
       <c r="D53" s="248">
-        <v>839.175815205856</v>
+        <v>839.184604349022</v>
       </c>
       <c r="E53" s="248">
-        <v>20477.410596508613</v>
+        <v>20477.433861686</v>
       </c>
       <c r="F53" s="248">
-        <v>863.37153703230206</v>
+        <v>863.39091550521493</v>
       </c>
       <c r="G53" s="248">
-        <v>1556.178607585395</v>
+        <v>1556.2047405292551</v>
       </c>
       <c r="H53" s="248">
-        <v>2498.900518743048</v>
+        <v>2498.9051068506678</v>
       </c>
       <c r="I53" s="248">
-        <v>3073.4603661948304</v>
+        <v>3073.37169583797</v>
       </c>
       <c r="J53" s="248">
-        <v>1493.0371515213483</v>
+        <v>1493.0371515213556</v>
       </c>
       <c r="K53" s="248">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -10923,10 +10926,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J54" s="246">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K54" s="246">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -10958,10 +10961,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J55" s="248">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K55" s="248">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -10993,10 +10996,10 @@
         <v>74.4515039905001</v>
       </c>
       <c r="J56" s="246">
-        <v>6.6030071521623768</v>
+        <v>6.6030071521634</v>
       </c>
       <c r="K56" s="246">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
@@ -11039,31 +11042,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="246">
-        <v>1453.42851445229</v>
+        <v>1453.42838037988</v>
       </c>
       <c r="C58" s="246">
-        <v>1191.09467681255</v>
+        <v>1191.11142344372</v>
       </c>
       <c r="D58" s="246">
-        <v>2026.63126470069</v>
+        <v>2026.6839476023501</v>
       </c>
       <c r="E58" s="246">
-        <v>2540.54883131839</v>
+        <v>2540.6079611762502</v>
       </c>
       <c r="F58" s="246">
-        <v>1284.69202445986</v>
+        <v>1284.68262477406</v>
       </c>
       <c r="G58" s="246">
-        <v>1056.3350289626899</v>
+        <v>1056.30553551923</v>
       </c>
       <c r="H58" s="246">
-        <v>779.983231214962</v>
+        <v>779.925180213872</v>
       </c>
       <c r="I58" s="246">
-        <v>595.54899990416</v>
+        <v>595.329906974736</v>
       </c>
       <c r="J58" s="246">
-        <v>66.737428174405068</v>
+        <v>66.925039915900925</v>
       </c>
       <c r="K58" s="246">
         <v>10995</v>
@@ -11109,31 +11112,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="248">
-        <v>1455.2767668134784</v>
+        <v>1455.2766327410684</v>
       </c>
       <c r="C60" s="248">
-        <v>1192.7526498447442</v>
+        <v>1192.7693964759142</v>
       </c>
       <c r="D60" s="248">
-        <v>2029.2483902978815</v>
+        <v>2029.3010731995416</v>
       </c>
       <c r="E60" s="248">
-        <v>2542.9831839932644</v>
+        <v>2543.0423138511246</v>
       </c>
       <c r="F60" s="248">
-        <v>1285.7826853706658</v>
+        <v>1285.7732856848656</v>
       </c>
       <c r="G60" s="248">
-        <v>1057.1789316704869</v>
+        <v>1057.1494382270269</v>
       </c>
       <c r="H60" s="248">
-        <v>780.38076250709764</v>
+        <v>780.32271150600775</v>
       </c>
       <c r="I60" s="248">
-        <v>595.5681355823026</v>
+        <v>595.34904265287855</v>
       </c>
       <c r="J60" s="248">
-        <v>66.828493920074834</v>
+        <v>67.01610566157251</v>
       </c>
       <c r="K60" s="248">
         <v>11006</v>
@@ -11144,31 +11147,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="248">
-        <v>1456.1738874393509</v>
+        <v>1456.1737533669409</v>
       </c>
       <c r="C61" s="248">
-        <v>1193.5730480010147</v>
+        <v>1193.5897946321845</v>
       </c>
       <c r="D61" s="248">
-        <v>2030.6837293756782</v>
+        <v>2030.7364122773383</v>
       </c>
       <c r="E61" s="248">
-        <v>2545.1621071656937</v>
+        <v>2545.2212370235538</v>
       </c>
       <c r="F61" s="248">
-        <v>1287.2993802462736</v>
+        <v>1287.2899805604734</v>
       </c>
       <c r="G61" s="248">
-        <v>1058.9429562983942</v>
+        <v>1058.9134628549341</v>
       </c>
       <c r="H61" s="248">
-        <v>781.6174824073197</v>
+        <v>781.55943140622969</v>
       </c>
       <c r="I61" s="248">
-        <v>595.5681355823026</v>
+        <v>595.34904265287855</v>
       </c>
       <c r="J61" s="248">
-        <v>66.979273483972065</v>
+        <v>67.1668852254661</v>
       </c>
       <c r="K61" s="248">
         <v>11016</v>
@@ -11185,7 +11188,7 @@
         <v>73.2841994642083</v>
       </c>
       <c r="D62" s="246">
-        <v>150.259378276632</v>
+        <v>150.25937827663302</v>
       </c>
       <c r="E62" s="246">
         <v>146.403040090328</v>
@@ -11203,7 +11206,7 @@
         <v>118.757000230246</v>
       </c>
       <c r="J62" s="246">
-        <v>10.305438333949724</v>
+        <v>10.305438333948587</v>
       </c>
       <c r="K62" s="246">
         <v>1040</v>
@@ -11223,7 +11226,7 @@
         <v>115.295176793029</v>
       </c>
       <c r="E63" s="246">
-        <v>112.336178838542</v>
+        <v>112.336178838541</v>
       </c>
       <c r="F63" s="246">
         <v>83.514806758482692</v>
@@ -11238,7 +11241,7 @@
         <v>91.1231597920537</v>
       </c>
       <c r="J63" s="246">
-        <v>7.9074421062437068</v>
+        <v>7.90744210624473</v>
       </c>
       <c r="K63" s="246">
         <v>798.000000000001</v>
@@ -11255,10 +11258,10 @@
         <v>129.51572943770739</v>
       </c>
       <c r="D64" s="248">
-        <v>265.554555069661</v>
+        <v>265.554555069662</v>
       </c>
       <c r="E64" s="248">
-        <v>258.73921892887</v>
+        <v>258.739218928869</v>
       </c>
       <c r="F64" s="248">
         <v>192.35615892492672</v>
@@ -11273,7 +11276,7 @@
         <v>209.88016002229972</v>
       </c>
       <c r="J64" s="248">
-        <v>18.212880440192748</v>
+        <v>18.212880440193203</v>
       </c>
       <c r="K64" s="248">
         <v>1838.0000000000009</v>
@@ -11284,34 +11287,34 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1729.1015771119364</v>
+        <v>1729.1014430395264</v>
       </c>
       <c r="C65" s="248">
-        <v>1373.7715478264915</v>
+        <v>1373.7882944576616</v>
       </c>
       <c r="D65" s="248">
-        <v>2478.6468223068891</v>
+        <v>2478.6995052085504</v>
       </c>
       <c r="E65" s="248">
-        <v>2974.7564239272888</v>
+        <v>2974.815553785148</v>
       </c>
       <c r="F65" s="248">
-        <v>1582.6266387702963</v>
+        <v>1582.6172390844961</v>
       </c>
       <c r="G65" s="248">
-        <v>1437.3688988949618</v>
+        <v>1437.3394054515022</v>
       </c>
       <c r="H65" s="248">
-        <v>1184.7760017709579</v>
+        <v>1184.7179507698677</v>
       </c>
       <c r="I65" s="248">
-        <v>883.63148996201971</v>
+        <v>883.41239703259566</v>
       </c>
       <c r="J65" s="248">
-        <v>94.320599429160211</v>
+        <v>94.508211170654249</v>
       </c>
       <c r="K65" s="248">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -11360,7 +11363,7 @@
         <v>42.471009258632</v>
       </c>
       <c r="D67" s="246">
-        <v>969.774245581298</v>
+        <v>969.774245581297</v>
       </c>
       <c r="E67" s="246">
         <v>712.116581906361</v>
@@ -11372,16 +11375,16 @@
         <v>784.86808113923792</v>
       </c>
       <c r="H67" s="246">
-        <v>635.255879897253</v>
+        <v>635.255879897255</v>
       </c>
       <c r="I67" s="246">
         <v>33.211815008886</v>
       </c>
       <c r="J67" s="246">
-        <v>35.791814771044756</v>
+        <v>35.791814771053396</v>
       </c>
       <c r="K67" s="246">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
@@ -11427,7 +11430,7 @@
         <v>157.208940269885</v>
       </c>
       <c r="C69" s="246">
-        <v>152.761096276906</v>
+        <v>152.76109627690502</v>
       </c>
       <c r="D69" s="246">
         <v>292.771336965008</v>
@@ -11448,7 +11451,7 @@
         <v>3.4658179356144</v>
       </c>
       <c r="J69" s="246">
-        <v>33.623830496519986</v>
+        <v>33.623830496521123</v>
       </c>
       <c r="K69" s="246">
         <v>1202</v>
@@ -11462,7 +11465,7 @@
         <v>468.519232011106</v>
       </c>
       <c r="C70" s="248">
-        <v>443.733224387184</v>
+        <v>443.733224387183</v>
       </c>
       <c r="D70" s="248">
         <v>818.389715247333</v>
@@ -11483,7 +11486,7 @@
         <v>12.439717249689798</v>
       </c>
       <c r="J70" s="248">
-        <v>63.958803957283635</v>
+        <v>63.958803957284545</v>
       </c>
       <c r="K70" s="248">
         <v>3758</v>
@@ -11503,7 +11506,7 @@
         <v>938.782269236272</v>
       </c>
       <c r="E71" s="246">
-        <v>679.772539024381</v>
+        <v>679.772539024382</v>
       </c>
       <c r="F71" s="246">
         <v>299.414402929664</v>
@@ -11518,7 +11521,7 @@
         <v>32.5514071600062</v>
       </c>
       <c r="J71" s="246">
-        <v>35.080104333234431</v>
+        <v>35.080104333233521</v>
       </c>
       <c r="K71" s="246">
         <v>3401</v>
@@ -11599,34 +11602,34 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>2233.4698008297796</v>
+        <v>2233.46966675737</v>
       </c>
       <c r="C74" s="248">
-        <v>1883.7681323249092</v>
+        <v>1883.7848789560781</v>
       </c>
       <c r="D74" s="248">
-        <v>5241.2914642422875</v>
+        <v>5241.3441471439482</v>
       </c>
       <c r="E74" s="248">
-        <v>5350.3834994508625</v>
+        <v>5350.4426293087226</v>
       </c>
       <c r="F74" s="248">
-        <v>2724.6118949730489</v>
+        <v>2724.602495287249</v>
       </c>
       <c r="G74" s="248">
-        <v>3384.1827119587633</v>
+        <v>3384.1532185153033</v>
       </c>
       <c r="H74" s="248">
-        <v>2545.9196612510477</v>
+        <v>2545.86161024996</v>
       </c>
       <c r="I74" s="248">
-        <v>962.42457696376778</v>
+        <v>962.20548403434373</v>
       </c>
       <c r="J74" s="248">
-        <v>229.94825800553372</v>
+        <v>230.13586974704231</v>
       </c>
       <c r="K74" s="248">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -11774,34 +11777,34 @@
         <v>44</v>
       </c>
       <c r="B79" s="248">
-        <v>27301.485413904946</v>
+        <v>27301.488756605329</v>
       </c>
       <c r="C79" s="248">
-        <v>2419.2179264583506</v>
+        <v>2419.237712828638</v>
       </c>
       <c r="D79" s="248">
-        <v>6080.4672794481439</v>
+        <v>6080.52875149297</v>
       </c>
       <c r="E79" s="248">
-        <v>25827.794095959474</v>
+        <v>25827.87649099472</v>
       </c>
       <c r="F79" s="248">
-        <v>3587.983432005351</v>
+        <v>3587.9934107924641</v>
       </c>
       <c r="G79" s="248">
-        <v>4940.3613195441576</v>
+        <v>4940.3579590445588</v>
       </c>
       <c r="H79" s="248">
-        <v>5044.8201799940953</v>
+        <v>5044.7667171006278</v>
       </c>
       <c r="I79" s="248">
-        <v>4035.8849431585982</v>
+        <v>4035.5771798723135</v>
       </c>
       <c r="J79" s="248">
-        <v>1730.985409526882</v>
+        <v>1731.1730212684051</v>
       </c>
       <c r="K79" s="248">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="81">
@@ -11824,19 +11827,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="246">
-        <v>2295.91301864748</v>
+        <v>2295.91301864749</v>
       </c>
       <c r="C82" s="246">
-        <v>2832.597689322</v>
+        <v>2832.59768932201</v>
       </c>
       <c r="D82" s="246">
-        <v>4696.34908186909</v>
+        <v>4696.34908186908</v>
       </c>
       <c r="E82" s="246">
-        <v>4706.83706367069</v>
+        <v>4706.8370636707</v>
       </c>
       <c r="F82" s="246">
-        <v>3411.75751339235</v>
+        <v>3411.75751339234</v>
       </c>
       <c r="G82" s="246">
         <v>3083.4012650536697</v>
@@ -11848,7 +11851,7 @@
         <v>371.029145378647</v>
       </c>
       <c r="J82" s="246">
-        <v>-597.50089914581986</v>
+        <v>-597.50089914582713</v>
       </c>
       <c r="K82" s="246">
         <v>22615</v>
@@ -11999,19 +12002,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="248">
-        <v>5974.737510120468</v>
+        <v>5974.7375101204789</v>
       </c>
       <c r="C87" s="248">
-        <v>6143.0196380983889</v>
+        <v>6143.019638098398</v>
       </c>
       <c r="D87" s="248">
-        <v>10365.002641619698</v>
+        <v>10365.002641619689</v>
       </c>
       <c r="E87" s="248">
-        <v>13087.947063670692</v>
+        <v>13087.947063670701</v>
       </c>
       <c r="F87" s="248">
-        <v>9042.15051339235</v>
+        <v>9042.15051339234</v>
       </c>
       <c r="G87" s="248">
         <v>9588.98685505367</v>
@@ -12023,7 +12026,7 @@
         <v>2516.5791681125474</v>
       </c>
       <c r="J87" s="248">
-        <v>-597.50089914581622</v>
+        <v>-597.50089914583077</v>
       </c>
       <c r="K87" s="248">
         <v>63416</v>
@@ -12104,19 +12107,19 @@
         <v>80</v>
       </c>
       <c r="B90" s="248">
-        <v>5974.737510120468</v>
+        <v>5974.7375101204789</v>
       </c>
       <c r="C90" s="248">
-        <v>6143.0196380983889</v>
+        <v>6143.019638098398</v>
       </c>
       <c r="D90" s="248">
-        <v>10365.002641619698</v>
+        <v>10365.002641619689</v>
       </c>
       <c r="E90" s="248">
-        <v>13087.947063670692</v>
+        <v>13087.947063670701</v>
       </c>
       <c r="F90" s="248">
-        <v>9042.15051339235</v>
+        <v>9042.15051339234</v>
       </c>
       <c r="G90" s="248">
         <v>9588.98685505367</v>
@@ -12128,7 +12131,7 @@
         <v>2516.5791681125474</v>
       </c>
       <c r="J90" s="248">
-        <v>-317.50089914581622</v>
+        <v>-317.50089914583077</v>
       </c>
       <c r="K90" s="248">
         <v>63696</v>
@@ -12154,34 +12157,34 @@
         <v>88</v>
       </c>
       <c r="B93" s="248">
-        <v>21326.747903784475</v>
+        <v>21326.751246484855</v>
       </c>
       <c r="C93" s="248">
-        <v>-3723.8017116400383</v>
+        <v>-3723.78192526976</v>
       </c>
       <c r="D93" s="248">
-        <v>-4284.5353621715531</v>
+        <v>-4284.4738901267183</v>
       </c>
       <c r="E93" s="248">
-        <v>12739.847032288782</v>
+        <v>12739.929427324021</v>
       </c>
       <c r="F93" s="248">
-        <v>-5454.1670813869987</v>
+        <v>-5454.1571025998765</v>
       </c>
       <c r="G93" s="248">
-        <v>-4648.6255355095127</v>
+        <v>-4648.6288960091115</v>
       </c>
       <c r="H93" s="248">
-        <v>-2250.2573290839046</v>
+        <v>-2250.310791977372</v>
       </c>
       <c r="I93" s="248">
-        <v>1519.3057750460505</v>
+        <v>1518.9980117597659</v>
       </c>
       <c r="J93" s="248">
-        <v>2048.4863086726964</v>
+        <v>2048.673920414225</v>
       </c>
       <c r="K93" s="248">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -12222,7 +12225,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="227" customFormat="1">
       <c r="A1" s="241" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="241"/>
       <c r="C1" s="241"/>
@@ -12246,127 +12249,127 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="229" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="226" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="226" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="226" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="226" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="226" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="226" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="226" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="226" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="226" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="226" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="226" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="226" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="226" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="226" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="226" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="226" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="226" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="226" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="226" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="226" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="226" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="229" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="226" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="226" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -12417,7 +12420,7 @@
   <sheetData>
     <row r="1" ht="24.75">
       <c r="A1" s="242" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="242"/>
@@ -12619,34 +12622,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27706.602378071737</v>
+        <v>27706.60583249254</v>
       </c>
       <c r="C9" s="231">
-        <v>2545.5689597116962</v>
+        <v>2545.5889921630087</v>
       </c>
       <c r="D9" s="231">
-        <v>6207.2814865646433</v>
+        <v>6207.3442848974091</v>
       </c>
       <c r="E9" s="231">
-        <v>25843.480768023317</v>
+        <v>25843.566772999697</v>
       </c>
       <c r="F9" s="231">
-        <v>3553.9715938349805</v>
+        <v>3553.9839677115292</v>
       </c>
       <c r="G9" s="231">
-        <v>4566.7768645480974</v>
+        <v>4566.783061353397</v>
       </c>
       <c r="H9" s="231">
-        <v>4871.73007939153</v>
+        <v>4871.7001323338336</v>
       </c>
       <c r="I9" s="231">
-        <v>3942.5783304526854</v>
+        <v>3942.211473044772</v>
       </c>
       <c r="J9" s="231">
-        <v>1731.0095394013042</v>
+        <v>1731.2154830038489</v>
       </c>
       <c r="K9" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="10" hidden="1" ht="15" customHeight="1">
@@ -12669,31 +12672,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27706.602378071737</v>
+        <v>27706.60583249254</v>
       </c>
       <c r="C11" s="231">
-        <v>30252.171337783431</v>
+        <v>30252.194824655548</v>
       </c>
       <c r="D11" s="231">
-        <v>36459.452824348074</v>
+        <v>36459.539109552956</v>
       </c>
       <c r="E11" s="231">
-        <v>62302.933592371395</v>
+        <v>62303.105882552656</v>
       </c>
       <c r="F11" s="231">
-        <v>65856.905186206379</v>
+        <v>65857.089850264179</v>
       </c>
       <c r="G11" s="231">
-        <v>70423.682050754476</v>
+        <v>70423.872911617582</v>
       </c>
       <c r="H11" s="231">
-        <v>75295.412130146011</v>
+        <v>75295.573043951415</v>
       </c>
       <c r="I11" s="231">
-        <v>79237.9904605987</v>
+        <v>79237.78451699618</v>
       </c>
       <c r="J11" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K11" s="231">
         <v>0</v>
@@ -12704,19 +12707,19 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>5907.5075856341982</v>
+        <v>5907.5075856342082</v>
       </c>
       <c r="C12" s="231">
         <v>6109.8456679390592</v>
       </c>
       <c r="D12" s="231">
-        <v>10269.926714346137</v>
+        <v>10269.926714346128</v>
       </c>
       <c r="E12" s="231">
         <v>13079.65374747818</v>
       </c>
       <c r="F12" s="231">
-        <v>8993.03131093263</v>
+        <v>8993.03131093264</v>
       </c>
       <c r="G12" s="231">
         <v>9554.4570929031415</v>
@@ -12725,10 +12728,10 @@
         <v>7412.90391962838</v>
       </c>
       <c r="I12" s="231">
-        <v>2601.9262369061789</v>
+        <v>2601.92623690618</v>
       </c>
       <c r="J12" s="231">
-        <v>-233.25227576789621</v>
+        <v>-233.25227576791076</v>
       </c>
       <c r="K12" s="231">
         <v>63696</v>
@@ -12763,10 +12766,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="K13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -12774,10 +12777,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>5907.5075856341982</v>
+        <v>5907.5075856342082</v>
       </c>
       <c r="C14" s="231">
-        <v>12017.353253573258</v>
+        <v>12017.353253573267</v>
       </c>
       <c r="D14" s="231">
         <v>22287.279967919392</v>
@@ -12786,19 +12789,19 @@
         <v>35366.933715397572</v>
       </c>
       <c r="F14" s="231">
-        <v>44359.9650263302</v>
+        <v>44359.96502633021</v>
       </c>
       <c r="G14" s="231">
-        <v>53914.422119233343</v>
+        <v>53914.42211923335</v>
       </c>
       <c r="H14" s="231">
-        <v>61327.32603886172</v>
+        <v>61327.326038861727</v>
       </c>
       <c r="I14" s="231">
-        <v>63929.252275767896</v>
+        <v>63929.252275767911</v>
       </c>
       <c r="J14" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K14" s="231"/>
     </row>
@@ -12807,31 +12810,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>21799.09479243754</v>
+        <v>21799.098246858332</v>
       </c>
       <c r="C15" s="231">
-        <v>-3564.2767082273631</v>
+        <v>-3564.2566757760505</v>
       </c>
       <c r="D15" s="231">
-        <v>-4062.6452277814933</v>
+        <v>-4062.5824294487184</v>
       </c>
       <c r="E15" s="231">
-        <v>12763.827020545137</v>
+        <v>12763.913025521517</v>
       </c>
       <c r="F15" s="231">
-        <v>-5439.0597170976507</v>
+        <v>-5439.0473432211111</v>
       </c>
       <c r="G15" s="231">
-        <v>-4987.6802283550442</v>
+        <v>-4987.6740315497445</v>
       </c>
       <c r="H15" s="231">
-        <v>-2541.17384023685</v>
+        <v>-2541.2037872945466</v>
       </c>
       <c r="I15" s="231">
-        <v>1340.6520935465064</v>
+        <v>1340.2852361385922</v>
       </c>
       <c r="J15" s="231">
-        <v>-15308.7381848308</v>
+        <v>-15308.532241228269</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -12840,31 +12843,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.26922766481539279</v>
+        <v>0.26922770747889097</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.044020263412261028</v>
+        <v>-0.044020016003359919</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.05017531682225905</v>
+        <v>-0.0501745412373713</v>
       </c>
       <c r="E16" s="236">
-        <v>0.15763844212655631</v>
+        <v>0.15763950432290769</v>
       </c>
       <c r="F16" s="237">
-        <v>-0.067174594191575177</v>
+        <v>-0.067174441369179674</v>
       </c>
       <c r="G16" s="236">
-        <v>-0.061599874376058052</v>
+        <v>-0.061599797842998461</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.0313845279086669</v>
+        <v>-0.031384897766979288</v>
       </c>
       <c r="I16" s="236">
-        <v>0.016557597272369752</v>
+        <v>0.016553066434543982</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.18906912750349886</v>
+        <v>-0.18906658401645402</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -12873,28 +12876,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>21799.09479243754</v>
+        <v>21799.098246858332</v>
       </c>
       <c r="C17" s="231">
-        <v>18234.818084210172</v>
+        <v>18234.841571082281</v>
       </c>
       <c r="D17" s="231">
-        <v>14172.172856428682</v>
+        <v>14172.259141633564</v>
       </c>
       <c r="E17" s="231">
-        <v>26935.999876973823</v>
+        <v>26936.172167155084</v>
       </c>
       <c r="F17" s="231">
-        <v>21496.940159876176</v>
+        <v>21497.124823933969</v>
       </c>
       <c r="G17" s="231">
-        <v>16509.259931521134</v>
+        <v>16509.450792384232</v>
       </c>
       <c r="H17" s="231">
-        <v>13968.086091284291</v>
+        <v>13968.247005089688</v>
       </c>
       <c r="I17" s="231">
-        <v>15308.7381848308</v>
+        <v>15308.532241228269</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -12906,28 +12909,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.26922766481539279</v>
+        <v>0.26922770747889097</v>
       </c>
       <c r="C18" s="236">
-        <v>0.22520740140313172</v>
+        <v>0.22520769147553107</v>
       </c>
       <c r="D18" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="E18" s="236">
-        <v>0.33267052670742908</v>
+        <v>0.33267265456106748</v>
       </c>
       <c r="F18" s="237">
-        <v>0.26549593251585391</v>
+        <v>0.26549821319188777</v>
       </c>
       <c r="G18" s="236">
-        <v>0.20389605813979589</v>
+        <v>0.20389841534888942</v>
       </c>
       <c r="H18" s="236">
-        <v>0.17251153023112908</v>
+        <v>0.17251351758191014</v>
       </c>
       <c r="I18" s="236">
-        <v>0.18906912750349886</v>
+        <v>0.18906658401645402</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -12939,31 +12942,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>4.6900663226312735</v>
+        <v>4.6900669073822376</v>
       </c>
       <c r="C19" s="236">
-        <v>0.416633921388452</v>
+        <v>0.4166372001048716</v>
       </c>
       <c r="D19" s="236">
-        <v>0.60441341591012976</v>
+        <v>0.604419530689185</v>
       </c>
       <c r="E19" s="236">
-        <v>1.9758535865680744</v>
+        <v>1.9758601620461445</v>
       </c>
       <c r="F19" s="237">
-        <v>0.39519172912413808</v>
+        <v>0.39519310506469885</v>
       </c>
       <c r="G19" s="236">
-        <v>0.47797345470735408</v>
+        <v>0.47797410328479173</v>
       </c>
       <c r="H19" s="236">
-        <v>0.65719590220127355</v>
+        <v>0.65719186234617466</v>
       </c>
       <c r="I19" s="236">
-        <v>1.5152536895667763</v>
+        <v>1.5151126950210005</v>
       </c>
       <c r="J19" s="236">
-        <v>0.1015865708469174</v>
+        <v>0.10159865691801871</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -12972,28 +12975,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>4.6900663226312735</v>
+        <v>4.6900669073822376</v>
       </c>
       <c r="C20" s="236">
-        <v>2.51737389252398</v>
+        <v>2.517375846937036</v>
       </c>
       <c r="D20" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="E20" s="236">
-        <v>1.7616153578291918</v>
+        <v>1.7616202293338192</v>
       </c>
       <c r="F20" s="237">
-        <v>1.4846022792650198</v>
+        <v>1.4846064421190184</v>
       </c>
       <c r="G20" s="236">
-        <v>1.3062123135626016</v>
+        <v>1.3062158536332467</v>
       </c>
       <c r="H20" s="236">
-        <v>1.2277628423328459</v>
+        <v>1.2277654661844921</v>
       </c>
       <c r="I20" s="236">
-        <v>1.2394637453101185</v>
+        <v>1.2394605238802534</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -13036,28 +13039,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="C23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E23" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -13067,28 +13070,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="D24" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="F24" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="G24" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="H24" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="I24" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -13424,34 +13427,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>401.321057666539</v>
+        <v>401.32460674400403</v>
       </c>
       <c r="C50" s="246">
-        <v>415.764804691226</v>
+        <v>415.767972489188</v>
       </c>
       <c r="D50" s="246">
-        <v>747.89617229249893</v>
+        <v>747.90538855208592</v>
       </c>
       <c r="E50" s="246">
-        <v>1177.56149558191</v>
+        <v>1177.58556342392</v>
       </c>
       <c r="F50" s="246">
-        <v>902.757256270404</v>
+        <v>902.776168443603</v>
       </c>
       <c r="G50" s="246">
-        <v>1339.5928072754</v>
+        <v>1339.61522827793</v>
       </c>
       <c r="H50" s="246">
-        <v>1948.87343910852</v>
+        <v>1948.870474835</v>
       </c>
       <c r="I50" s="246">
-        <v>1804.4362160591002</v>
+        <v>1804.35784617986</v>
       </c>
       <c r="J50" s="246">
-        <v>354.79675105440219</v>
+        <v>354.79675105441856</v>
       </c>
       <c r="K50" s="246">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -13459,34 +13462,34 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>401.321057666539</v>
+        <v>401.32460674400403</v>
       </c>
       <c r="C51" s="248">
-        <v>415.764804691226</v>
+        <v>415.767972489188</v>
       </c>
       <c r="D51" s="248">
-        <v>747.89617229249893</v>
+        <v>747.90538855208592</v>
       </c>
       <c r="E51" s="248">
-        <v>1177.56149558191</v>
+        <v>1177.58556342392</v>
       </c>
       <c r="F51" s="248">
-        <v>902.757256270404</v>
+        <v>902.776168443603</v>
       </c>
       <c r="G51" s="248">
-        <v>1339.5928072754</v>
+        <v>1339.61522827793</v>
       </c>
       <c r="H51" s="248">
-        <v>1948.87343910852</v>
+        <v>1948.870474835</v>
       </c>
       <c r="I51" s="248">
-        <v>1804.4362160591002</v>
+        <v>1804.35784617986</v>
       </c>
       <c r="J51" s="248">
-        <v>354.79675105440219</v>
+        <v>354.79675105441856</v>
       </c>
       <c r="K51" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -13494,34 +13497,34 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>401.321057666539</v>
+        <v>401.32460674400403</v>
       </c>
       <c r="C52" s="248">
-        <v>415.764804691226</v>
+        <v>415.767972489188</v>
       </c>
       <c r="D52" s="248">
-        <v>747.89617229249893</v>
+        <v>747.90538855208592</v>
       </c>
       <c r="E52" s="248">
-        <v>1177.56149558191</v>
+        <v>1177.58556342392</v>
       </c>
       <c r="F52" s="248">
-        <v>902.757256270404</v>
+        <v>902.776168443603</v>
       </c>
       <c r="G52" s="248">
-        <v>1339.5928072754</v>
+        <v>1339.61522827793</v>
       </c>
       <c r="H52" s="248">
-        <v>1948.87343910852</v>
+        <v>1948.870474835</v>
       </c>
       <c r="I52" s="248">
-        <v>1804.4362160591002</v>
+        <v>1804.35784617986</v>
       </c>
       <c r="J52" s="248">
-        <v>354.79675105440219</v>
+        <v>354.79675105441856</v>
       </c>
       <c r="K52" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
@@ -13529,34 +13532,34 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>15462.334663670554</v>
+        <v>15462.338212748018</v>
       </c>
       <c r="C53" s="248">
-        <v>562.299692382428</v>
+        <v>562.3028601803901</v>
       </c>
       <c r="D53" s="248">
-        <v>879.88074030275811</v>
+        <v>879.88995656234488</v>
       </c>
       <c r="E53" s="248">
-        <v>20528.530631602411</v>
+        <v>20528.554699444419</v>
       </c>
       <c r="F53" s="248">
-        <v>902.757256270404</v>
+        <v>902.776168443603</v>
       </c>
       <c r="G53" s="248">
-        <v>1339.5928072754</v>
+        <v>1339.61522827793</v>
       </c>
       <c r="H53" s="248">
-        <v>2476.1189393799682</v>
+        <v>2476.1159751064479</v>
       </c>
       <c r="I53" s="248">
-        <v>2860.4481175947403</v>
+        <v>2860.3697477155</v>
       </c>
       <c r="J53" s="248">
-        <v>1493.0371515213483</v>
+        <v>1493.0371515213556</v>
       </c>
       <c r="K53" s="248">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -13588,10 +13591,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J54" s="246">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K54" s="246">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -13623,10 +13626,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J55" s="248">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K55" s="248">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -13658,10 +13661,10 @@
         <v>72.4134479739497</v>
       </c>
       <c r="J56" s="246">
-        <v>6.5331947013655736</v>
+        <v>6.5331947013665967</v>
       </c>
       <c r="K56" s="246">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
@@ -13704,31 +13707,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="246">
-        <v>1564.2256601102502</v>
+        <v>1564.22556545359</v>
       </c>
       <c r="C58" s="246">
-        <v>1290.56872496094</v>
+        <v>1290.58558961429</v>
       </c>
       <c r="D58" s="246">
-        <v>2112.50271826595</v>
+        <v>2112.5563003391303</v>
       </c>
       <c r="E58" s="246">
-        <v>2504.3351474300302</v>
+        <v>2504.3970845644</v>
       </c>
       <c r="F58" s="246">
-        <v>1210.35353095707</v>
+        <v>1210.34699266042</v>
       </c>
       <c r="G58" s="246">
-        <v>897.310295752028</v>
+        <v>897.294071554797</v>
       </c>
       <c r="H58" s="246">
-        <v>625.634222294883</v>
+        <v>625.607239510706</v>
       </c>
       <c r="I58" s="246">
-        <v>723.03873136568393</v>
+        <v>722.750243837011</v>
       </c>
       <c r="J58" s="246">
-        <v>67.030968863164162</v>
+        <v>67.236912465656133</v>
       </c>
       <c r="K58" s="246">
         <v>10995</v>
@@ -13774,31 +13777,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="248">
-        <v>1566.0743405071114</v>
+        <v>1566.0742458504512</v>
       </c>
       <c r="C60" s="248">
-        <v>1292.2273347341265</v>
+        <v>1292.2441993874766</v>
       </c>
       <c r="D60" s="248">
-        <v>2115.1205378205159</v>
+        <v>2115.1741198936957</v>
       </c>
       <c r="E60" s="248">
-        <v>2506.7699751869009</v>
+        <v>2506.8319123212705</v>
       </c>
       <c r="F60" s="248">
-        <v>1211.4441723693417</v>
+        <v>1211.4376340726917</v>
       </c>
       <c r="G60" s="248">
-        <v>898.15402871575429</v>
+        <v>898.13780451852324</v>
       </c>
       <c r="H60" s="248">
-        <v>626.03025729043179</v>
+        <v>626.0032745062548</v>
       </c>
       <c r="I60" s="248">
-        <v>723.057385196126</v>
+        <v>722.76889766745308</v>
       </c>
       <c r="J60" s="248">
-        <v>67.121968179691976</v>
+        <v>67.327911782183946</v>
       </c>
       <c r="K60" s="248">
         <v>11006</v>
@@ -13809,31 +13812,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="248">
-        <v>1566.9714611329839</v>
+        <v>1566.9713664763237</v>
       </c>
       <c r="C61" s="248">
-        <v>1293.0477328903969</v>
+        <v>1293.0645975437469</v>
       </c>
       <c r="D61" s="248">
-        <v>2116.5558768983124</v>
+        <v>2116.6094589714926</v>
       </c>
       <c r="E61" s="248">
-        <v>2508.9518506336958</v>
+        <v>2509.0137877680654</v>
       </c>
       <c r="F61" s="248">
-        <v>1212.9623570555445</v>
+        <v>1212.9558187588948</v>
       </c>
       <c r="G61" s="248">
-        <v>899.91972558084331</v>
+        <v>899.90350138361225</v>
       </c>
       <c r="H61" s="248">
-        <v>627.26095652803644</v>
+        <v>627.23397374385945</v>
       </c>
       <c r="I61" s="248">
-        <v>723.057385196126</v>
+        <v>722.76889766745308</v>
       </c>
       <c r="J61" s="248">
-        <v>67.272654084061287</v>
+        <v>67.478597686551439</v>
       </c>
       <c r="K61" s="248">
         <v>11016</v>
@@ -13949,34 +13952,34 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1839.8991508055694</v>
+        <v>1839.8990561489093</v>
       </c>
       <c r="C65" s="248">
-        <v>1473.2658862845979</v>
+        <v>1473.2827509379481</v>
       </c>
       <c r="D65" s="248">
-        <v>2564.7244188269351</v>
+        <v>2564.7780009001149</v>
       </c>
       <c r="E65" s="248">
-        <v>2939.290006671923</v>
+        <v>2939.3519438062931</v>
       </c>
       <c r="F65" s="248">
-        <v>1509.2531262156122</v>
+        <v>1509.2465879189622</v>
       </c>
       <c r="G65" s="248">
-        <v>1280.4056946724556</v>
+        <v>1280.3894704752245</v>
       </c>
       <c r="H65" s="248">
-        <v>1034.4769853897374</v>
+        <v>1034.4500026055605</v>
       </c>
       <c r="I65" s="248">
-        <v>1003.3373661384046</v>
+        <v>1003.0488786097317</v>
       </c>
       <c r="J65" s="248">
-        <v>94.347364994764575</v>
+        <v>94.553308597258365</v>
       </c>
       <c r="K65" s="248">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -14025,7 +14028,7 @@
         <v>42.471009258632</v>
       </c>
       <c r="D67" s="246">
-        <v>969.774245581298</v>
+        <v>969.774245581297</v>
       </c>
       <c r="E67" s="246">
         <v>712.116581906361</v>
@@ -14037,16 +14040,16 @@
         <v>784.86808113923792</v>
       </c>
       <c r="H67" s="246">
-        <v>635.255879897253</v>
+        <v>635.255879897255</v>
       </c>
       <c r="I67" s="246">
         <v>33.211815008886</v>
       </c>
       <c r="J67" s="246">
-        <v>35.791814771044756</v>
+        <v>35.791814771053396</v>
       </c>
       <c r="K67" s="246">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
@@ -14168,7 +14171,7 @@
         <v>938.782269236272</v>
       </c>
       <c r="E71" s="246">
-        <v>679.772539024381</v>
+        <v>679.772539024382</v>
       </c>
       <c r="F71" s="246">
         <v>299.414402929664</v>
@@ -14183,7 +14186,7 @@
         <v>32.5514071600062</v>
       </c>
       <c r="J71" s="246">
-        <v>35.080104333234431</v>
+        <v>35.080104333233521</v>
       </c>
       <c r="K71" s="246">
         <v>3401</v>
@@ -14264,34 +14267,34 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>2344.2677144011805</v>
+        <v>2344.2676197445203</v>
       </c>
       <c r="C74" s="248">
-        <v>1983.2692673292681</v>
+        <v>1983.2861319826184</v>
       </c>
       <c r="D74" s="248">
-        <v>5327.4007462618856</v>
+        <v>5327.454328335064</v>
       </c>
       <c r="E74" s="248">
-        <v>5314.9501364209054</v>
+        <v>5315.0120735552755</v>
       </c>
       <c r="F74" s="248">
-        <v>2651.2143375645765</v>
+        <v>2651.2077992679265</v>
       </c>
       <c r="G74" s="248">
-        <v>3227.1840572726974</v>
+        <v>3227.1678330754662</v>
       </c>
       <c r="H74" s="248">
-        <v>2395.611140011561</v>
+        <v>2395.5841572273857</v>
       </c>
       <c r="I74" s="248">
-        <v>1082.1302128579448</v>
+        <v>1081.8417253292721</v>
       </c>
       <c r="J74" s="248">
-        <v>229.9723878799814</v>
+        <v>230.17833148248974</v>
       </c>
       <c r="K74" s="248">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -14439,34 +14442,34 @@
         <v>44</v>
       </c>
       <c r="B79" s="248">
-        <v>27706.602378071737</v>
+        <v>27706.60583249254</v>
       </c>
       <c r="C79" s="248">
-        <v>2545.5689597116962</v>
+        <v>2545.5889921630087</v>
       </c>
       <c r="D79" s="248">
-        <v>6207.2814865646433</v>
+        <v>6207.3442848974091</v>
       </c>
       <c r="E79" s="248">
-        <v>25843.480768023317</v>
+        <v>25843.566772999697</v>
       </c>
       <c r="F79" s="248">
-        <v>3553.9715938349805</v>
+        <v>3553.9839677115292</v>
       </c>
       <c r="G79" s="248">
-        <v>4566.7768645480974</v>
+        <v>4566.783061353397</v>
       </c>
       <c r="H79" s="248">
-        <v>4871.73007939153</v>
+        <v>4871.7001323338336</v>
       </c>
       <c r="I79" s="248">
-        <v>3942.5783304526854</v>
+        <v>3942.211473044772</v>
       </c>
       <c r="J79" s="248">
-        <v>1731.0095394013042</v>
+        <v>1731.2154830038489</v>
       </c>
       <c r="K79" s="248">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="81">
@@ -14489,19 +14492,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="246">
-        <v>2228.68309416121</v>
+        <v>2228.6830941612197</v>
       </c>
       <c r="C82" s="246">
         <v>2799.42371916267</v>
       </c>
       <c r="D82" s="246">
-        <v>4601.2731545955294</v>
+        <v>4601.27315459552</v>
       </c>
       <c r="E82" s="246">
         <v>4698.5437474781793</v>
       </c>
       <c r="F82" s="246">
-        <v>3362.6383109326302</v>
+        <v>3362.63831093264</v>
       </c>
       <c r="G82" s="246">
         <v>3048.87150290314</v>
@@ -14510,10 +14513,10 @@
         <v>1932.44253236227</v>
       </c>
       <c r="I82" s="246">
-        <v>456.376214172278</v>
+        <v>456.376214172279</v>
       </c>
       <c r="J82" s="246">
-        <v>-513.25227576790712</v>
+        <v>-513.252275767918</v>
       </c>
       <c r="K82" s="246">
         <v>22615</v>
@@ -14664,19 +14667,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="248">
-        <v>5907.5075856341982</v>
+        <v>5907.5075856342082</v>
       </c>
       <c r="C87" s="248">
         <v>6109.8456679390592</v>
       </c>
       <c r="D87" s="248">
-        <v>10269.926714346137</v>
+        <v>10269.926714346128</v>
       </c>
       <c r="E87" s="248">
         <v>13079.65374747818</v>
       </c>
       <c r="F87" s="248">
-        <v>8993.03131093263</v>
+        <v>8993.03131093264</v>
       </c>
       <c r="G87" s="248">
         <v>9554.4570929031415</v>
@@ -14685,10 +14688,10 @@
         <v>7412.90391962838</v>
       </c>
       <c r="I87" s="248">
-        <v>2601.9262369061789</v>
+        <v>2601.92623690618</v>
       </c>
       <c r="J87" s="248">
-        <v>-513.25227576789621</v>
+        <v>-513.25227576791076</v>
       </c>
       <c r="K87" s="248">
         <v>63416</v>
@@ -14769,19 +14772,19 @@
         <v>80</v>
       </c>
       <c r="B90" s="248">
-        <v>5907.5075856341982</v>
+        <v>5907.5075856342082</v>
       </c>
       <c r="C90" s="248">
         <v>6109.8456679390592</v>
       </c>
       <c r="D90" s="248">
-        <v>10269.926714346137</v>
+        <v>10269.926714346128</v>
       </c>
       <c r="E90" s="248">
         <v>13079.65374747818</v>
       </c>
       <c r="F90" s="248">
-        <v>8993.03131093263</v>
+        <v>8993.03131093264</v>
       </c>
       <c r="G90" s="248">
         <v>9554.4570929031415</v>
@@ -14790,10 +14793,10 @@
         <v>7412.90391962838</v>
       </c>
       <c r="I90" s="248">
-        <v>2601.9262369061789</v>
+        <v>2601.92623690618</v>
       </c>
       <c r="J90" s="248">
-        <v>-233.25227576789621</v>
+        <v>-233.25227576791076</v>
       </c>
       <c r="K90" s="248">
         <v>63696</v>
@@ -14819,34 +14822,34 @@
         <v>88</v>
       </c>
       <c r="B93" s="248">
-        <v>21799.09479243754</v>
+        <v>21799.098246858332</v>
       </c>
       <c r="C93" s="248">
-        <v>-3564.2767082273635</v>
+        <v>-3564.256675776051</v>
       </c>
       <c r="D93" s="248">
-        <v>-4062.6452277814933</v>
+        <v>-4062.5824294487184</v>
       </c>
       <c r="E93" s="248">
-        <v>12763.827020545135</v>
+        <v>12763.913025521517</v>
       </c>
       <c r="F93" s="248">
-        <v>-5439.0597170976507</v>
+        <v>-5439.0473432211111</v>
       </c>
       <c r="G93" s="248">
-        <v>-4987.6802283550433</v>
+        <v>-4987.6740315497445</v>
       </c>
       <c r="H93" s="248">
-        <v>-2541.17384023685</v>
+        <v>-2541.2037872945461</v>
       </c>
       <c r="I93" s="248">
-        <v>1340.6520935465064</v>
+        <v>1340.2852361385924</v>
       </c>
       <c r="J93" s="248">
-        <v>1964.2618151692204</v>
+        <v>1964.4677587717579</v>
       </c>
       <c r="K93" s="248">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -15033,34 +15036,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>27706.602378071737</v>
+        <v>27706.60583249254</v>
       </c>
       <c r="C9" s="231">
-        <v>2545.5689597116962</v>
+        <v>2545.5889921630087</v>
       </c>
       <c r="D9" s="231">
-        <v>6207.2814865646433</v>
+        <v>6207.3442848974091</v>
       </c>
       <c r="E9" s="231">
-        <v>25843.480768023317</v>
+        <v>25843.566772999697</v>
       </c>
       <c r="F9" s="231">
-        <v>3553.9715938349805</v>
+        <v>3553.9839677115292</v>
       </c>
       <c r="G9" s="231">
-        <v>4566.7768645480974</v>
+        <v>4566.783061353397</v>
       </c>
       <c r="H9" s="231">
-        <v>4871.73007939153</v>
+        <v>4871.7001323338336</v>
       </c>
       <c r="I9" s="231">
-        <v>3942.570064063782</v>
+        <v>3942.203209565324</v>
       </c>
       <c r="J9" s="231">
-        <v>1731.0178057902085</v>
+        <v>1731.223746483287</v>
       </c>
       <c r="K9" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="10" hidden="1" ht="15" customHeight="1">
@@ -15083,31 +15086,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>27706.602378071737</v>
+        <v>27706.60583249254</v>
       </c>
       <c r="C11" s="231">
-        <v>30252.171337783431</v>
+        <v>30252.194824655548</v>
       </c>
       <c r="D11" s="231">
-        <v>36459.452824348074</v>
+        <v>36459.539109552956</v>
       </c>
       <c r="E11" s="231">
-        <v>62302.933592371395</v>
+        <v>62303.105882552656</v>
       </c>
       <c r="F11" s="231">
-        <v>65856.905186206379</v>
+        <v>65857.089850264179</v>
       </c>
       <c r="G11" s="231">
-        <v>70423.682050754476</v>
+        <v>70423.872911617582</v>
       </c>
       <c r="H11" s="231">
-        <v>75295.412130146011</v>
+        <v>75295.573043951415</v>
       </c>
       <c r="I11" s="231">
-        <v>79237.982194209791</v>
+        <v>79237.776253516742</v>
       </c>
       <c r="J11" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K11" s="231">
         <v>0</v>
@@ -15118,19 +15121,19 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>5907.5075856341982</v>
+        <v>5907.5075856342082</v>
       </c>
       <c r="C12" s="231">
         <v>6109.8456679390592</v>
       </c>
       <c r="D12" s="231">
-        <v>10269.926714346137</v>
+        <v>10269.926714346128</v>
       </c>
       <c r="E12" s="231">
         <v>13079.65374747818</v>
       </c>
       <c r="F12" s="231">
-        <v>8993.03131093263</v>
+        <v>8993.03131093264</v>
       </c>
       <c r="G12" s="231">
         <v>9554.4570929031415</v>
@@ -15139,10 +15142,10 @@
         <v>7412.90391962838</v>
       </c>
       <c r="I12" s="231">
-        <v>2605.2988496201228</v>
+        <v>2605.2988496201237</v>
       </c>
       <c r="J12" s="231">
-        <v>-236.62488848184148</v>
+        <v>-236.62488848184876</v>
       </c>
       <c r="K12" s="231">
         <v>63696</v>
@@ -15177,10 +15180,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="K13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -15188,10 +15191,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>5907.5075856341982</v>
+        <v>5907.5075856342082</v>
       </c>
       <c r="C14" s="231">
-        <v>12017.353253573258</v>
+        <v>12017.353253573267</v>
       </c>
       <c r="D14" s="231">
         <v>22287.279967919392</v>
@@ -15200,19 +15203,19 @@
         <v>35366.933715397572</v>
       </c>
       <c r="F14" s="231">
-        <v>44359.9650263302</v>
+        <v>44359.96502633021</v>
       </c>
       <c r="G14" s="231">
-        <v>53914.422119233343</v>
+        <v>53914.42211923335</v>
       </c>
       <c r="H14" s="231">
-        <v>61327.32603886172</v>
+        <v>61327.326038861727</v>
       </c>
       <c r="I14" s="231">
-        <v>63932.624888481841</v>
+        <v>63932.624888481849</v>
       </c>
       <c r="J14" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K14" s="231"/>
     </row>
@@ -15221,31 +15224,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>21799.09479243754</v>
+        <v>21799.098246858332</v>
       </c>
       <c r="C15" s="231">
-        <v>-3564.2767082273631</v>
+        <v>-3564.2566757760505</v>
       </c>
       <c r="D15" s="231">
-        <v>-4062.6452277814933</v>
+        <v>-4062.5824294487184</v>
       </c>
       <c r="E15" s="231">
-        <v>12763.827020545137</v>
+        <v>12763.913025521517</v>
       </c>
       <c r="F15" s="231">
-        <v>-5439.0597170976507</v>
+        <v>-5439.0473432211111</v>
       </c>
       <c r="G15" s="231">
-        <v>-4987.6802283550442</v>
+        <v>-4987.6740315497445</v>
       </c>
       <c r="H15" s="231">
-        <v>-2541.17384023685</v>
+        <v>-2541.2037872945466</v>
       </c>
       <c r="I15" s="231">
-        <v>1337.2712144436591</v>
+        <v>1336.9043599452002</v>
       </c>
       <c r="J15" s="231">
-        <v>-15305.35730572795</v>
+        <v>-15305.151365034893</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -15254,31 +15257,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.26922766481539279</v>
+        <v>0.26922770747889097</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.044020263412261028</v>
+        <v>-0.044020016003359919</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.05017531682225905</v>
+        <v>-0.0501745412373713</v>
       </c>
       <c r="E16" s="236">
-        <v>0.15763844212655631</v>
+        <v>0.15763950432290769</v>
       </c>
       <c r="F16" s="237">
-        <v>-0.067174594191575177</v>
+        <v>-0.067174441369179674</v>
       </c>
       <c r="G16" s="236">
-        <v>-0.061599874376058052</v>
+        <v>-0.061599797842998461</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.0313845279086669</v>
+        <v>-0.031384897766979288</v>
       </c>
       <c r="I16" s="236">
-        <v>0.016515842043790328</v>
+        <v>0.016511311241897513</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.18902737227491939</v>
+        <v>-0.18902482882380775</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -15287,28 +15290,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>21799.09479243754</v>
+        <v>21799.098246858332</v>
       </c>
       <c r="C17" s="231">
-        <v>18234.818084210172</v>
+        <v>18234.841571082281</v>
       </c>
       <c r="D17" s="231">
-        <v>14172.172856428682</v>
+        <v>14172.259141633564</v>
       </c>
       <c r="E17" s="231">
-        <v>26935.999876973823</v>
+        <v>26936.172167155084</v>
       </c>
       <c r="F17" s="231">
-        <v>21496.940159876176</v>
+        <v>21497.124823933969</v>
       </c>
       <c r="G17" s="231">
-        <v>16509.259931521134</v>
+        <v>16509.450792384232</v>
       </c>
       <c r="H17" s="231">
-        <v>13968.086091284291</v>
+        <v>13968.247005089688</v>
       </c>
       <c r="I17" s="231">
-        <v>15305.35730572795</v>
+        <v>15305.151365034893</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -15320,28 +15323,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.26922766481539279</v>
+        <v>0.26922770747889097</v>
       </c>
       <c r="C18" s="236">
-        <v>0.22520740140313172</v>
+        <v>0.22520769147553107</v>
       </c>
       <c r="D18" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="E18" s="236">
-        <v>0.33267052670742908</v>
+        <v>0.33267265456106748</v>
       </c>
       <c r="F18" s="237">
-        <v>0.26549593251585391</v>
+        <v>0.26549821319188777</v>
       </c>
       <c r="G18" s="236">
-        <v>0.20389605813979589</v>
+        <v>0.20389841534888942</v>
       </c>
       <c r="H18" s="236">
-        <v>0.17251153023112908</v>
+        <v>0.17251351758191014</v>
       </c>
       <c r="I18" s="236">
-        <v>0.18902737227491939</v>
+        <v>0.18902482882380775</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -15353,31 +15356,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>4.6900663226312735</v>
+        <v>4.6900669073822376</v>
       </c>
       <c r="C19" s="236">
-        <v>0.416633921388452</v>
+        <v>0.4166372001048716</v>
       </c>
       <c r="D19" s="236">
-        <v>0.60441341591012976</v>
+        <v>0.604419530689185</v>
       </c>
       <c r="E19" s="236">
-        <v>1.9758535865680744</v>
+        <v>1.9758601620461445</v>
       </c>
       <c r="F19" s="237">
-        <v>0.39519172912413808</v>
+        <v>0.39519310506469885</v>
       </c>
       <c r="G19" s="236">
-        <v>0.47797345470735408</v>
+        <v>0.47797410328479173</v>
       </c>
       <c r="H19" s="236">
-        <v>0.65719590220127355</v>
+        <v>0.65719186234617466</v>
       </c>
       <c r="I19" s="236">
-        <v>1.5132889897213311</v>
+        <v>1.5131481788126278</v>
       </c>
       <c r="J19" s="236">
-        <v>0.10160716669239581</v>
+        <v>0.10161925498534123</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -15386,28 +15389,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>4.6900663226312735</v>
+        <v>4.6900669073822376</v>
       </c>
       <c r="C20" s="236">
-        <v>2.51737389252398</v>
+        <v>2.517375846937036</v>
       </c>
       <c r="D20" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="E20" s="236">
-        <v>1.7616153578291918</v>
+        <v>1.7616202293338192</v>
       </c>
       <c r="F20" s="237">
-        <v>1.4846022792650198</v>
+        <v>1.4846064421190184</v>
       </c>
       <c r="G20" s="236">
-        <v>1.3062123135626016</v>
+        <v>1.3062158536332467</v>
       </c>
       <c r="H20" s="236">
-        <v>1.2277628423328459</v>
+        <v>1.2277654661844921</v>
       </c>
       <c r="I20" s="236">
-        <v>1.2393982310663014</v>
+        <v>1.2393950098518836</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -15450,28 +15453,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="C23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E23" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -15481,28 +15484,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="D24" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="F24" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="G24" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="H24" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="I24" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -15838,34 +15841,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>401.321057666539</v>
+        <v>401.32460674400403</v>
       </c>
       <c r="C50" s="246">
-        <v>415.764804691226</v>
+        <v>415.767972489188</v>
       </c>
       <c r="D50" s="246">
-        <v>747.89617229249893</v>
+        <v>747.90538855208592</v>
       </c>
       <c r="E50" s="246">
-        <v>1177.56149558191</v>
+        <v>1177.58556342392</v>
       </c>
       <c r="F50" s="246">
-        <v>902.757256270404</v>
+        <v>902.776168443603</v>
       </c>
       <c r="G50" s="246">
-        <v>1339.5928072754</v>
+        <v>1339.61522827793</v>
       </c>
       <c r="H50" s="246">
-        <v>1948.87343910852</v>
+        <v>1948.870474835</v>
       </c>
       <c r="I50" s="246">
-        <v>1804.4362160591002</v>
+        <v>1804.35784617986</v>
       </c>
       <c r="J50" s="246">
-        <v>354.79675105440219</v>
+        <v>354.79675105441856</v>
       </c>
       <c r="K50" s="246">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -15873,34 +15876,34 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>401.321057666539</v>
+        <v>401.32460674400403</v>
       </c>
       <c r="C51" s="248">
-        <v>415.764804691226</v>
+        <v>415.767972489188</v>
       </c>
       <c r="D51" s="248">
-        <v>747.89617229249893</v>
+        <v>747.90538855208592</v>
       </c>
       <c r="E51" s="248">
-        <v>1177.56149558191</v>
+        <v>1177.58556342392</v>
       </c>
       <c r="F51" s="248">
-        <v>902.757256270404</v>
+        <v>902.776168443603</v>
       </c>
       <c r="G51" s="248">
-        <v>1339.5928072754</v>
+        <v>1339.61522827793</v>
       </c>
       <c r="H51" s="248">
-        <v>1948.87343910852</v>
+        <v>1948.870474835</v>
       </c>
       <c r="I51" s="248">
-        <v>1804.4362160591002</v>
+        <v>1804.35784617986</v>
       </c>
       <c r="J51" s="248">
-        <v>354.79675105440219</v>
+        <v>354.79675105441856</v>
       </c>
       <c r="K51" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -15908,34 +15911,34 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>401.321057666539</v>
+        <v>401.32460674400403</v>
       </c>
       <c r="C52" s="248">
-        <v>415.764804691226</v>
+        <v>415.767972489188</v>
       </c>
       <c r="D52" s="248">
-        <v>747.89617229249893</v>
+        <v>747.90538855208592</v>
       </c>
       <c r="E52" s="248">
-        <v>1177.56149558191</v>
+        <v>1177.58556342392</v>
       </c>
       <c r="F52" s="248">
-        <v>902.757256270404</v>
+        <v>902.776168443603</v>
       </c>
       <c r="G52" s="248">
-        <v>1339.5928072754</v>
+        <v>1339.61522827793</v>
       </c>
       <c r="H52" s="248">
-        <v>1948.87343910852</v>
+        <v>1948.870474835</v>
       </c>
       <c r="I52" s="248">
-        <v>1804.4362160591002</v>
+        <v>1804.35784617986</v>
       </c>
       <c r="J52" s="248">
-        <v>354.79675105440219</v>
+        <v>354.79675105441856</v>
       </c>
       <c r="K52" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
@@ -15943,34 +15946,34 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>15462.334663670554</v>
+        <v>15462.338212748018</v>
       </c>
       <c r="C53" s="248">
-        <v>562.299692382428</v>
+        <v>562.3028601803901</v>
       </c>
       <c r="D53" s="248">
-        <v>879.88074030275811</v>
+        <v>879.88995656234488</v>
       </c>
       <c r="E53" s="248">
-        <v>20528.530631602411</v>
+        <v>20528.554699444419</v>
       </c>
       <c r="F53" s="248">
-        <v>902.757256270404</v>
+        <v>902.776168443603</v>
       </c>
       <c r="G53" s="248">
-        <v>1339.5928072754</v>
+        <v>1339.61522827793</v>
       </c>
       <c r="H53" s="248">
-        <v>2476.1189393799682</v>
+        <v>2476.1159751064479</v>
       </c>
       <c r="I53" s="248">
-        <v>2860.4481175947403</v>
+        <v>2860.3697477155</v>
       </c>
       <c r="J53" s="248">
-        <v>1493.0371515213483</v>
+        <v>1493.0371515213556</v>
       </c>
       <c r="K53" s="248">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -16002,10 +16005,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J54" s="246">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K54" s="246">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -16037,10 +16040,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J55" s="248">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K55" s="248">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -16072,10 +16075,10 @@
         <v>72.411015492859988</v>
       </c>
       <c r="J56" s="246">
-        <v>6.5356271824553005</v>
+        <v>6.5356271824563237</v>
       </c>
       <c r="K56" s="246">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
@@ -16118,31 +16121,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="246">
-        <v>1564.2256601102502</v>
+        <v>1564.22556545359</v>
       </c>
       <c r="C58" s="246">
-        <v>1290.56872496094</v>
+        <v>1290.58558961429</v>
       </c>
       <c r="D58" s="246">
-        <v>2112.50271826595</v>
+        <v>2112.5563003391303</v>
       </c>
       <c r="E58" s="246">
-        <v>2504.3351474300302</v>
+        <v>2504.3970845644</v>
       </c>
       <c r="F58" s="246">
-        <v>1210.35353095707</v>
+        <v>1210.34699266042</v>
       </c>
       <c r="G58" s="246">
-        <v>897.310295752028</v>
+        <v>897.294071554797</v>
       </c>
       <c r="H58" s="246">
-        <v>625.634222294883</v>
+        <v>625.607239510706</v>
       </c>
       <c r="I58" s="246">
-        <v>723.0397546668321</v>
+        <v>722.751270047614</v>
       </c>
       <c r="J58" s="246">
-        <v>67.029945562017019</v>
+        <v>67.23588625505181</v>
       </c>
       <c r="K58" s="246">
         <v>10995</v>
@@ -16188,31 +16191,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="248">
-        <v>1566.0743405071114</v>
+        <v>1566.0742458504512</v>
       </c>
       <c r="C60" s="248">
-        <v>1292.2273347341265</v>
+        <v>1292.2441993874766</v>
       </c>
       <c r="D60" s="248">
-        <v>2115.1205378205159</v>
+        <v>2115.1741198936957</v>
       </c>
       <c r="E60" s="248">
-        <v>2506.7699751869009</v>
+        <v>2506.8319123212705</v>
       </c>
       <c r="F60" s="248">
-        <v>1211.4441723693417</v>
+        <v>1211.4376340726917</v>
       </c>
       <c r="G60" s="248">
-        <v>898.15402871575429</v>
+        <v>898.13780451852324</v>
       </c>
       <c r="H60" s="248">
-        <v>626.03025729043179</v>
+        <v>626.0032745062548</v>
       </c>
       <c r="I60" s="248">
-        <v>723.05840849727406</v>
+        <v>722.769923878056</v>
       </c>
       <c r="J60" s="248">
-        <v>67.120944878543014</v>
+        <v>67.326885571579624</v>
       </c>
       <c r="K60" s="248">
         <v>11006</v>
@@ -16223,31 +16226,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="248">
-        <v>1566.9714611329839</v>
+        <v>1566.9713664763237</v>
       </c>
       <c r="C61" s="248">
-        <v>1293.0477328903969</v>
+        <v>1293.0645975437469</v>
       </c>
       <c r="D61" s="248">
-        <v>2116.5558768983124</v>
+        <v>2116.6094589714926</v>
       </c>
       <c r="E61" s="248">
-        <v>2508.9518506336958</v>
+        <v>2509.0137877680654</v>
       </c>
       <c r="F61" s="248">
-        <v>1212.9623570555445</v>
+        <v>1212.9558187588948</v>
       </c>
       <c r="G61" s="248">
-        <v>899.91972558084331</v>
+        <v>899.90350138361225</v>
       </c>
       <c r="H61" s="248">
-        <v>627.26095652803644</v>
+        <v>627.23397374385945</v>
       </c>
       <c r="I61" s="248">
-        <v>723.05840849727406</v>
+        <v>722.769923878056</v>
       </c>
       <c r="J61" s="248">
-        <v>67.271630782912325</v>
+        <v>67.477571475948935</v>
       </c>
       <c r="K61" s="248">
         <v>11016</v>
@@ -16363,34 +16366,34 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1839.8991508055694</v>
+        <v>1839.8990561489093</v>
       </c>
       <c r="C65" s="248">
-        <v>1473.2658862845979</v>
+        <v>1473.2827509379481</v>
       </c>
       <c r="D65" s="248">
-        <v>2564.7244188269351</v>
+        <v>2564.7780009001149</v>
       </c>
       <c r="E65" s="248">
-        <v>2939.290006671923</v>
+        <v>2939.3519438062931</v>
       </c>
       <c r="F65" s="248">
-        <v>1509.2531262156122</v>
+        <v>1509.2465879189622</v>
       </c>
       <c r="G65" s="248">
-        <v>1280.4056946724556</v>
+        <v>1280.3894704752245</v>
       </c>
       <c r="H65" s="248">
-        <v>1034.4769853897374</v>
+        <v>1034.4500026055605</v>
       </c>
       <c r="I65" s="248">
-        <v>1003.3290997495012</v>
+        <v>1003.0406151302832</v>
       </c>
       <c r="J65" s="248">
-        <v>94.355631383668879</v>
+        <v>94.561572076707307</v>
       </c>
       <c r="K65" s="248">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -16439,7 +16442,7 @@
         <v>42.471009258632</v>
       </c>
       <c r="D67" s="246">
-        <v>969.774245581298</v>
+        <v>969.774245581297</v>
       </c>
       <c r="E67" s="246">
         <v>712.116581906361</v>
@@ -16451,16 +16454,16 @@
         <v>784.86808113923792</v>
       </c>
       <c r="H67" s="246">
-        <v>635.255879897253</v>
+        <v>635.255879897255</v>
       </c>
       <c r="I67" s="246">
         <v>33.211815008886</v>
       </c>
       <c r="J67" s="246">
-        <v>35.791814771044756</v>
+        <v>35.791814771053396</v>
       </c>
       <c r="K67" s="246">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
@@ -16582,7 +16585,7 @@
         <v>938.782269236272</v>
       </c>
       <c r="E71" s="246">
-        <v>679.772539024381</v>
+        <v>679.772539024382</v>
       </c>
       <c r="F71" s="246">
         <v>299.414402929664</v>
@@ -16597,7 +16600,7 @@
         <v>32.5514071600062</v>
       </c>
       <c r="J71" s="246">
-        <v>35.080104333234431</v>
+        <v>35.080104333233521</v>
       </c>
       <c r="K71" s="246">
         <v>3401</v>
@@ -16678,34 +16681,34 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>2344.2677144011805</v>
+        <v>2344.2676197445203</v>
       </c>
       <c r="C74" s="248">
-        <v>1983.2692673292681</v>
+        <v>1983.2861319826184</v>
       </c>
       <c r="D74" s="248">
-        <v>5327.4007462618856</v>
+        <v>5327.454328335064</v>
       </c>
       <c r="E74" s="248">
-        <v>5314.9501364209054</v>
+        <v>5315.0120735552755</v>
       </c>
       <c r="F74" s="248">
-        <v>2651.2143375645765</v>
+        <v>2651.2077992679265</v>
       </c>
       <c r="G74" s="248">
-        <v>3227.1840572726974</v>
+        <v>3227.1678330754662</v>
       </c>
       <c r="H74" s="248">
-        <v>2395.611140011561</v>
+        <v>2395.5841572273857</v>
       </c>
       <c r="I74" s="248">
-        <v>1082.1219464690416</v>
+        <v>1081.8334618498236</v>
       </c>
       <c r="J74" s="248">
-        <v>229.9806542688857</v>
+        <v>230.18659496193868</v>
       </c>
       <c r="K74" s="248">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -16853,34 +16856,34 @@
         <v>44</v>
       </c>
       <c r="B79" s="248">
-        <v>27706.602378071737</v>
+        <v>27706.60583249254</v>
       </c>
       <c r="C79" s="248">
-        <v>2545.5689597116962</v>
+        <v>2545.5889921630087</v>
       </c>
       <c r="D79" s="248">
-        <v>6207.2814865646433</v>
+        <v>6207.3442848974091</v>
       </c>
       <c r="E79" s="248">
-        <v>25843.480768023317</v>
+        <v>25843.566772999697</v>
       </c>
       <c r="F79" s="248">
-        <v>3553.9715938349805</v>
+        <v>3553.9839677115292</v>
       </c>
       <c r="G79" s="248">
-        <v>4566.7768645480974</v>
+        <v>4566.783061353397</v>
       </c>
       <c r="H79" s="248">
-        <v>4871.73007939153</v>
+        <v>4871.7001323338336</v>
       </c>
       <c r="I79" s="248">
-        <v>3942.570064063782</v>
+        <v>3942.203209565324</v>
       </c>
       <c r="J79" s="248">
-        <v>1731.0178057902085</v>
+        <v>1731.223746483287</v>
       </c>
       <c r="K79" s="248">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="81">
@@ -16903,19 +16906,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="246">
-        <v>2228.68309416121</v>
+        <v>2228.6830941612197</v>
       </c>
       <c r="C82" s="246">
         <v>2799.42371916267</v>
       </c>
       <c r="D82" s="246">
-        <v>4601.2731545955294</v>
+        <v>4601.27315459552</v>
       </c>
       <c r="E82" s="246">
         <v>4698.5437474781793</v>
       </c>
       <c r="F82" s="246">
-        <v>3362.6383109326302</v>
+        <v>3362.63831093264</v>
       </c>
       <c r="G82" s="246">
         <v>3048.87150290314</v>
@@ -16924,10 +16927,10 @@
         <v>1932.44253236227</v>
       </c>
       <c r="I82" s="246">
-        <v>459.748826886222</v>
+        <v>459.748826886223</v>
       </c>
       <c r="J82" s="246">
-        <v>-516.62488848185239</v>
+        <v>-516.62488848185967</v>
       </c>
       <c r="K82" s="246">
         <v>22615</v>
@@ -17078,19 +17081,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="248">
-        <v>5907.5075856341982</v>
+        <v>5907.5075856342082</v>
       </c>
       <c r="C87" s="248">
         <v>6109.8456679390592</v>
       </c>
       <c r="D87" s="248">
-        <v>10269.926714346137</v>
+        <v>10269.926714346128</v>
       </c>
       <c r="E87" s="248">
         <v>13079.65374747818</v>
       </c>
       <c r="F87" s="248">
-        <v>8993.03131093263</v>
+        <v>8993.03131093264</v>
       </c>
       <c r="G87" s="248">
         <v>9554.4570929031415</v>
@@ -17099,10 +17102,10 @@
         <v>7412.90391962838</v>
       </c>
       <c r="I87" s="248">
-        <v>2605.2988496201228</v>
+        <v>2605.2988496201237</v>
       </c>
       <c r="J87" s="248">
-        <v>-516.62488848184148</v>
+        <v>-516.62488848184876</v>
       </c>
       <c r="K87" s="248">
         <v>63416</v>
@@ -17183,19 +17186,19 @@
         <v>80</v>
       </c>
       <c r="B90" s="248">
-        <v>5907.5075856341982</v>
+        <v>5907.5075856342082</v>
       </c>
       <c r="C90" s="248">
         <v>6109.8456679390592</v>
       </c>
       <c r="D90" s="248">
-        <v>10269.926714346137</v>
+        <v>10269.926714346128</v>
       </c>
       <c r="E90" s="248">
         <v>13079.65374747818</v>
       </c>
       <c r="F90" s="248">
-        <v>8993.03131093263</v>
+        <v>8993.03131093264</v>
       </c>
       <c r="G90" s="248">
         <v>9554.4570929031415</v>
@@ -17204,10 +17207,10 @@
         <v>7412.90391962838</v>
       </c>
       <c r="I90" s="248">
-        <v>2605.2988496201228</v>
+        <v>2605.2988496201237</v>
       </c>
       <c r="J90" s="248">
-        <v>-236.62488848184148</v>
+        <v>-236.62488848184876</v>
       </c>
       <c r="K90" s="248">
         <v>63696</v>
@@ -17233,34 +17236,34 @@
         <v>88</v>
       </c>
       <c r="B93" s="248">
-        <v>21799.09479243754</v>
+        <v>21799.098246858332</v>
       </c>
       <c r="C93" s="248">
-        <v>-3564.2767082273635</v>
+        <v>-3564.256675776051</v>
       </c>
       <c r="D93" s="248">
-        <v>-4062.6452277814933</v>
+        <v>-4062.5824294487184</v>
       </c>
       <c r="E93" s="248">
-        <v>12763.827020545135</v>
+        <v>12763.913025521517</v>
       </c>
       <c r="F93" s="248">
-        <v>-5439.0597170976507</v>
+        <v>-5439.0473432211111</v>
       </c>
       <c r="G93" s="248">
-        <v>-4987.6802283550433</v>
+        <v>-4987.6740315497445</v>
       </c>
       <c r="H93" s="248">
-        <v>-2541.17384023685</v>
+        <v>-2541.2037872945461</v>
       </c>
       <c r="I93" s="248">
-        <v>1337.2712144436589</v>
+        <v>1336.9043599452</v>
       </c>
       <c r="J93" s="248">
-        <v>1967.6426942720682</v>
+        <v>1967.8486349651503</v>
       </c>
       <c r="K93" s="248">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -17447,34 +17450,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>26955.048468728728</v>
+        <v>26955.051546000861</v>
       </c>
       <c r="C9" s="231">
-        <v>2175.0520653290755</v>
+        <v>2175.0718305447349</v>
       </c>
       <c r="D9" s="231">
-        <v>5766.5597472843465</v>
+        <v>5766.621382021609</v>
       </c>
       <c r="E9" s="231">
-        <v>6745.3413935108592</v>
+        <v>6745.4211063354887</v>
       </c>
       <c r="F9" s="231">
-        <v>3725.6223155064126</v>
+        <v>3725.6223307027976</v>
       </c>
       <c r="G9" s="231">
-        <v>4969.3814611505013</v>
+        <v>4969.3555471712107</v>
       </c>
       <c r="H9" s="231">
-        <v>5370.534920169026</v>
+        <v>5370.4579421793369</v>
       </c>
       <c r="I9" s="231">
-        <v>23526.126166247581</v>
+        <v>23525.910609419709</v>
       </c>
       <c r="J9" s="231">
-        <v>1735.3334620734677</v>
+        <v>1735.487705624284</v>
       </c>
       <c r="K9" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="10" hidden="1" ht="15" customHeight="1">
@@ -17497,31 +17500,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>26955.048468728728</v>
+        <v>26955.051546000861</v>
       </c>
       <c r="C11" s="231">
-        <v>29130.100534057805</v>
+        <v>29130.123376545595</v>
       </c>
       <c r="D11" s="231">
-        <v>34896.660281342149</v>
+        <v>34896.744758567205</v>
       </c>
       <c r="E11" s="231">
-        <v>41642.001674853011</v>
+        <v>41642.165864902694</v>
       </c>
       <c r="F11" s="231">
-        <v>45367.623990359425</v>
+        <v>45367.788195605492</v>
       </c>
       <c r="G11" s="231">
-        <v>50337.005451509925</v>
+        <v>50337.1437427767</v>
       </c>
       <c r="H11" s="231">
-        <v>55707.540371678951</v>
+        <v>55707.60168495604</v>
       </c>
       <c r="I11" s="231">
-        <v>79233.666537926532</v>
+        <v>79233.512294375745</v>
       </c>
       <c r="J11" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K11" s="231">
         <v>0</v>
@@ -17550,7 +17553,7 @@
         <v>9559.6027463705886</v>
       </c>
       <c r="H12" s="231">
-        <v>7285.6862005200792</v>
+        <v>7285.6862005200892</v>
       </c>
       <c r="I12" s="231">
         <v>2525.534763850952</v>
@@ -17591,10 +17594,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="K13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -17620,13 +17623,13 @@
         <v>54331.208860697749</v>
       </c>
       <c r="H14" s="231">
-        <v>61616.895061217831</v>
+        <v>61616.895061217838</v>
       </c>
       <c r="I14" s="231">
         <v>64142.429825068786</v>
       </c>
       <c r="J14" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K14" s="231"/>
     </row>
@@ -17635,31 +17638,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>20933.89159330646</v>
+        <v>20933.894670578593</v>
       </c>
       <c r="C15" s="231">
-        <v>-4006.3602967397342</v>
+        <v>-4006.3405315240748</v>
       </c>
       <c r="D15" s="231">
-        <v>-4688.5813610042815</v>
+        <v>-4688.519726267019</v>
       </c>
       <c r="E15" s="231">
-        <v>-6328.59995408052</v>
+        <v>-6328.52024125589</v>
       </c>
       <c r="F15" s="231">
-        <v>-5314.3321054496664</v>
+        <v>-5314.3320902532814</v>
       </c>
       <c r="G15" s="231">
-        <v>-4590.2212852200873</v>
+        <v>-4590.247199199378</v>
       </c>
       <c r="H15" s="231">
-        <v>-1915.1512803510532</v>
+        <v>-1915.2282583407523</v>
       </c>
       <c r="I15" s="231">
-        <v>21000.591402396629</v>
+        <v>21000.375845568757</v>
       </c>
       <c r="J15" s="231">
-        <v>-15091.236712857746</v>
+        <v>-15091.082469306959</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -17668,31 +17671,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.258542054283818</v>
+        <v>0.25854209228937725</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.049480175088487371</v>
+        <v>-0.049479930980055</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.057905882016627122</v>
+        <v>-0.057905120802616034</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.078160777014419341</v>
+        <v>-0.078159792528694788</v>
       </c>
       <c r="F16" s="237">
-        <v>-0.065634157584380029</v>
+        <v>-0.065634157396698478</v>
       </c>
       <c r="G16" s="236">
-        <v>-0.056691095174944577</v>
+        <v>-0.056691415223102372</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.02365289530994644</v>
+        <v>-0.023653846019350021</v>
       </c>
       <c r="I16" s="236">
-        <v>0.25936582398691632</v>
+        <v>0.2593631617726383</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.18638289608192946</v>
+        <v>-0.18638099111149889</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -17701,28 +17704,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>20933.89159330646</v>
+        <v>20933.894670578593</v>
       </c>
       <c r="C17" s="231">
-        <v>16927.531296566725</v>
+        <v>16927.554139054519</v>
       </c>
       <c r="D17" s="231">
-        <v>12238.949935562443</v>
+        <v>12239.0344127875</v>
       </c>
       <c r="E17" s="231">
-        <v>5910.34998148193</v>
+        <v>5910.5141715316131</v>
       </c>
       <c r="F17" s="231">
-        <v>596.01787603226694</v>
+        <v>596.1820812783335</v>
       </c>
       <c r="G17" s="231">
-        <v>-3994.2034091878231</v>
+        <v>-3994.0651179210472</v>
       </c>
       <c r="H17" s="231">
-        <v>-5909.354689538879</v>
+        <v>-5909.2933762617977</v>
       </c>
       <c r="I17" s="231">
-        <v>15091.236712857746</v>
+        <v>15091.082469306959</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -17734,28 +17737,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.258542054283818</v>
+        <v>0.25854209228937725</v>
       </c>
       <c r="C18" s="236">
-        <v>0.20906187919533065</v>
+        <v>0.20906216130932223</v>
       </c>
       <c r="D18" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="E18" s="236">
-        <v>0.072995220164284225</v>
+        <v>0.072997247978011479</v>
       </c>
       <c r="F18" s="237">
-        <v>0.007361062579904246</v>
+        <v>0.0073630905813130117</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.04933003259504036</v>
+        <v>-0.0493283246417894</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.072982927904986838</v>
+        <v>-0.072982170661139392</v>
       </c>
       <c r="I18" s="236">
-        <v>0.18638289608192946</v>
+        <v>0.18638099111149889</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -17767,31 +17770,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>4.4767225014110519</v>
+        <v>4.47672301248761</v>
       </c>
       <c r="C19" s="236">
-        <v>0.35186975693061906</v>
+        <v>0.35187295445482569</v>
       </c>
       <c r="D19" s="236">
-        <v>0.55155255080323429</v>
+        <v>0.55155844596396175</v>
       </c>
       <c r="E19" s="236">
-        <v>0.51593786557360977</v>
+        <v>0.51594396265042153</v>
       </c>
       <c r="F19" s="237">
-        <v>0.41212844025737744</v>
+        <v>0.412128441938402</v>
       </c>
       <c r="G19" s="236">
-        <v>0.51983137720206873</v>
+        <v>0.51982866642213588</v>
       </c>
       <c r="H19" s="236">
-        <v>0.73713508547563533</v>
+        <v>0.73712451982847771</v>
       </c>
       <c r="I19" s="236">
-        <v>9.31530482295749</v>
+        <v>9.31521947199303</v>
       </c>
       <c r="J19" s="236">
-        <v>0.10313055150471635</v>
+        <v>0.10313971817084081</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -17800,28 +17803,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>4.4767225014110519</v>
+        <v>4.47672301248761</v>
       </c>
       <c r="C20" s="236">
-        <v>2.3872104281579256</v>
+        <v>2.3872123000987724</v>
       </c>
       <c r="D20" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="E20" s="236">
-        <v>1.1654093696032084</v>
+        <v>1.1654139646902504</v>
       </c>
       <c r="F20" s="237">
-        <v>1.0133124077458893</v>
+        <v>1.0133160753660691</v>
       </c>
       <c r="G20" s="236">
-        <v>0.92648417929686167</v>
+        <v>0.92648672463442494</v>
       </c>
       <c r="H20" s="236">
-        <v>0.90409522122677888</v>
+        <v>0.90409621629926706</v>
       </c>
       <c r="I20" s="236">
-        <v>1.2352769727310773</v>
+        <v>1.2352745680271831</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -17864,28 +17867,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="C23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E23" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -17895,28 +17898,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="D24" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="F24" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="G24" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="H24" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="I24" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -18252,34 +18255,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>278.507981414979</v>
+        <v>278.511253667083</v>
       </c>
       <c r="C50" s="246">
-        <v>344.420853915367</v>
+        <v>344.42386589884</v>
       </c>
       <c r="D50" s="246">
-        <v>666.210628417891</v>
+        <v>666.21984935773594</v>
       </c>
       <c r="E50" s="246">
-        <v>1068.92804309855</v>
+        <v>1068.95251626008</v>
       </c>
       <c r="F50" s="246">
-        <v>821.540351190288</v>
+        <v>821.561764698413</v>
       </c>
       <c r="G50" s="246">
-        <v>1258.38757157418</v>
+        <v>1258.41788195556</v>
       </c>
       <c r="H50" s="246">
-        <v>2021.3642649869</v>
+        <v>2021.37284697967</v>
       </c>
       <c r="I50" s="246">
-        <v>2278.84355434742</v>
+        <v>2278.74327012821</v>
       </c>
       <c r="J50" s="246">
-        <v>354.79675105442584</v>
+        <v>354.79675105441675</v>
       </c>
       <c r="K50" s="246">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -18287,34 +18290,34 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>278.507981414979</v>
+        <v>278.511253667083</v>
       </c>
       <c r="C51" s="248">
-        <v>344.420853915367</v>
+        <v>344.42386589884</v>
       </c>
       <c r="D51" s="248">
-        <v>666.210628417891</v>
+        <v>666.21984935773594</v>
       </c>
       <c r="E51" s="248">
-        <v>1068.92804309855</v>
+        <v>1068.95251626008</v>
       </c>
       <c r="F51" s="248">
-        <v>821.540351190288</v>
+        <v>821.561764698413</v>
       </c>
       <c r="G51" s="248">
-        <v>1258.38757157418</v>
+        <v>1258.41788195556</v>
       </c>
       <c r="H51" s="248">
-        <v>2021.3642649869</v>
+        <v>2021.37284697967</v>
       </c>
       <c r="I51" s="248">
-        <v>2278.84355434742</v>
+        <v>2278.74327012821</v>
       </c>
       <c r="J51" s="248">
-        <v>354.79675105442584</v>
+        <v>354.79675105441675</v>
       </c>
       <c r="K51" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -18322,34 +18325,34 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>278.507981414979</v>
+        <v>278.511253667083</v>
       </c>
       <c r="C52" s="248">
-        <v>344.420853915367</v>
+        <v>344.42386589884</v>
       </c>
       <c r="D52" s="248">
-        <v>666.210628417891</v>
+        <v>666.21984935773594</v>
       </c>
       <c r="E52" s="248">
-        <v>1068.92804309855</v>
+        <v>1068.95251626008</v>
       </c>
       <c r="F52" s="248">
-        <v>821.540351190288</v>
+        <v>821.561764698413</v>
       </c>
       <c r="G52" s="248">
-        <v>1258.38757157418</v>
+        <v>1258.41788195556</v>
       </c>
       <c r="H52" s="248">
-        <v>2021.3642649869</v>
+        <v>2021.37284697967</v>
       </c>
       <c r="I52" s="248">
-        <v>2278.84355434742</v>
+        <v>2278.74327012821</v>
       </c>
       <c r="J52" s="248">
-        <v>354.79675105442584</v>
+        <v>354.79675105441675</v>
       </c>
       <c r="K52" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
@@ -18357,34 +18360,34 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>15078.903042732378</v>
+        <v>15078.906314984482</v>
       </c>
       <c r="C53" s="248">
-        <v>490.95574160656895</v>
+        <v>490.958753590042</v>
       </c>
       <c r="D53" s="248">
-        <v>798.19519642815</v>
+        <v>798.204417367995</v>
       </c>
       <c r="E53" s="248">
-        <v>1332.8971791190681</v>
+        <v>1332.921652280598</v>
       </c>
       <c r="F53" s="248">
-        <v>821.540351190288</v>
+        <v>821.561764698413</v>
       </c>
       <c r="G53" s="248">
-        <v>1258.38757157418</v>
+        <v>1258.41788195556</v>
       </c>
       <c r="H53" s="248">
-        <v>2548.609765258348</v>
+        <v>2548.6183472511179</v>
       </c>
       <c r="I53" s="248">
-        <v>22682.508952551081</v>
+        <v>22682.408668331867</v>
       </c>
       <c r="J53" s="248">
-        <v>1493.0021995399366</v>
+        <v>1493.0021995399293</v>
       </c>
       <c r="K53" s="248">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -18416,10 +18419,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J54" s="246">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K54" s="246">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -18451,10 +18454,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J55" s="248">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K55" s="248">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -18486,10 +18489,10 @@
         <v>76.741985056975</v>
       </c>
       <c r="J56" s="246">
-        <v>6.6843415548593157</v>
+        <v>6.6843415548603389</v>
       </c>
       <c r="K56" s="246">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
@@ -18532,31 +18535,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="246">
-        <v>1196.10838056642</v>
+        <v>1196.10818558645</v>
       </c>
       <c r="C58" s="246">
-        <v>991.535051816771</v>
+        <v>991.551805048958</v>
       </c>
       <c r="D58" s="246">
-        <v>1754.68073304407</v>
+        <v>1754.73314684149</v>
       </c>
       <c r="E58" s="246">
-        <v>2605.2506989334197</v>
+        <v>2605.3059385965203</v>
       </c>
       <c r="F58" s="246">
-        <v>1466.11178222188</v>
+        <v>1466.09038391014</v>
       </c>
       <c r="G58" s="246">
-        <v>1385.0037121331602</v>
+        <v>1384.94748777249</v>
       </c>
       <c r="H58" s="246">
-        <v>1057.51369282723</v>
+        <v>1057.42813284477</v>
       </c>
       <c r="I58" s="246">
-        <v>467.993182349584</v>
+        <v>467.877909740923</v>
       </c>
       <c r="J58" s="246">
-        <v>70.802766107464777</v>
+        <v>70.957009658257448</v>
       </c>
       <c r="K58" s="246">
         <v>10995</v>
@@ -18602,31 +18605,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="248">
-        <v>1197.9542183578114</v>
+        <v>1197.9540233778414</v>
       </c>
       <c r="C60" s="248">
-        <v>993.18989541774931</v>
+        <v>993.20664864993626</v>
       </c>
       <c r="D60" s="248">
-        <v>1757.2927712919361</v>
+        <v>1757.3451850893559</v>
       </c>
       <c r="E60" s="248">
-        <v>2607.681962133961</v>
+        <v>2607.7372017970611</v>
       </c>
       <c r="F60" s="248">
-        <v>1467.2041073205262</v>
+        <v>1467.1827090087861</v>
       </c>
       <c r="G60" s="248">
-        <v>1385.852731520929</v>
+        <v>1385.7965071602587</v>
       </c>
       <c r="H60" s="248">
-        <v>1057.9171688359756</v>
+        <v>1057.8316088535157</v>
       </c>
       <c r="I60" s="248">
-        <v>468.0130274190418</v>
+        <v>467.89775481038077</v>
       </c>
       <c r="J60" s="248">
-        <v>70.894117702067888</v>
+        <v>71.048361252862378</v>
       </c>
       <c r="K60" s="248">
         <v>11006</v>
@@ -18637,31 +18640,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="248">
-        <v>1198.851338983684</v>
+        <v>1198.8511440037137</v>
       </c>
       <c r="C61" s="248">
-        <v>994.01029357401967</v>
+        <v>994.02704680620673</v>
       </c>
       <c r="D61" s="248">
-        <v>1758.7281103697328</v>
+        <v>1758.7805241671529</v>
       </c>
       <c r="E61" s="248">
-        <v>2609.8419310270497</v>
+        <v>2609.89717069015</v>
       </c>
       <c r="F61" s="248">
-        <v>1468.7142067502689</v>
+        <v>1468.6928084385288</v>
       </c>
       <c r="G61" s="248">
-        <v>1387.6205936676843</v>
+        <v>1387.5643693070142</v>
       </c>
       <c r="H61" s="248">
-        <v>1059.1751461232177</v>
+        <v>1059.0895861407576</v>
       </c>
       <c r="I61" s="248">
-        <v>468.0130274190418</v>
+        <v>467.89775481038077</v>
       </c>
       <c r="J61" s="248">
-        <v>71.045352085300692</v>
+        <v>71.199595636095182</v>
       </c>
       <c r="K61" s="248">
         <v>11016</v>
@@ -18777,34 +18780,34 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1471.7790286562695</v>
+        <v>1471.7788336762992</v>
       </c>
       <c r="C65" s="248">
-        <v>1174.120369877304</v>
+        <v>1174.1371231094906</v>
       </c>
       <c r="D65" s="248">
-        <v>2205.8085736920548</v>
+        <v>2205.8609874894751</v>
       </c>
       <c r="E65" s="248">
-        <v>3036.8798265499754</v>
+        <v>3036.9350662130755</v>
       </c>
       <c r="F65" s="248">
-        <v>1762.0315093622273</v>
+        <v>1762.0101110504875</v>
       </c>
       <c r="G65" s="248">
-        <v>1764.100952734173</v>
+        <v>1764.044728373503</v>
       </c>
       <c r="H65" s="248">
-        <v>1460.7586723689356</v>
+        <v>1460.6731123864756</v>
       </c>
       <c r="I65" s="248">
-        <v>764.82377114772021</v>
+        <v>764.70849853905918</v>
       </c>
       <c r="J65" s="248">
-        <v>98.69729561134227</v>
+        <v>98.851539162138579</v>
       </c>
       <c r="K65" s="248">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -18853,7 +18856,7 @@
         <v>42.471009258632</v>
       </c>
       <c r="D67" s="246">
-        <v>969.774245581298</v>
+        <v>969.774245581297</v>
       </c>
       <c r="E67" s="246">
         <v>712.116581906361</v>
@@ -18865,16 +18868,16 @@
         <v>784.86808113923792</v>
       </c>
       <c r="H67" s="246">
-        <v>635.255879897253</v>
+        <v>635.255879897255</v>
       </c>
       <c r="I67" s="246">
         <v>33.211815008886</v>
       </c>
       <c r="J67" s="246">
-        <v>35.791814771044756</v>
+        <v>35.791814771053396</v>
       </c>
       <c r="K67" s="246">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
@@ -18923,10 +18926,10 @@
         <v>152.743474451424</v>
       </c>
       <c r="D69" s="246">
-        <v>292.68969727243905</v>
+        <v>292.68969727243797</v>
       </c>
       <c r="E69" s="246">
-        <v>263.931939870827</v>
+        <v>263.931939870826</v>
       </c>
       <c r="F69" s="246">
         <v>148.876542534531</v>
@@ -18941,7 +18944,7 @@
         <v>3.4658179356144</v>
       </c>
       <c r="J69" s="246">
-        <v>33.629762026323988</v>
+        <v>33.629762026326034</v>
       </c>
       <c r="K69" s="246">
         <v>1202</v>
@@ -18958,10 +18961,10 @@
         <v>443.71560256170204</v>
       </c>
       <c r="D70" s="248">
-        <v>818.30807555476406</v>
+        <v>818.30807555476292</v>
       </c>
       <c r="E70" s="248">
-        <v>961.97482496454711</v>
+        <v>961.97482496454609</v>
       </c>
       <c r="F70" s="248">
         <v>524.87077487217994</v>
@@ -18976,7 +18979,7 @@
         <v>12.439717249689798</v>
       </c>
       <c r="J70" s="248">
-        <v>63.964735487087182</v>
+        <v>63.964735487089911</v>
       </c>
       <c r="K70" s="248">
         <v>3758</v>
@@ -18996,7 +18999,7 @@
         <v>938.782269236272</v>
       </c>
       <c r="E71" s="246">
-        <v>679.772539024381</v>
+        <v>679.772539024382</v>
       </c>
       <c r="F71" s="246">
         <v>299.414402929664</v>
@@ -19011,7 +19014,7 @@
         <v>32.5514071600062</v>
       </c>
       <c r="J71" s="246">
-        <v>35.080104333234431</v>
+        <v>35.080104333233521</v>
       </c>
       <c r="K71" s="246">
         <v>3401</v>
@@ -19092,34 +19095,34 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>1976.1454259963496</v>
+        <v>1976.1452310163797</v>
       </c>
       <c r="C74" s="248">
-        <v>1684.0963237225062</v>
+        <v>1684.1130769546928</v>
       </c>
       <c r="D74" s="248">
-        <v>4968.3645508561967</v>
+        <v>4968.4169646536138</v>
       </c>
       <c r="E74" s="248">
-        <v>5412.4442143917913</v>
+        <v>5412.4994540548914</v>
       </c>
       <c r="F74" s="248">
-        <v>2904.0819643161244</v>
+        <v>2904.0605660043848</v>
       </c>
       <c r="G74" s="248">
-        <v>3710.9938895763207</v>
+        <v>3710.9376652156507</v>
       </c>
       <c r="H74" s="248">
-        <v>2821.9251549106771</v>
+        <v>2821.839594928219</v>
       </c>
       <c r="I74" s="248">
-        <v>843.61721369649922</v>
+        <v>843.50194108783819</v>
       </c>
       <c r="J74" s="248">
-        <v>234.33126253353839</v>
+        <v>234.48550608434744</v>
       </c>
       <c r="K74" s="248">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -19267,34 +19270,34 @@
         <v>44</v>
       </c>
       <c r="B79" s="248">
-        <v>26955.048468728728</v>
+        <v>26955.051546000861</v>
       </c>
       <c r="C79" s="248">
-        <v>2175.0520653290755</v>
+        <v>2175.0718305447349</v>
       </c>
       <c r="D79" s="248">
-        <v>5766.5597472843465</v>
+        <v>5766.621382021609</v>
       </c>
       <c r="E79" s="248">
-        <v>6745.3413935108592</v>
+        <v>6745.4211063354887</v>
       </c>
       <c r="F79" s="248">
-        <v>3725.6223155064126</v>
+        <v>3725.6223307027976</v>
       </c>
       <c r="G79" s="248">
-        <v>4969.3814611505013</v>
+        <v>4969.3555471712107</v>
       </c>
       <c r="H79" s="248">
-        <v>5370.534920169026</v>
+        <v>5370.4579421793369</v>
       </c>
       <c r="I79" s="248">
-        <v>23526.126166247581</v>
+        <v>23525.910609419709</v>
       </c>
       <c r="J79" s="248">
-        <v>1735.3334620734677</v>
+        <v>1735.487705624284</v>
       </c>
       <c r="K79" s="248">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="81">
@@ -19335,13 +19338,13 @@
         <v>3054.01715637059</v>
       </c>
       <c r="H82" s="246">
-        <v>1805.2248132539698</v>
+        <v>1805.2248132539799</v>
       </c>
       <c r="I82" s="246">
         <v>379.984741117051</v>
       </c>
       <c r="J82" s="246">
-        <v>-726.4298250687898</v>
+        <v>-726.42982506880071</v>
       </c>
       <c r="K82" s="246">
         <v>22615</v>
@@ -19510,7 +19513,7 @@
         <v>9559.6027463705886</v>
       </c>
       <c r="H87" s="248">
-        <v>7285.6862005200792</v>
+        <v>7285.6862005200892</v>
       </c>
       <c r="I87" s="248">
         <v>2525.534763850952</v>
@@ -19615,7 +19618,7 @@
         <v>9559.6027463705886</v>
       </c>
       <c r="H90" s="248">
-        <v>7285.6862005200792</v>
+        <v>7285.6862005200892</v>
       </c>
       <c r="I90" s="248">
         <v>2525.534763850952</v>
@@ -19647,34 +19650,34 @@
         <v>88</v>
       </c>
       <c r="B93" s="248">
-        <v>20933.89159330646</v>
+        <v>20933.894670578593</v>
       </c>
       <c r="C93" s="248">
-        <v>-4006.3602967397342</v>
+        <v>-4006.3405315240748</v>
       </c>
       <c r="D93" s="248">
-        <v>-4688.5813610042806</v>
+        <v>-4688.5197262670181</v>
       </c>
       <c r="E93" s="248">
-        <v>-6328.5999540805205</v>
+        <v>-6328.52024125589</v>
       </c>
       <c r="F93" s="248">
-        <v>-5314.3321054496664</v>
+        <v>-5314.3320902532814</v>
       </c>
       <c r="G93" s="248">
-        <v>-4590.2212852200882</v>
+        <v>-4590.2471991993789</v>
       </c>
       <c r="H93" s="248">
-        <v>-1915.1512803510539</v>
+        <v>-1915.2282583407518</v>
       </c>
       <c r="I93" s="248">
-        <v>21000.591402396625</v>
+        <v>21000.375845568753</v>
       </c>
       <c r="J93" s="248">
-        <v>2181.7632871422593</v>
+        <v>2181.9175306930792</v>
       </c>
       <c r="K93" s="248">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -19861,34 +19864,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>12683.553382931741</v>
+        <v>12683.556405698968</v>
       </c>
       <c r="C9" s="231">
-        <v>2050.0453669163153</v>
+        <v>2050.0649963745423</v>
       </c>
       <c r="D9" s="231">
-        <v>5598.7978450230539</v>
+        <v>5598.8580756210149</v>
       </c>
       <c r="E9" s="231">
-        <v>6664.4920119102062</v>
+        <v>6664.5621625577769</v>
       </c>
       <c r="F9" s="231">
-        <v>3772.6656066040628</v>
+        <v>3772.659316524228</v>
       </c>
       <c r="G9" s="231">
-        <v>5071.5010484359955</v>
+        <v>5071.4643074915057</v>
       </c>
       <c r="H9" s="231">
-        <v>5580.4540361521749</v>
+        <v>5580.3846289127769</v>
       </c>
       <c r="I9" s="231">
-        <v>37808.374222841056</v>
+        <v>37808.206433541942</v>
       </c>
       <c r="J9" s="231">
-        <v>1739.1164791853953</v>
+        <v>1739.2436732772767</v>
       </c>
       <c r="K9" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="10" hidden="1" ht="15" customHeight="1">
@@ -19911,31 +19914,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>12683.553382931741</v>
+        <v>12683.556405698968</v>
       </c>
       <c r="C11" s="231">
-        <v>14733.598749848057</v>
+        <v>14733.62140207351</v>
       </c>
       <c r="D11" s="231">
-        <v>20332.396594871112</v>
+        <v>20332.479477694524</v>
       </c>
       <c r="E11" s="231">
-        <v>26996.888606781318</v>
+        <v>26997.0416402523</v>
       </c>
       <c r="F11" s="231">
-        <v>30769.554213385381</v>
+        <v>30769.700956776527</v>
       </c>
       <c r="G11" s="231">
-        <v>35841.055261821377</v>
+        <v>35841.165264268035</v>
       </c>
       <c r="H11" s="231">
-        <v>41421.509297973549</v>
+        <v>41421.549893180811</v>
       </c>
       <c r="I11" s="231">
-        <v>79229.8835208146</v>
+        <v>79229.756326722752</v>
       </c>
       <c r="J11" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K11" s="231">
         <v>0</v>
@@ -19955,13 +19958,13 @@
         <v>10482.994056874657</v>
       </c>
       <c r="E12" s="231">
-        <v>13100.299193173851</v>
+        <v>13100.29919317384</v>
       </c>
       <c r="F12" s="231">
         <v>9043.26288531007</v>
       </c>
       <c r="G12" s="231">
-        <v>9569.6836299763</v>
+        <v>9569.683629976309</v>
       </c>
       <c r="H12" s="231">
         <v>7307.89799424866</v>
@@ -20005,10 +20008,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="K13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -20025,10 +20028,10 @@
         <v>22707.115679649713</v>
       </c>
       <c r="E14" s="231">
-        <v>35807.41487282356</v>
+        <v>35807.414872823552</v>
       </c>
       <c r="F14" s="231">
-        <v>44850.677758133628</v>
+        <v>44850.677758133621</v>
       </c>
       <c r="G14" s="231">
         <v>54420.36138810993</v>
@@ -20040,7 +20043,7 @@
         <v>64270.9877563078</v>
       </c>
       <c r="J14" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K14" s="231"/>
     </row>
@@ -20049,31 +20052,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>6652.9512779032229</v>
+        <v>6652.95430067045</v>
       </c>
       <c r="C15" s="231">
-        <v>-4143.4741508302222</v>
+        <v>-4143.4545213719957</v>
       </c>
       <c r="D15" s="231">
-        <v>-4884.196211851603</v>
+        <v>-4884.1359812536421</v>
       </c>
       <c r="E15" s="231">
-        <v>-6435.8071812636445</v>
+        <v>-6435.7370306160628</v>
       </c>
       <c r="F15" s="231">
-        <v>-5270.5972787060073</v>
+        <v>-5270.6035687858421</v>
       </c>
       <c r="G15" s="231">
-        <v>-4498.1825815403045</v>
+        <v>-4498.2193224848033</v>
       </c>
       <c r="H15" s="231">
-        <v>-1727.4439580964854</v>
+        <v>-1727.5133653358835</v>
       </c>
       <c r="I15" s="231">
-        <v>35265.645848891851</v>
+        <v>35265.478059592737</v>
       </c>
       <c r="J15" s="231">
-        <v>-14958.895764506808</v>
+        <v>-14958.768570414955</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -20082,31 +20085,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.082166647456473743</v>
+        <v>0.082166684788875344</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.051173586815080122</v>
+        <v>-0.051173344383307118</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.060321804787654566</v>
+        <v>-0.060321060915333534</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.0794848297652638</v>
+        <v>-0.079483963376305256</v>
       </c>
       <c r="F16" s="237">
-        <v>-0.065094014730403091</v>
+        <v>-0.065094092415440979</v>
       </c>
       <c r="G16" s="236">
-        <v>-0.055554379843400614</v>
+        <v>-0.055554833608971357</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.021334633725209468</v>
+        <v>-0.021335490932775297</v>
       </c>
       <c r="I16" s="236">
-        <v>0.43554503388817756</v>
+        <v>0.43554296162225936</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.18474843167763969</v>
+        <v>-0.18474686077900124</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -20115,28 +20118,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>6652.9512779032229</v>
+        <v>6652.95430067045</v>
       </c>
       <c r="C17" s="231">
-        <v>2509.4771270730016</v>
+        <v>2509.4997792984541</v>
       </c>
       <c r="D17" s="231">
-        <v>-2374.7190847786005</v>
+        <v>-2374.6362019551889</v>
       </c>
       <c r="E17" s="231">
-        <v>-8810.5262660422413</v>
+        <v>-8810.3732325712517</v>
       </c>
       <c r="F17" s="231">
-        <v>-14081.123544748247</v>
+        <v>-14080.976801357094</v>
       </c>
       <c r="G17" s="231">
-        <v>-18579.306126288553</v>
+        <v>-18579.196123841895</v>
       </c>
       <c r="H17" s="231">
-        <v>-20306.750084385043</v>
+        <v>-20306.709489177782</v>
       </c>
       <c r="I17" s="231">
-        <v>14958.895764506808</v>
+        <v>14958.768570414955</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -20148,28 +20151,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.082166647456473743</v>
+        <v>0.082166684788875344</v>
       </c>
       <c r="C18" s="236">
-        <v>0.030993060641393639</v>
+        <v>0.030993340405568223</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.10881357391152469</v>
+        <v>-0.10881168388607058</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.17390758864192774</v>
+        <v>-0.17390577630151158</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.22946196848532835</v>
+        <v>-0.22946060991048289</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.2507966022105379</v>
+        <v>-0.25079610084325821</v>
       </c>
       <c r="I18" s="236">
-        <v>0.18474843167763969</v>
+        <v>0.18474686077900124</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -20181,31 +20184,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.1031985135208591</v>
+        <v>2.1031990147589066</v>
       </c>
       <c r="C19" s="236">
-        <v>0.3309984510490746</v>
+        <v>0.33100162040345715</v>
       </c>
       <c r="D19" s="236">
-        <v>0.53408385186972518</v>
+        <v>0.534089597422726</v>
       </c>
       <c r="E19" s="236">
-        <v>0.508728229305088</v>
+        <v>0.50873358419405212</v>
       </c>
       <c r="F19" s="237">
-        <v>0.41717968994713212</v>
+        <v>0.417178994392893</v>
       </c>
       <c r="G19" s="236">
-        <v>0.52995493315472908</v>
+        <v>0.52995109384865424</v>
       </c>
       <c r="H19" s="236">
-        <v>0.76361958535053587</v>
+        <v>0.76361008778510009</v>
       </c>
       <c r="I19" s="255">
         <v>10</v>
       </c>
       <c r="J19" s="236">
-        <v>0.10415110815614352</v>
+        <v>0.10415872547549998</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -20214,28 +20217,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.1031985135208591</v>
+        <v>2.1031990147589066</v>
       </c>
       <c r="C20" s="236">
-        <v>1.2052889528191157</v>
+        <v>1.2052908058950382</v>
       </c>
       <c r="D20" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="E20" s="236">
-        <v>0.75394687671996419</v>
+        <v>0.75395115051273964</v>
       </c>
       <c r="F20" s="237">
-        <v>0.68604435320501589</v>
+        <v>0.6860476250260561</v>
       </c>
       <c r="G20" s="236">
-        <v>0.65859642140583319</v>
+        <v>0.65859844275306145</v>
       </c>
       <c r="H20" s="236">
-        <v>0.67102992555483365</v>
+        <v>0.67103058319863673</v>
       </c>
       <c r="I20" s="236">
-        <v>1.2327472517028288</v>
+        <v>1.2327452726747123</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -20278,28 +20281,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="C23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E23" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -20309,28 +20312,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="D24" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="F24" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="G24" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="H24" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="I24" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -20666,34 +20669,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>241.40545330005</v>
+        <v>241.40868683450702</v>
       </c>
       <c r="C50" s="246">
-        <v>300.177903629782</v>
+        <v>300.180710319519</v>
       </c>
       <c r="D50" s="246">
-        <v>592.03158453072308</v>
+        <v>592.03995683262406</v>
       </c>
       <c r="E50" s="246">
-        <v>1031.86218328817</v>
+        <v>1031.8867098072</v>
       </c>
       <c r="F50" s="246">
-        <v>807.901672418668</v>
+        <v>807.925344354013</v>
       </c>
       <c r="G50" s="246">
-        <v>1238.75063390942</v>
+        <v>1238.78407553824</v>
       </c>
       <c r="H50" s="246">
-        <v>2052.80504710035</v>
+        <v>2052.81762752875</v>
       </c>
       <c r="I50" s="246">
-        <v>2473.26877076843</v>
+        <v>2473.16013773074</v>
       </c>
       <c r="J50" s="246">
-        <v>354.79675105440765</v>
+        <v>354.79675105441675</v>
       </c>
       <c r="K50" s="246">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -20701,34 +20704,34 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>241.40545330005</v>
+        <v>241.40868683450702</v>
       </c>
       <c r="C51" s="248">
-        <v>300.177903629782</v>
+        <v>300.180710319519</v>
       </c>
       <c r="D51" s="248">
-        <v>592.03158453072308</v>
+        <v>592.03995683262406</v>
       </c>
       <c r="E51" s="248">
-        <v>1031.86218328817</v>
+        <v>1031.8867098072</v>
       </c>
       <c r="F51" s="248">
-        <v>807.901672418668</v>
+        <v>807.925344354013</v>
       </c>
       <c r="G51" s="248">
-        <v>1238.75063390942</v>
+        <v>1238.78407553824</v>
       </c>
       <c r="H51" s="248">
-        <v>2052.80504710035</v>
+        <v>2052.81762752875</v>
       </c>
       <c r="I51" s="248">
-        <v>2473.26877076843</v>
+        <v>2473.16013773074</v>
       </c>
       <c r="J51" s="248">
-        <v>354.79675105440765</v>
+        <v>354.79675105441675</v>
       </c>
       <c r="K51" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -20736,34 +20739,34 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>241.40545330005</v>
+        <v>241.40868683450702</v>
       </c>
       <c r="C52" s="248">
-        <v>300.177903629782</v>
+        <v>300.180710319519</v>
       </c>
       <c r="D52" s="248">
-        <v>592.03158453072308</v>
+        <v>592.03995683262406</v>
       </c>
       <c r="E52" s="248">
-        <v>1031.86218328817</v>
+        <v>1031.8867098072</v>
       </c>
       <c r="F52" s="248">
-        <v>807.901672418668</v>
+        <v>807.925344354013</v>
       </c>
       <c r="G52" s="248">
-        <v>1238.75063390942</v>
+        <v>1238.78407553824</v>
       </c>
       <c r="H52" s="248">
-        <v>2052.80504710035</v>
+        <v>2052.81762752875</v>
       </c>
       <c r="I52" s="248">
-        <v>2473.26877076843</v>
+        <v>2473.16013773074</v>
       </c>
       <c r="J52" s="248">
-        <v>354.79675105440765</v>
+        <v>354.79675105441675</v>
       </c>
       <c r="K52" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
@@ -20771,34 +20774,34 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>945.70051461745</v>
+        <v>945.70374815190712</v>
       </c>
       <c r="C53" s="248">
-        <v>446.712791320984</v>
+        <v>446.71559801072095</v>
       </c>
       <c r="D53" s="248">
-        <v>724.016152540982</v>
+        <v>724.024524842883</v>
       </c>
       <c r="E53" s="248">
-        <v>1295.8313193086879</v>
+        <v>1295.855845827718</v>
       </c>
       <c r="F53" s="248">
-        <v>807.901672418668</v>
+        <v>807.925344354013</v>
       </c>
       <c r="G53" s="248">
-        <v>1238.75063390942</v>
+        <v>1238.78407553824</v>
       </c>
       <c r="H53" s="248">
-        <v>2580.0505473717981</v>
+        <v>2580.0631278001983</v>
       </c>
       <c r="I53" s="248">
-        <v>36973.036769946993</v>
+        <v>36972.9281369093</v>
       </c>
       <c r="J53" s="248">
-        <v>1492.9995985650166</v>
+        <v>1492.9995985650239</v>
       </c>
       <c r="K53" s="248">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -20830,10 +20833,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J54" s="246">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K54" s="246">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -20865,10 +20868,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J55" s="248">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K55" s="248">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -20900,10 +20903,10 @@
         <v>78.9871479788885</v>
       </c>
       <c r="J56" s="246">
-        <v>6.7643077831928622</v>
+        <v>6.7643077831938854</v>
       </c>
       <c r="K56" s="246">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
@@ -20946,31 +20949,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="246">
-        <v>1057.8199733543402</v>
+        <v>1057.81976258711</v>
       </c>
       <c r="C58" s="246">
-        <v>910.878702081696</v>
+        <v>910.895524850187</v>
       </c>
       <c r="D58" s="246">
-        <v>1662.02923907031</v>
+        <v>1662.08109736637</v>
       </c>
       <c r="E58" s="246">
-        <v>2563.9958520629602</v>
+        <v>2564.0414761915004</v>
       </c>
       <c r="F58" s="246">
-        <v>1528.6758684872998</v>
+        <v>1528.64590647212</v>
       </c>
       <c r="G58" s="246">
-        <v>1508.5759999377399</v>
+        <v>1508.50581736443</v>
       </c>
       <c r="H58" s="246">
-        <v>1237.61034363167</v>
+        <v>1237.52835596387</v>
       </c>
       <c r="I58" s="246">
-        <v>451.13803734504603</v>
+        <v>451.078881083621</v>
       </c>
       <c r="J58" s="246">
-        <v>74.275984028936364</v>
+        <v>74.40317812079229</v>
       </c>
       <c r="K58" s="246">
         <v>10995</v>
@@ -21016,31 +21019,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="248">
-        <v>1059.6634624249823</v>
+        <v>1059.6632516577524</v>
       </c>
       <c r="C60" s="248">
-        <v>912.53049723902677</v>
+        <v>912.54732000751778</v>
       </c>
       <c r="D60" s="248">
-        <v>1664.6363163119036</v>
+        <v>1664.6881746079635</v>
       </c>
       <c r="E60" s="248">
-        <v>2566.4240906207897</v>
+        <v>2566.46971474933</v>
       </c>
       <c r="F60" s="248">
-        <v>1529.7697956171569</v>
+        <v>1529.7398336019769</v>
       </c>
       <c r="G60" s="248">
-        <v>1509.429984376658</v>
+        <v>1509.3598018033481</v>
       </c>
       <c r="H60" s="248">
-        <v>1238.0196546257837</v>
+        <v>1237.9376669579835</v>
       </c>
       <c r="I60" s="248">
-        <v>451.15858591112374</v>
+        <v>451.09942964969872</v>
       </c>
       <c r="J60" s="248">
-        <v>74.3676128725765</v>
+        <v>74.49480696442879</v>
       </c>
       <c r="K60" s="248">
         <v>11006</v>
@@ -21051,31 +21054,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="248">
-        <v>1060.5605830508548</v>
+        <v>1060.5603722836247</v>
       </c>
       <c r="C61" s="248">
-        <v>913.35089539529724</v>
+        <v>913.36771816378825</v>
       </c>
       <c r="D61" s="248">
-        <v>1666.0716553897003</v>
+        <v>1666.1235136857604</v>
       </c>
       <c r="E61" s="248">
-        <v>2568.5657415975288</v>
+        <v>2568.6113657260689</v>
       </c>
       <c r="F61" s="248">
-        <v>1531.2733634584624</v>
+        <v>1531.2434014432827</v>
       </c>
       <c r="G61" s="248">
-        <v>1511.2013080160839</v>
+        <v>1511.131125442774</v>
       </c>
       <c r="H61" s="248">
-        <v>1239.2985768927256</v>
+        <v>1239.2165892249254</v>
       </c>
       <c r="I61" s="248">
-        <v>451.15858591112374</v>
+        <v>451.09942964969872</v>
       </c>
       <c r="J61" s="248">
-        <v>74.519290288224511</v>
+        <v>74.6464843800768</v>
       </c>
       <c r="K61" s="248">
         <v>11016</v>
@@ -21191,34 +21194,34 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1333.4882727234403</v>
+        <v>1333.4880619562102</v>
       </c>
       <c r="C65" s="248">
-        <v>1093.3770204562381</v>
+        <v>1093.3938432247292</v>
       </c>
       <c r="D65" s="248">
-        <v>2112.3136392747883</v>
+        <v>2112.3654975708487</v>
       </c>
       <c r="E65" s="248">
-        <v>2993.1592912967581</v>
+        <v>2993.2049154252982</v>
       </c>
       <c r="F65" s="248">
-        <v>1822.6488747237595</v>
+        <v>1822.6189127085795</v>
       </c>
       <c r="G65" s="248">
-        <v>1885.7783258088616</v>
+        <v>1885.7081432355517</v>
       </c>
       <c r="H65" s="248">
-        <v>1639.2143012435079</v>
+        <v>1639.1323135757075</v>
       </c>
       <c r="I65" s="248">
-        <v>756.54364816060581</v>
+        <v>756.48449189918085</v>
       </c>
       <c r="J65" s="248">
-        <v>102.47662631203821</v>
+        <v>102.60382040389959</v>
       </c>
       <c r="K65" s="248">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -21267,7 +21270,7 @@
         <v>42.471009258632</v>
       </c>
       <c r="D67" s="246">
-        <v>969.774245581298</v>
+        <v>969.774245581297</v>
       </c>
       <c r="E67" s="246">
         <v>712.116581906361</v>
@@ -21279,16 +21282,16 @@
         <v>784.86808113923792</v>
       </c>
       <c r="H67" s="246">
-        <v>635.255879897253</v>
+        <v>635.255879897255</v>
       </c>
       <c r="I67" s="246">
         <v>33.211815008886</v>
       </c>
       <c r="J67" s="246">
-        <v>35.791814771044756</v>
+        <v>35.791814771053396</v>
       </c>
       <c r="K67" s="246">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
@@ -21334,13 +21337,13 @@
         <v>157.208940269885</v>
       </c>
       <c r="C69" s="246">
-        <v>152.726045333038</v>
+        <v>152.726045333037</v>
       </c>
       <c r="D69" s="246">
         <v>292.60867629091194</v>
       </c>
       <c r="E69" s="246">
-        <v>263.879741420407</v>
+        <v>263.879741420406</v>
       </c>
       <c r="F69" s="246">
         <v>148.944466235817</v>
@@ -21355,7 +21358,7 @@
         <v>3.4658179356144</v>
       </c>
       <c r="J69" s="246">
-        <v>33.635675632938955</v>
+        <v>33.635675632941</v>
       </c>
       <c r="K69" s="246">
         <v>1202</v>
@@ -21369,13 +21372,13 @@
         <v>468.519232011106</v>
       </c>
       <c r="C70" s="248">
-        <v>443.698173443316</v>
+        <v>443.69817344331494</v>
       </c>
       <c r="D70" s="248">
         <v>818.227054573237</v>
       </c>
       <c r="E70" s="248">
-        <v>961.922626514127</v>
+        <v>961.92262651412614</v>
       </c>
       <c r="F70" s="248">
         <v>524.9386985734659</v>
@@ -21390,7 +21393,7 @@
         <v>12.439717249689798</v>
       </c>
       <c r="J70" s="248">
-        <v>63.970649093702377</v>
+        <v>63.970649093704651</v>
       </c>
       <c r="K70" s="248">
         <v>3758</v>
@@ -21410,7 +21413,7 @@
         <v>938.782269236272</v>
       </c>
       <c r="E71" s="246">
-        <v>679.772539024381</v>
+        <v>679.772539024382</v>
       </c>
       <c r="F71" s="246">
         <v>299.414402929664</v>
@@ -21425,7 +21428,7 @@
         <v>32.5514071600062</v>
       </c>
       <c r="J71" s="246">
-        <v>35.080104333234431</v>
+        <v>35.080104333233521</v>
       </c>
       <c r="K71" s="246">
         <v>3401</v>
@@ -21506,34 +21509,34 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>1837.85286831429</v>
+        <v>1837.8526575470598</v>
       </c>
       <c r="C74" s="248">
-        <v>1603.332575595331</v>
+        <v>1603.3493983638211</v>
       </c>
       <c r="D74" s="248">
-        <v>4874.7816924820718</v>
+        <v>4874.8335507781312</v>
       </c>
       <c r="E74" s="248">
-        <v>5368.6606926015183</v>
+        <v>5368.7063167300585</v>
       </c>
       <c r="F74" s="248">
-        <v>2964.7639341853951</v>
+        <v>2964.7339721702151</v>
       </c>
       <c r="G74" s="248">
-        <v>3832.7504145265757</v>
+        <v>3832.6802319532662</v>
       </c>
       <c r="H74" s="248">
-        <v>3000.4034887803768</v>
+        <v>3000.3215011125785</v>
       </c>
       <c r="I74" s="248">
-        <v>835.33745289406284</v>
+        <v>835.27829663263788</v>
       </c>
       <c r="J74" s="248">
-        <v>238.11688062038593</v>
+        <v>238.24407471224913</v>
       </c>
       <c r="K74" s="248">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -21681,34 +21684,34 @@
         <v>44</v>
       </c>
       <c r="B79" s="248">
-        <v>12683.553382931741</v>
+        <v>12683.556405698968</v>
       </c>
       <c r="C79" s="248">
-        <v>2050.0453669163153</v>
+        <v>2050.0649963745423</v>
       </c>
       <c r="D79" s="248">
-        <v>5598.7978450230539</v>
+        <v>5598.8580756210149</v>
       </c>
       <c r="E79" s="248">
-        <v>6664.4920119102062</v>
+        <v>6664.5621625577769</v>
       </c>
       <c r="F79" s="248">
-        <v>3772.6656066040628</v>
+        <v>3772.659316524228</v>
       </c>
       <c r="G79" s="248">
-        <v>5071.5010484359955</v>
+        <v>5071.4643074915057</v>
       </c>
       <c r="H79" s="248">
-        <v>5580.4540361521749</v>
+        <v>5580.3846289127769</v>
       </c>
       <c r="I79" s="248">
-        <v>37808.374222841056</v>
+        <v>37808.206433541942</v>
       </c>
       <c r="J79" s="248">
-        <v>1739.1164791853953</v>
+        <v>1739.2436732772767</v>
       </c>
       <c r="K79" s="248">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="81">
@@ -21740,13 +21743,13 @@
         <v>4814.34049712405</v>
       </c>
       <c r="E82" s="246">
-        <v>4719.18919317385</v>
+        <v>4719.18919317384</v>
       </c>
       <c r="F82" s="246">
         <v>3412.86988531007</v>
       </c>
       <c r="G82" s="246">
-        <v>3064.0980399763002</v>
+        <v>3064.09803997631</v>
       </c>
       <c r="H82" s="246">
         <v>1827.4366069825499</v>
@@ -21915,13 +21918,13 @@
         <v>10482.994056874657</v>
       </c>
       <c r="E87" s="248">
-        <v>13100.299193173851</v>
+        <v>13100.29919317384</v>
       </c>
       <c r="F87" s="248">
         <v>9043.26288531007</v>
       </c>
       <c r="G87" s="248">
-        <v>9569.6836299763</v>
+        <v>9569.683629976309</v>
       </c>
       <c r="H87" s="248">
         <v>7307.89799424866</v>
@@ -22020,13 +22023,13 @@
         <v>10482.994056874657</v>
       </c>
       <c r="E90" s="248">
-        <v>13100.299193173851</v>
+        <v>13100.29919317384</v>
       </c>
       <c r="F90" s="248">
         <v>9043.26288531007</v>
       </c>
       <c r="G90" s="248">
-        <v>9569.6836299763</v>
+        <v>9569.683629976309</v>
       </c>
       <c r="H90" s="248">
         <v>7307.89799424866</v>
@@ -22061,34 +22064,34 @@
         <v>88</v>
       </c>
       <c r="B93" s="248">
-        <v>6652.951277903222</v>
+        <v>6652.95430067045</v>
       </c>
       <c r="C93" s="248">
-        <v>-4143.4741508302232</v>
+        <v>-4143.4545213719957</v>
       </c>
       <c r="D93" s="248">
-        <v>-4884.196211851603</v>
+        <v>-4884.135981253643</v>
       </c>
       <c r="E93" s="248">
-        <v>-6435.8071812636435</v>
+        <v>-6435.7370306160637</v>
       </c>
       <c r="F93" s="248">
-        <v>-5270.5972787060073</v>
+        <v>-5270.6035687858421</v>
       </c>
       <c r="G93" s="248">
-        <v>-4498.1825815403054</v>
+        <v>-4498.2193224848043</v>
       </c>
       <c r="H93" s="248">
-        <v>-1727.4439580964856</v>
+        <v>-1727.5133653358835</v>
       </c>
       <c r="I93" s="248">
-        <v>35265.645848891843</v>
+        <v>35265.47805959273</v>
       </c>
       <c r="J93" s="248">
-        <v>2314.1042354932033</v>
+        <v>2314.2314295850811</v>
       </c>
       <c r="K93" s="248">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -22275,34 +22278,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>12264.632826460576</v>
+        <v>12264.635839373354</v>
       </c>
       <c r="C9" s="231">
-        <v>1943.2825686149351</v>
+        <v>1943.3022424430062</v>
       </c>
       <c r="D9" s="231">
-        <v>5492.1827369652456</v>
+        <v>5492.24183811865</v>
       </c>
       <c r="E9" s="231">
-        <v>6642.6410036258621</v>
+        <v>6642.7010997943935</v>
       </c>
       <c r="F9" s="231">
-        <v>3784.8451328002084</v>
+        <v>3784.8381329817421</v>
       </c>
       <c r="G9" s="231">
-        <v>5091.8192490067395</v>
+        <v>5091.77877702016</v>
       </c>
       <c r="H9" s="231">
-        <v>6018.7653867444133</v>
+        <v>6018.7046502004841</v>
       </c>
       <c r="I9" s="231">
-        <v>37988.29998797876</v>
+        <v>37988.156380105596</v>
       </c>
       <c r="J9" s="231">
-        <v>1742.5311078032537</v>
+        <v>1742.6410399626475</v>
       </c>
       <c r="K9" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="10" hidden="1" ht="15" customHeight="1">
@@ -22325,31 +22328,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>12264.632826460576</v>
+        <v>12264.635839373354</v>
       </c>
       <c r="C11" s="231">
-        <v>14207.915395075512</v>
+        <v>14207.938081816359</v>
       </c>
       <c r="D11" s="231">
-        <v>19700.098132040759</v>
+        <v>19700.17991993501</v>
       </c>
       <c r="E11" s="231">
-        <v>26342.739135666619</v>
+        <v>26342.881019729404</v>
       </c>
       <c r="F11" s="231">
-        <v>30127.584268466828</v>
+        <v>30127.719152711146</v>
       </c>
       <c r="G11" s="231">
-        <v>35219.403517473569</v>
+        <v>35219.497929731304</v>
       </c>
       <c r="H11" s="231">
-        <v>41238.168904217979</v>
+        <v>41238.202579931785</v>
       </c>
       <c r="I11" s="231">
-        <v>79226.468892196746</v>
+        <v>79226.358960037382</v>
       </c>
       <c r="J11" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K11" s="231">
         <v>0</v>
@@ -22369,7 +22372,7 @@
         <v>10494.022323815718</v>
       </c>
       <c r="E12" s="231">
-        <v>13115.396750992381</v>
+        <v>13115.39675099237</v>
       </c>
       <c r="F12" s="231">
         <v>9046.1228437314112</v>
@@ -22381,10 +22384,10 @@
         <v>7351.7710155857894</v>
       </c>
       <c r="I12" s="231">
-        <v>2571.8094563122445</v>
+        <v>2571.8094563122454</v>
       </c>
       <c r="J12" s="231">
-        <v>-708.96129133847717</v>
+        <v>-708.96129133846262</v>
       </c>
       <c r="K12" s="231">
         <v>63696</v>
@@ -22419,10 +22422,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="K13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -22439,22 +22442,22 @@
         <v>22748.473697558307</v>
       </c>
       <c r="E14" s="231">
-        <v>35863.87044855069</v>
+        <v>35863.870448550675</v>
       </c>
       <c r="F14" s="231">
-        <v>44909.9932922821</v>
+        <v>44909.993292282088</v>
       </c>
       <c r="G14" s="231">
-        <v>54481.380819440441</v>
+        <v>54481.380819440426</v>
       </c>
       <c r="H14" s="231">
-        <v>61833.151835026234</v>
+        <v>61833.151835026219</v>
       </c>
       <c r="I14" s="231">
-        <v>64404.961291338477</v>
+        <v>64404.961291338463</v>
       </c>
       <c r="J14" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K14" s="231"/>
     </row>
@@ -22463,31 +22466,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>6217.923998717707</v>
+        <v>6217.9270116304842</v>
       </c>
       <c r="C15" s="231">
-        <v>-4264.4599773847831</v>
+        <v>-4264.440303556712</v>
       </c>
       <c r="D15" s="231">
-        <v>-5001.8395868504722</v>
+        <v>-5001.7804856970679</v>
       </c>
       <c r="E15" s="231">
-        <v>-6472.7557473665183</v>
+        <v>-6472.6956511979761</v>
       </c>
       <c r="F15" s="231">
-        <v>-5261.2777109312028</v>
+        <v>-5261.2847107496691</v>
       </c>
       <c r="G15" s="231">
-        <v>-4479.5682781516007</v>
+        <v>-4479.60875013818</v>
       </c>
       <c r="H15" s="231">
-        <v>-1333.0056288413762</v>
+        <v>-1333.0663653853053</v>
       </c>
       <c r="I15" s="231">
-        <v>35416.490531666517</v>
+        <v>35416.346923793353</v>
       </c>
       <c r="J15" s="231">
-        <v>-14821.507600858269</v>
+        <v>-14821.397668698919</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -22496,31 +22499,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.076793884063255158</v>
+        <v>0.076793921273950308</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.052667810858288776</v>
+        <v>-0.052667567878530185</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.061774748198081639</v>
+        <v>-0.061774018274859094</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.079941159547067625</v>
+        <v>-0.079940417335004427</v>
       </c>
       <c r="F16" s="237">
-        <v>-0.0649789142873347</v>
+        <v>-0.064979000737932641</v>
       </c>
       <c r="G16" s="236">
-        <v>-0.055324485644525689</v>
+        <v>-0.055324985489979842</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.016463160331007868</v>
+        <v>-0.016463910451966862</v>
       </c>
       <c r="I16" s="236">
-        <v>0.43740802691976577</v>
+        <v>0.4374062533042688</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.18305163211671466</v>
+        <v>-0.18305027440994595</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -22529,28 +22532,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>6217.923998717707</v>
+        <v>6217.9270116304842</v>
       </c>
       <c r="C17" s="231">
-        <v>1953.464021332924</v>
+        <v>1953.4867080737713</v>
       </c>
       <c r="D17" s="231">
-        <v>-3048.3755655175482</v>
+        <v>-3048.2937776232975</v>
       </c>
       <c r="E17" s="231">
-        <v>-9521.13131288407</v>
+        <v>-9520.98942882127</v>
       </c>
       <c r="F17" s="231">
-        <v>-14782.409023815275</v>
+        <v>-14782.274139570942</v>
       </c>
       <c r="G17" s="231">
-        <v>-19261.977301966872</v>
+        <v>-19261.882889709123</v>
       </c>
       <c r="H17" s="231">
-        <v>-20594.982930808255</v>
+        <v>-20594.949255094434</v>
       </c>
       <c r="I17" s="231">
-        <v>14821.507600858269</v>
+        <v>14821.397668698919</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -22562,28 +22565,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.076793884063255158</v>
+        <v>0.076793921273950308</v>
       </c>
       <c r="C18" s="236">
-        <v>0.024126073204966392</v>
+        <v>0.02412635339542011</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.11758983454018292</v>
+        <v>-0.1175880822144434</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.18256874882751764</v>
+        <v>-0.18256708295237606</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.23789323447204328</v>
+        <v>-0.23789206844235589</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.25435639480305122</v>
+        <v>-0.25435597889432282</v>
       </c>
       <c r="I18" s="236">
-        <v>0.18305163211671466</v>
+        <v>0.18305027440994595</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -22595,31 +22598,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.0283154317253191</v>
+        <v>2.0283159299984894</v>
       </c>
       <c r="C19" s="236">
-        <v>0.31304174653106231</v>
+        <v>0.31304491577139809</v>
       </c>
       <c r="D19" s="236">
-        <v>0.52336297441458468</v>
+        <v>0.52336860630210891</v>
       </c>
       <c r="E19" s="236">
-        <v>0.50647655802888647</v>
+        <v>0.5064811401372038</v>
       </c>
       <c r="F19" s="237">
-        <v>0.41839417816694252</v>
+        <v>0.4183934043748343</v>
       </c>
       <c r="G19" s="236">
-        <v>0.531983396822974</v>
+        <v>0.53197916838833337</v>
       </c>
       <c r="H19" s="236">
-        <v>0.81868237925046927</v>
+        <v>0.81867411776574672</v>
       </c>
       <c r="I19" s="255">
         <v>10</v>
       </c>
       <c r="J19" s="236">
-        <v>0.1051996519962287</v>
+        <v>0.10520628879304636</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -22628,28 +22631,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.0283154317253191</v>
+        <v>2.0283159299984894</v>
       </c>
       <c r="C20" s="236">
-        <v>1.1594085252578976</v>
+        <v>1.1594103765640194</v>
       </c>
       <c r="D20" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="E20" s="236">
-        <v>0.73452025133364174</v>
+        <v>0.73452420751742831</v>
       </c>
       <c r="F20" s="237">
-        <v>0.67084365994871631</v>
+        <v>0.67084666338368582</v>
       </c>
       <c r="G20" s="236">
-        <v>0.64644843775520333</v>
+        <v>0.64645017068223865</v>
       </c>
       <c r="H20" s="236">
-        <v>0.66692652210651271</v>
+        <v>0.66692706672882</v>
       </c>
       <c r="I20" s="236">
-        <v>1.2301299046483791</v>
+        <v>1.2301281977587677</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -22692,28 +22695,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="C23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E23" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -22723,28 +22726,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="D24" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="F24" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="G24" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="H24" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="I24" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -23080,34 +23083,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>219.44194638257</v>
+        <v>219.445168684044</v>
       </c>
       <c r="C50" s="246">
-        <v>260.76080449791</v>
+        <v>260.76335289747396</v>
       </c>
       <c r="D50" s="246">
-        <v>513.835122241465</v>
+        <v>513.842260030281</v>
       </c>
       <c r="E50" s="246">
-        <v>1004.9105210731001</v>
+        <v>1004.93350484582</v>
       </c>
       <c r="F50" s="246">
-        <v>812.373700499838</v>
+        <v>812.400359891592</v>
       </c>
       <c r="G50" s="246">
-        <v>1230.87478682412</v>
+        <v>1230.9107874773602</v>
       </c>
       <c r="H50" s="246">
-        <v>2074.0720910841</v>
+        <v>2074.08831443785</v>
       </c>
       <c r="I50" s="246">
-        <v>2621.93427634249</v>
+        <v>2621.81950068116</v>
       </c>
       <c r="J50" s="246">
-        <v>354.79675105440765</v>
+        <v>354.79675105442766</v>
       </c>
       <c r="K50" s="246">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -23115,34 +23118,34 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>219.44194638257</v>
+        <v>219.445168684044</v>
       </c>
       <c r="C51" s="248">
-        <v>260.76080449791</v>
+        <v>260.76335289747396</v>
       </c>
       <c r="D51" s="248">
-        <v>513.835122241465</v>
+        <v>513.842260030281</v>
       </c>
       <c r="E51" s="248">
-        <v>1004.9105210731001</v>
+        <v>1004.93350484582</v>
       </c>
       <c r="F51" s="248">
-        <v>812.373700499838</v>
+        <v>812.400359891592</v>
       </c>
       <c r="G51" s="248">
-        <v>1230.87478682412</v>
+        <v>1230.9107874773602</v>
       </c>
       <c r="H51" s="248">
-        <v>2074.0720910841</v>
+        <v>2074.08831443785</v>
       </c>
       <c r="I51" s="248">
-        <v>2621.93427634249</v>
+        <v>2621.81950068116</v>
       </c>
       <c r="J51" s="248">
-        <v>354.79675105440765</v>
+        <v>354.79675105442766</v>
       </c>
       <c r="K51" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -23150,34 +23153,34 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>219.44194638257</v>
+        <v>219.445168684044</v>
       </c>
       <c r="C52" s="248">
-        <v>260.76080449791</v>
+        <v>260.76335289747396</v>
       </c>
       <c r="D52" s="248">
-        <v>513.835122241465</v>
+        <v>513.842260030281</v>
       </c>
       <c r="E52" s="248">
-        <v>1004.9105210731001</v>
+        <v>1004.93350484582</v>
       </c>
       <c r="F52" s="248">
-        <v>812.373700499838</v>
+        <v>812.400359891592</v>
       </c>
       <c r="G52" s="248">
-        <v>1230.87478682412</v>
+        <v>1230.9107874773602</v>
       </c>
       <c r="H52" s="248">
-        <v>2074.0720910841</v>
+        <v>2074.08831443785</v>
       </c>
       <c r="I52" s="248">
-        <v>2621.93427634249</v>
+        <v>2621.81950068116</v>
       </c>
       <c r="J52" s="248">
-        <v>354.79675105440765</v>
+        <v>354.79675105442766</v>
       </c>
       <c r="K52" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
@@ -23185,34 +23188,34 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>665.22200769997</v>
+        <v>665.225230001444</v>
       </c>
       <c r="C53" s="248">
-        <v>407.29569218911195</v>
+        <v>407.29824058867592</v>
       </c>
       <c r="D53" s="248">
-        <v>645.81969025172407</v>
+        <v>645.82682804054</v>
       </c>
       <c r="E53" s="248">
-        <v>1268.8796570936181</v>
+        <v>1268.9026408663381</v>
       </c>
       <c r="F53" s="248">
-        <v>812.373700499838</v>
+        <v>812.400359891592</v>
       </c>
       <c r="G53" s="248">
-        <v>1230.87478682412</v>
+        <v>1230.9107874773602</v>
       </c>
       <c r="H53" s="248">
-        <v>2859.8329881674172</v>
+        <v>2859.849211521167</v>
       </c>
       <c r="I53" s="248">
-        <v>37121.702275521049</v>
+        <v>37121.587499859721</v>
       </c>
       <c r="J53" s="248">
-        <v>1492.9992017531476</v>
+        <v>1492.9992017531695</v>
       </c>
       <c r="K53" s="248">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -23244,10 +23247,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J54" s="246">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K54" s="246">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -23279,10 +23282,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J55" s="248">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K55" s="248">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -23314,10 +23317,10 @@
         <v>81.1808573884402</v>
       </c>
       <c r="J56" s="246">
-        <v>6.8427073350155752</v>
+        <v>6.8427073350165983</v>
       </c>
       <c r="K56" s="246">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
@@ -23360,31 +23363,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="246">
-        <v>919.38198550410607</v>
+        <v>919.38177611541</v>
       </c>
       <c r="C58" s="246">
-        <v>843.635774637817</v>
+        <v>843.652900066324</v>
       </c>
       <c r="D58" s="246">
-        <v>1634.4983135412501</v>
+        <v>1634.55027690584</v>
       </c>
       <c r="E58" s="246">
-        <v>2571.5145912685302</v>
+        <v>2571.55170366434</v>
       </c>
       <c r="F58" s="246">
-        <v>1538.19659089225</v>
+        <v>1538.16293168203</v>
       </c>
       <c r="G58" s="246">
-        <v>1538.53705083205</v>
+        <v>1538.46057819223</v>
       </c>
       <c r="H58" s="246">
-        <v>1397.8316422699202</v>
+        <v>1397.7546823722398</v>
       </c>
       <c r="I58" s="246">
-        <v>474.01941663912703</v>
+        <v>473.990584427291</v>
       </c>
       <c r="J58" s="246">
-        <v>77.384634414949687</v>
+        <v>77.494566574294367</v>
       </c>
       <c r="K58" s="246">
         <v>10995</v>
@@ -23430,31 +23433,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="248">
-        <v>921.22319039023535</v>
+        <v>921.22298100153944</v>
       </c>
       <c r="C60" s="248">
-        <v>845.28460108054264</v>
+        <v>845.30172650904967</v>
       </c>
       <c r="D60" s="248">
-        <v>1637.100555375466</v>
+        <v>1637.1525187400559</v>
       </c>
       <c r="E60" s="248">
-        <v>2573.9398733935709</v>
+        <v>2573.9769857893812</v>
       </c>
       <c r="F60" s="248">
-        <v>1539.2920621202115</v>
+        <v>1539.2584029099917</v>
       </c>
       <c r="G60" s="248">
-        <v>1539.395851730588</v>
+        <v>1539.3193790907681</v>
       </c>
       <c r="H60" s="248">
-        <v>1398.2466737820389</v>
+        <v>1398.1697138843588</v>
       </c>
       <c r="I60" s="248">
-        <v>474.0406603729279</v>
+        <v>474.0118281610919</v>
       </c>
       <c r="J60" s="248">
-        <v>77.476531754418829</v>
+        <v>77.58646391376169</v>
       </c>
       <c r="K60" s="248">
         <v>11006</v>
@@ -23465,31 +23468,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="248">
-        <v>922.120311016108</v>
+        <v>922.12010162741194</v>
       </c>
       <c r="C61" s="248">
-        <v>846.104999236813</v>
+        <v>846.12212466532</v>
       </c>
       <c r="D61" s="248">
-        <v>1638.5358944532627</v>
+        <v>1638.5878578178526</v>
       </c>
       <c r="E61" s="248">
-        <v>2576.0638348299776</v>
+        <v>2576.1009472257879</v>
       </c>
       <c r="F61" s="248">
-        <v>1540.7891706285775</v>
+        <v>1540.7555114183574</v>
       </c>
       <c r="G61" s="248">
-        <v>1541.1702742249222</v>
+        <v>1541.0938015851025</v>
       </c>
       <c r="H61" s="248">
-        <v>1399.5462148424426</v>
+        <v>1399.4692549447625</v>
       </c>
       <c r="I61" s="248">
-        <v>474.0406603729279</v>
+        <v>474.0118281610919</v>
       </c>
       <c r="J61" s="248">
-        <v>77.6286403949689</v>
+        <v>77.738572554311759</v>
       </c>
       <c r="K61" s="248">
         <v>11016</v>
@@ -23605,34 +23608,34 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1195.0480006886935</v>
+        <v>1195.0477912999975</v>
       </c>
       <c r="C65" s="248">
-        <v>1026.0514891771634</v>
+        <v>1026.0686146056703</v>
       </c>
       <c r="D65" s="248">
-        <v>2083.9821758433686</v>
+        <v>2084.0341392079586</v>
       </c>
       <c r="E65" s="248">
-        <v>2998.3232195643568</v>
+        <v>2998.3603319601666</v>
       </c>
       <c r="F65" s="248">
-        <v>1830.2923649492964</v>
+        <v>1830.2587057390765</v>
       </c>
       <c r="G65" s="248">
-        <v>1913.8931931797238</v>
+        <v>1913.8167205399041</v>
       </c>
       <c r="H65" s="248">
-        <v>1797.7206316147544</v>
+        <v>1797.6436717170743</v>
       </c>
       <c r="I65" s="248">
-        <v>787.80353923250641</v>
+        <v>787.77470702067046</v>
       </c>
       <c r="J65" s="248">
-        <v>105.88538575013808</v>
+        <v>105.99531790948458</v>
       </c>
       <c r="K65" s="248">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -23681,7 +23684,7 @@
         <v>42.471009258632</v>
       </c>
       <c r="D67" s="246">
-        <v>969.774245581298</v>
+        <v>969.774245581297</v>
       </c>
       <c r="E67" s="246">
         <v>712.116581906361</v>
@@ -23693,16 +23696,16 @@
         <v>784.86808113923792</v>
       </c>
       <c r="H67" s="246">
-        <v>635.255879897253</v>
+        <v>635.255879897255</v>
       </c>
       <c r="I67" s="246">
         <v>33.211815008886</v>
       </c>
       <c r="J67" s="246">
-        <v>35.791814771044756</v>
+        <v>35.791814771053396</v>
       </c>
       <c r="K67" s="246">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
@@ -23824,7 +23827,7 @@
         <v>938.782269236272</v>
       </c>
       <c r="E71" s="246">
-        <v>679.772539024381</v>
+        <v>679.772539024382</v>
       </c>
       <c r="F71" s="246">
         <v>299.414402929664</v>
@@ -23839,7 +23842,7 @@
         <v>32.5514071600062</v>
       </c>
       <c r="J71" s="246">
-        <v>35.080104333234431</v>
+        <v>35.080104333233521</v>
       </c>
       <c r="K71" s="246">
         <v>3401</v>
@@ -23920,34 +23923,34 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>1699.410818760605</v>
+        <v>1699.410609371909</v>
       </c>
       <c r="C74" s="248">
-        <v>1535.9868764258231</v>
+        <v>1536.0040018543302</v>
       </c>
       <c r="D74" s="248">
-        <v>4846.3630467135217</v>
+        <v>4846.41501007811</v>
       </c>
       <c r="E74" s="248">
-        <v>5373.7613465322438</v>
+        <v>5373.798458928055</v>
       </c>
       <c r="F74" s="248">
-        <v>2972.47143230037</v>
+        <v>2972.43777309015</v>
       </c>
       <c r="G74" s="248">
-        <v>3860.94446218262</v>
+        <v>3860.8679895428004</v>
       </c>
       <c r="H74" s="248">
-        <v>3158.9323985769961</v>
+        <v>3158.855438679318</v>
       </c>
       <c r="I74" s="248">
-        <v>866.5977124577156</v>
+        <v>866.56888024587965</v>
       </c>
       <c r="J74" s="248">
-        <v>241.53190605011332</v>
+        <v>241.6418382094671</v>
       </c>
       <c r="K74" s="248">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -24095,34 +24098,34 @@
         <v>44</v>
       </c>
       <c r="B79" s="248">
-        <v>12264.632826460576</v>
+        <v>12264.635839373354</v>
       </c>
       <c r="C79" s="248">
-        <v>1943.2825686149351</v>
+        <v>1943.3022424430062</v>
       </c>
       <c r="D79" s="248">
-        <v>5492.1827369652456</v>
+        <v>5492.24183811865</v>
       </c>
       <c r="E79" s="248">
-        <v>6642.6410036258621</v>
+        <v>6642.7010997943935</v>
       </c>
       <c r="F79" s="248">
-        <v>3784.8451328002084</v>
+        <v>3784.8381329817421</v>
       </c>
       <c r="G79" s="248">
-        <v>5091.8192490067395</v>
+        <v>5091.77877702016</v>
       </c>
       <c r="H79" s="248">
-        <v>6018.7653867444133</v>
+        <v>6018.7046502004841</v>
       </c>
       <c r="I79" s="248">
-        <v>37988.29998797876</v>
+        <v>37988.156380105596</v>
       </c>
       <c r="J79" s="248">
-        <v>1742.5311078032537</v>
+        <v>1742.6410399626475</v>
       </c>
       <c r="K79" s="248">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="81">
@@ -24154,7 +24157,7 @@
         <v>4825.3687640651106</v>
       </c>
       <c r="E82" s="246">
-        <v>4734.28675099238</v>
+        <v>4734.28675099237</v>
       </c>
       <c r="F82" s="246">
         <v>3415.72984373141</v>
@@ -24166,10 +24169,10 @@
         <v>1871.30962831968</v>
       </c>
       <c r="I82" s="246">
-        <v>426.259433578344</v>
+        <v>426.259433578345</v>
       </c>
       <c r="J82" s="246">
-        <v>-988.96129133847353</v>
+        <v>-988.96129133846262</v>
       </c>
       <c r="K82" s="246">
         <v>22615</v>
@@ -24329,7 +24332,7 @@
         <v>10494.022323815718</v>
       </c>
       <c r="E87" s="248">
-        <v>13115.396750992381</v>
+        <v>13115.39675099237</v>
       </c>
       <c r="F87" s="248">
         <v>9046.1228437314112</v>
@@ -24341,10 +24344,10 @@
         <v>7351.7710155857894</v>
       </c>
       <c r="I87" s="248">
-        <v>2571.8094563122445</v>
+        <v>2571.8094563122454</v>
       </c>
       <c r="J87" s="248">
-        <v>-988.96129133847717</v>
+        <v>-988.96129133846262</v>
       </c>
       <c r="K87" s="248">
         <v>63416</v>
@@ -24434,7 +24437,7 @@
         <v>10494.022323815718</v>
       </c>
       <c r="E90" s="248">
-        <v>13115.396750992381</v>
+        <v>13115.39675099237</v>
       </c>
       <c r="F90" s="248">
         <v>9046.1228437314112</v>
@@ -24446,10 +24449,10 @@
         <v>7351.7710155857894</v>
       </c>
       <c r="I90" s="248">
-        <v>2571.8094563122445</v>
+        <v>2571.8094563122454</v>
       </c>
       <c r="J90" s="248">
-        <v>-708.96129133847717</v>
+        <v>-708.96129133846262</v>
       </c>
       <c r="K90" s="248">
         <v>63696</v>
@@ -24475,34 +24478,34 @@
         <v>88</v>
       </c>
       <c r="B93" s="248">
-        <v>6217.923998717707</v>
+        <v>6217.9270116304851</v>
       </c>
       <c r="C93" s="248">
-        <v>-4264.4599773847831</v>
+        <v>-4264.440303556712</v>
       </c>
       <c r="D93" s="248">
-        <v>-5001.8395868504731</v>
+        <v>-5001.7804856970679</v>
       </c>
       <c r="E93" s="248">
-        <v>-6472.7557473665174</v>
+        <v>-6472.6956511979752</v>
       </c>
       <c r="F93" s="248">
-        <v>-5261.2777109312028</v>
+        <v>-5261.2847107496691</v>
       </c>
       <c r="G93" s="248">
-        <v>-4479.5682781516007</v>
+        <v>-4479.6087501381808</v>
       </c>
       <c r="H93" s="248">
-        <v>-1333.0056288413759</v>
+        <v>-1333.0663653853051</v>
       </c>
       <c r="I93" s="248">
-        <v>35416.490531666517</v>
+        <v>35416.346923793353</v>
       </c>
       <c r="J93" s="248">
-        <v>2451.4923991417309</v>
+        <v>2451.6023313011028</v>
       </c>
       <c r="K93" s="248">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -24689,34 +24692,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>12122.453456066865</v>
+        <v>12122.456455878226</v>
       </c>
       <c r="C9" s="231">
-        <v>1814.0654285187818</v>
+        <v>1814.0853245808482</v>
       </c>
       <c r="D9" s="231">
-        <v>5270.9422218451446</v>
+        <v>5271.0053929119122</v>
       </c>
       <c r="E9" s="231">
-        <v>6424.9329349600466</v>
+        <v>6425.0102574893335</v>
       </c>
       <c r="F9" s="231">
-        <v>3812.9095810480781</v>
+        <v>3812.9058576847992</v>
       </c>
       <c r="G9" s="231">
-        <v>5269.0801820719071</v>
+        <v>5269.0197705131777</v>
       </c>
       <c r="H9" s="231">
-        <v>6308.9050868057511</v>
+        <v>6308.8156352603737</v>
       </c>
       <c r="I9" s="231">
-        <v>38193.186083230707</v>
+        <v>38193.053709667263</v>
       </c>
       <c r="J9" s="231">
-        <v>1752.52502545272</v>
+        <v>1752.6475960140961</v>
       </c>
       <c r="K9" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="10" hidden="1" ht="15" customHeight="1">
@@ -24739,31 +24742,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>12122.453456066865</v>
+        <v>12122.456455878226</v>
       </c>
       <c r="C11" s="231">
-        <v>13936.518884585646</v>
+        <v>13936.541780459074</v>
       </c>
       <c r="D11" s="231">
-        <v>19207.46110643079</v>
+        <v>19207.547173370986</v>
       </c>
       <c r="E11" s="231">
-        <v>25632.394041390835</v>
+        <v>25632.557430860317</v>
       </c>
       <c r="F11" s="231">
-        <v>29445.303622438914</v>
+        <v>29445.463288545117</v>
       </c>
       <c r="G11" s="231">
-        <v>34714.38380451082</v>
+        <v>34714.483059058293</v>
       </c>
       <c r="H11" s="231">
-        <v>41023.288891316573</v>
+        <v>41023.29869431867</v>
       </c>
       <c r="I11" s="231">
-        <v>79216.47497454728</v>
+        <v>79216.352403985933</v>
       </c>
       <c r="J11" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K11" s="231">
         <v>0</v>
@@ -24774,10 +24777,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>6057.0707116979884</v>
+        <v>6057.0707116979984</v>
       </c>
       <c r="C12" s="231">
-        <v>6209.4471587661692</v>
+        <v>6209.4471587661583</v>
       </c>
       <c r="D12" s="231">
         <v>10495.953568531297</v>
@@ -24789,7 +24792,7 @@
         <v>9051.50278352431</v>
       </c>
       <c r="G12" s="231">
-        <v>9589.45954981646</v>
+        <v>9589.45954981647</v>
       </c>
       <c r="H12" s="231">
         <v>7409.1657297420707</v>
@@ -24798,7 +24801,7 @@
         <v>2607.2870588585452</v>
       </c>
       <c r="J12" s="231">
-        <v>-850.38673272698361</v>
+        <v>-850.38673272699089</v>
       </c>
       <c r="K12" s="231">
         <v>63696</v>
@@ -24833,10 +24836,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="K13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -24844,10 +24847,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>6057.0707116979884</v>
+        <v>6057.0707116979984</v>
       </c>
       <c r="C14" s="231">
-        <v>12266.517870464159</v>
+        <v>12266.517870464157</v>
       </c>
       <c r="D14" s="231">
         <v>22762.471438995453</v>
@@ -24859,16 +24862,16 @@
         <v>44940.474394309909</v>
       </c>
       <c r="G14" s="231">
-        <v>54529.933944126373</v>
+        <v>54529.93394412638</v>
       </c>
       <c r="H14" s="231">
-        <v>61939.099673868441</v>
+        <v>61939.099673868448</v>
       </c>
       <c r="I14" s="231">
-        <v>64546.386732726984</v>
+        <v>64546.386732726991</v>
       </c>
       <c r="J14" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K14" s="231"/>
     </row>
@@ -24877,31 +24880,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>6065.382744368877</v>
+        <v>6065.3857441802274</v>
       </c>
       <c r="C15" s="231">
-        <v>-4395.3817302473872</v>
+        <v>-4395.36183418531</v>
       </c>
       <c r="D15" s="231">
-        <v>-5225.0113466861521</v>
+        <v>-5224.9481756193845</v>
       </c>
       <c r="E15" s="231">
-        <v>-6701.567236830102</v>
+        <v>-6701.4899143008151</v>
       </c>
       <c r="F15" s="231">
-        <v>-5238.5932024762333</v>
+        <v>-5238.5969258395116</v>
       </c>
       <c r="G15" s="231">
-        <v>-4320.3793677445528</v>
+        <v>-4320.4397793032931</v>
       </c>
       <c r="H15" s="231">
-        <v>-1100.2606429363195</v>
+        <v>-1100.3500944816969</v>
       </c>
       <c r="I15" s="231">
-        <v>35585.899024372164</v>
+        <v>35585.76665080872</v>
       </c>
       <c r="J15" s="231">
-        <v>-14670.088241820296</v>
+        <v>-14669.965671258942</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -24910,31 +24913,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.074909937684408567</v>
+        <v>0.074909974733295775</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.054284747622514631</v>
+        <v>-0.054284501898075904</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.064531009975251671</v>
+        <v>-0.064530229786947876</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.082767074273241634</v>
+        <v>-0.082766119308634339</v>
       </c>
       <c r="F16" s="237">
-        <v>-0.064698751404565116</v>
+        <v>-0.064698797389612192</v>
       </c>
       <c r="G16" s="236">
-        <v>-0.053358438016334067</v>
+        <v>-0.053359184123594111</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.01358866532791957</v>
+        <v>-0.013589770090796436</v>
       </c>
       <c r="I16" s="236">
-        <v>0.43950029053554024</v>
+        <v>0.43949865566832619</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.1811815416001222</v>
+        <v>-0.18118002780396122</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -24943,28 +24946,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>6065.382744368877</v>
+        <v>6065.3857441802274</v>
       </c>
       <c r="C17" s="231">
-        <v>1670.001014121488</v>
+        <v>1670.0239099949176</v>
       </c>
       <c r="D17" s="231">
-        <v>-3555.0103325646633</v>
+        <v>-3554.9242656244678</v>
       </c>
       <c r="E17" s="231">
-        <v>-10256.577569394765</v>
+        <v>-10256.414179925283</v>
       </c>
       <c r="F17" s="231">
-        <v>-15495.170771870995</v>
+        <v>-15495.011105764792</v>
       </c>
       <c r="G17" s="231">
-        <v>-19815.550139615552</v>
+        <v>-19815.450885068087</v>
       </c>
       <c r="H17" s="231">
-        <v>-20915.810782551867</v>
+        <v>-20915.800979549778</v>
       </c>
       <c r="I17" s="231">
-        <v>14670.088241820296</v>
+        <v>14669.965671258942</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -24976,28 +24979,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.074909937684408567</v>
+        <v>0.074909974733295775</v>
       </c>
       <c r="C18" s="236">
-        <v>0.020625190061893908</v>
+        <v>0.020625472835219861</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.12667289418659938</v>
+        <v>-0.12667087626036236</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.19137164559116446</v>
+        <v>-0.19136967364997454</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.24473008360749859</v>
+        <v>-0.24472885777356865</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.25831874893541806</v>
+        <v>-0.25831862786436505</v>
       </c>
       <c r="I18" s="236">
-        <v>0.1811815416001222</v>
+        <v>0.18118002780396122</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -25009,31 +25012,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.0013722858897514</v>
+        <v>2.0013727811475222</v>
       </c>
       <c r="C19" s="236">
-        <v>0.29214604491122531</v>
+        <v>0.29214924907120304</v>
       </c>
       <c r="D19" s="236">
-        <v>0.50218802774131455</v>
+        <v>0.50219404635280662</v>
       </c>
       <c r="E19" s="236">
-        <v>0.48946275479946422</v>
+        <v>0.48946864536650608</v>
       </c>
       <c r="F19" s="237">
-        <v>0.42124602645965004</v>
+        <v>0.42124561510659986</v>
       </c>
       <c r="G19" s="236">
-        <v>0.54946581240574255</v>
+        <v>0.54945951261810366</v>
       </c>
       <c r="H19" s="236">
-        <v>0.85150006315560955</v>
+        <v>0.85148799006281606</v>
       </c>
       <c r="I19" s="255">
         <v>10</v>
       </c>
       <c r="J19" s="236">
-        <v>0.10671413842187662</v>
+        <v>0.10672160194545712</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -25042,28 +25045,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.0013722858897514</v>
+        <v>2.0013727811475222</v>
       </c>
       <c r="C20" s="236">
-        <v>1.1361430384528757</v>
+        <v>1.1361449049869379</v>
       </c>
       <c r="D20" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="E20" s="236">
-        <v>0.71421366762394523</v>
+        <v>0.71421822026120818</v>
       </c>
       <c r="F20" s="237">
-        <v>0.65520678228904272</v>
+        <v>0.65521033512439564</v>
       </c>
       <c r="G20" s="236">
-        <v>0.63661151396369953</v>
+        <v>0.63661333414832644</v>
       </c>
       <c r="H20" s="236">
-        <v>0.66231651908598765</v>
+        <v>0.66231667735438582</v>
       </c>
       <c r="I20" s="236">
-        <v>1.2272797748163047</v>
+        <v>1.2272778758632017</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -25106,28 +25109,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="C23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E23" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -25137,28 +25140,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="D24" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="F24" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="G24" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="H24" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="I24" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -25494,34 +25497,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>204.80407115459099</v>
+        <v>204.807290604584</v>
       </c>
       <c r="C50" s="246">
-        <v>228.081143597698</v>
+        <v>228.083452119058</v>
       </c>
       <c r="D50" s="246">
-        <v>442.959790075274</v>
+        <v>442.965714865562</v>
       </c>
       <c r="E50" s="246">
-        <v>945.778475530794</v>
+        <v>945.79711433983</v>
       </c>
       <c r="F50" s="246">
-        <v>833.977146593421</v>
+        <v>834.007136848982</v>
       </c>
       <c r="G50" s="246">
-        <v>1245.26305088735</v>
+        <v>1245.30226298809</v>
       </c>
       <c r="H50" s="246">
-        <v>2094.40949900538</v>
+        <v>2094.4285544198</v>
       </c>
       <c r="I50" s="246">
-        <v>2742.93007210108</v>
+        <v>2742.81172275968</v>
       </c>
       <c r="J50" s="246">
-        <v>354.79675105441129</v>
+        <v>354.7967510544222</v>
       </c>
       <c r="K50" s="246">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -25529,34 +25532,34 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>204.80407115459099</v>
+        <v>204.807290604584</v>
       </c>
       <c r="C51" s="248">
-        <v>228.081143597698</v>
+        <v>228.083452119058</v>
       </c>
       <c r="D51" s="248">
-        <v>442.959790075274</v>
+        <v>442.965714865562</v>
       </c>
       <c r="E51" s="248">
-        <v>945.778475530794</v>
+        <v>945.79711433983</v>
       </c>
       <c r="F51" s="248">
-        <v>833.977146593421</v>
+        <v>834.007136848982</v>
       </c>
       <c r="G51" s="248">
-        <v>1245.26305088735</v>
+        <v>1245.30226298809</v>
       </c>
       <c r="H51" s="248">
-        <v>2094.40949900538</v>
+        <v>2094.4285544198</v>
       </c>
       <c r="I51" s="248">
-        <v>2742.93007210108</v>
+        <v>2742.81172275968</v>
       </c>
       <c r="J51" s="248">
-        <v>354.79675105441129</v>
+        <v>354.7967510544222</v>
       </c>
       <c r="K51" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -25564,34 +25567,34 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>204.80407115459099</v>
+        <v>204.807290604584</v>
       </c>
       <c r="C52" s="248">
-        <v>228.081143597698</v>
+        <v>228.083452119058</v>
       </c>
       <c r="D52" s="248">
-        <v>442.959790075274</v>
+        <v>442.965714865562</v>
       </c>
       <c r="E52" s="248">
-        <v>945.778475530794</v>
+        <v>945.79711433983</v>
       </c>
       <c r="F52" s="248">
-        <v>833.977146593421</v>
+        <v>834.007136848982</v>
       </c>
       <c r="G52" s="248">
-        <v>1245.26305088735</v>
+        <v>1245.30226298809</v>
       </c>
       <c r="H52" s="248">
-        <v>2094.40949900538</v>
+        <v>2094.4285544198</v>
       </c>
       <c r="I52" s="248">
-        <v>2742.93007210108</v>
+        <v>2742.81172275968</v>
       </c>
       <c r="J52" s="248">
-        <v>354.79675105441129</v>
+        <v>354.7967510544222</v>
       </c>
       <c r="K52" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
@@ -25599,34 +25602,34 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>650.584132471991</v>
+        <v>650.587351921984</v>
       </c>
       <c r="C53" s="248">
-        <v>374.6160312889</v>
+        <v>374.61833981026</v>
       </c>
       <c r="D53" s="248">
-        <v>574.944358085533</v>
+        <v>574.950282875821</v>
       </c>
       <c r="E53" s="248">
-        <v>1209.7476115513121</v>
+        <v>1209.7662503603481</v>
       </c>
       <c r="F53" s="248">
-        <v>833.977146593421</v>
+        <v>834.007136848982</v>
       </c>
       <c r="G53" s="248">
-        <v>1245.26305088735</v>
+        <v>1245.30226298809</v>
       </c>
       <c r="H53" s="248">
-        <v>2880.1703960886971</v>
+        <v>2880.1894515031172</v>
       </c>
       <c r="I53" s="248">
-        <v>37242.698071279636</v>
+        <v>37242.579721938237</v>
       </c>
       <c r="J53" s="248">
-        <v>1492.9992017531622</v>
+        <v>1492.9992017531695</v>
       </c>
       <c r="K53" s="248">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -25658,10 +25661,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J54" s="246">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K54" s="246">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -25693,10 +25696,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J55" s="248">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K55" s="248">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -25728,10 +25731,10 @@
         <v>83.317879883376</v>
       </c>
       <c r="J56" s="246">
-        <v>6.9193659798997942</v>
+        <v>6.9193659799008174</v>
       </c>
       <c r="K56" s="246">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
@@ -25774,31 +25777,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="246">
-        <v>791.84446512454008</v>
+        <v>791.844245485909</v>
       </c>
       <c r="C58" s="246">
-        <v>747.196610767197</v>
+        <v>747.214198307903</v>
       </c>
       <c r="D58" s="246">
-        <v>1484.9787189601202</v>
+        <v>1485.0359652366</v>
       </c>
       <c r="E58" s="246">
-        <v>2415.2485263119497</v>
+        <v>2415.3072100322</v>
       </c>
       <c r="F58" s="246">
-        <v>1546.4012790417798</v>
+        <v>1546.36756542294</v>
       </c>
       <c r="G58" s="246">
-        <v>1703.12214676824</v>
+        <v>1703.02252310877</v>
       </c>
       <c r="H58" s="246">
-        <v>1669.3820561197601</v>
+        <v>1669.2735491599599</v>
       </c>
       <c r="I58" s="246">
-        <v>549.747328861411</v>
+        <v>549.733304639372</v>
       </c>
       <c r="J58" s="246">
-        <v>87.07886804500049</v>
+        <v>87.201438606345619</v>
       </c>
       <c r="K58" s="246">
         <v>10995</v>
@@ -25844,31 +25847,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="248">
-        <v>793.68344891381457</v>
+        <v>793.68322927518363</v>
       </c>
       <c r="C60" s="248">
-        <v>748.84254675726049</v>
+        <v>748.86013429796651</v>
       </c>
       <c r="D60" s="248">
-        <v>1487.5762498062977</v>
+        <v>1487.6334960827776</v>
       </c>
       <c r="E60" s="248">
-        <v>2417.6709229669937</v>
+        <v>2417.7296066872441</v>
       </c>
       <c r="F60" s="248">
-        <v>1547.4982404874534</v>
+        <v>1547.4645268686134</v>
       </c>
       <c r="G60" s="248">
-        <v>1703.9856189552902</v>
+        <v>1703.88599529582</v>
       </c>
       <c r="H60" s="248">
-        <v>1669.802689916537</v>
+        <v>1669.6941829567368</v>
       </c>
       <c r="I60" s="248">
-        <v>549.76925716613255</v>
+        <v>549.75523294409368</v>
       </c>
       <c r="J60" s="248">
-        <v>87.171025030220335</v>
+        <v>87.293595591565463</v>
       </c>
       <c r="K60" s="248">
         <v>11006</v>
@@ -25879,31 +25882,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="248">
-        <v>794.58056953968708</v>
+        <v>794.58034990105614</v>
       </c>
       <c r="C61" s="248">
-        <v>749.66294491353085</v>
+        <v>749.68053245423687</v>
       </c>
       <c r="D61" s="248">
-        <v>1489.0115888840944</v>
+        <v>1489.0688351605745</v>
       </c>
       <c r="E61" s="248">
-        <v>2419.777814341222</v>
+        <v>2419.836498061472</v>
       </c>
       <c r="F61" s="248">
-        <v>1548.9889697077335</v>
+        <v>1548.9552560888935</v>
       </c>
       <c r="G61" s="248">
-        <v>1705.7627913562615</v>
+        <v>1705.6631676967913</v>
       </c>
       <c r="H61" s="248">
-        <v>1671.1225109989623</v>
+        <v>1671.0140040391621</v>
       </c>
       <c r="I61" s="248">
-        <v>549.76925716613255</v>
+        <v>549.75523294409368</v>
       </c>
       <c r="J61" s="248">
-        <v>87.323553092375732</v>
+        <v>87.446123653720861</v>
       </c>
       <c r="K61" s="248">
         <v>11016</v>
@@ -26019,34 +26022,34 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1067.5082592122726</v>
+        <v>1067.5080395736418</v>
       </c>
       <c r="C65" s="248">
-        <v>929.53394822270411</v>
+        <v>929.55153576341013</v>
       </c>
       <c r="D65" s="248">
-        <v>1933.7034329563587</v>
+        <v>1933.7606792328388</v>
       </c>
       <c r="E65" s="248">
-        <v>2839.8107477113249</v>
+        <v>2839.8694314315753</v>
       </c>
       <c r="F65" s="248">
-        <v>1836.6899583600919</v>
+        <v>1836.6562447412518</v>
       </c>
       <c r="G65" s="248">
-        <v>2076.6866532453619</v>
+        <v>2076.5870295858917</v>
       </c>
       <c r="H65" s="248">
-        <v>2067.5004768030635</v>
+        <v>2067.3919698432633</v>
       </c>
       <c r="I65" s="248">
-        <v>871.69346426557377</v>
+        <v>871.6794400435349</v>
       </c>
       <c r="J65" s="248">
-        <v>115.87305922324777</v>
+        <v>115.99562978459471</v>
       </c>
       <c r="K65" s="248">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -26095,7 +26098,7 @@
         <v>42.471009258632</v>
       </c>
       <c r="D67" s="246">
-        <v>969.774245581298</v>
+        <v>969.774245581297</v>
       </c>
       <c r="E67" s="246">
         <v>712.116581906361</v>
@@ -26107,16 +26110,16 @@
         <v>784.86808113923792</v>
       </c>
       <c r="H67" s="246">
-        <v>635.255879897253</v>
+        <v>635.255879897255</v>
       </c>
       <c r="I67" s="246">
         <v>33.211815008886</v>
       </c>
       <c r="J67" s="246">
-        <v>35.791814771044756</v>
+        <v>35.791814771053396</v>
       </c>
       <c r="K67" s="246">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
@@ -26238,7 +26241,7 @@
         <v>938.782269236272</v>
       </c>
       <c r="E71" s="246">
-        <v>679.772539024381</v>
+        <v>679.772539024382</v>
       </c>
       <c r="F71" s="246">
         <v>299.414402929664</v>
@@ -26253,7 +26256,7 @@
         <v>32.5514071600062</v>
       </c>
       <c r="J71" s="246">
-        <v>35.080104333234431</v>
+        <v>35.080104333233521</v>
       </c>
       <c r="K71" s="246">
         <v>3401</v>
@@ -26334,34 +26337,34 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>1571.8693235948742</v>
+        <v>1571.8691039562434</v>
       </c>
       <c r="C74" s="248">
-        <v>1439.4493972298819</v>
+        <v>1439.4669847705882</v>
       </c>
       <c r="D74" s="248">
-        <v>4695.9978637596114</v>
+        <v>4696.0551100360908</v>
       </c>
       <c r="E74" s="248">
-        <v>5215.1853234087348</v>
+        <v>5215.2440071289857</v>
       </c>
       <c r="F74" s="248">
-        <v>2978.9324344546571</v>
+        <v>2978.8987208358171</v>
       </c>
       <c r="G74" s="248">
-        <v>4023.8171311845581</v>
+        <v>4023.717507525088</v>
       </c>
       <c r="H74" s="248">
-        <v>3428.7346907170545</v>
+        <v>3428.6261837572561</v>
       </c>
       <c r="I74" s="248">
-        <v>950.48801195106716</v>
+        <v>950.47398772902818</v>
       </c>
       <c r="J74" s="248">
-        <v>251.52582369956508</v>
+        <v>251.64839426092294</v>
       </c>
       <c r="K74" s="248">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -26509,34 +26512,34 @@
         <v>44</v>
       </c>
       <c r="B79" s="248">
-        <v>12122.453456066865</v>
+        <v>12122.456455878226</v>
       </c>
       <c r="C79" s="248">
-        <v>1814.0654285187818</v>
+        <v>1814.0853245808482</v>
       </c>
       <c r="D79" s="248">
-        <v>5270.9422218451446</v>
+        <v>5271.0053929119122</v>
       </c>
       <c r="E79" s="248">
-        <v>6424.9329349600466</v>
+        <v>6425.0102574893335</v>
       </c>
       <c r="F79" s="248">
-        <v>3812.9095810480781</v>
+        <v>3812.9058576847992</v>
       </c>
       <c r="G79" s="248">
-        <v>5269.0801820719071</v>
+        <v>5269.0197705131777</v>
       </c>
       <c r="H79" s="248">
-        <v>6308.9050868057511</v>
+        <v>6308.8156352603737</v>
       </c>
       <c r="I79" s="248">
-        <v>38193.186083230707</v>
+        <v>38193.053709667263</v>
       </c>
       <c r="J79" s="248">
-        <v>1752.52502545272</v>
+        <v>1752.6475960140961</v>
       </c>
       <c r="K79" s="248">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="81">
@@ -26559,10 +26562,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="246">
-        <v>2378.246220225</v>
+        <v>2378.24622022501</v>
       </c>
       <c r="C82" s="246">
-        <v>2899.0252099897803</v>
+        <v>2899.02520998977</v>
       </c>
       <c r="D82" s="246">
         <v>4827.3000087806895</v>
@@ -26574,7 +26577,7 @@
         <v>3421.1097835243104</v>
       </c>
       <c r="G82" s="246">
-        <v>3083.8739598164602</v>
+        <v>3083.87395981647</v>
       </c>
       <c r="H82" s="246">
         <v>1928.70434247596</v>
@@ -26583,7 +26586,7 @@
         <v>461.73703612464396</v>
       </c>
       <c r="J82" s="246">
-        <v>-1130.3867327269945</v>
+        <v>-1130.3867327270018</v>
       </c>
       <c r="K82" s="246">
         <v>22615</v>
@@ -26734,10 +26737,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="248">
-        <v>6057.0707116979884</v>
+        <v>6057.0707116979984</v>
       </c>
       <c r="C87" s="248">
-        <v>6209.4471587661692</v>
+        <v>6209.4471587661583</v>
       </c>
       <c r="D87" s="248">
         <v>10495.953568531297</v>
@@ -26749,7 +26752,7 @@
         <v>9051.50278352431</v>
       </c>
       <c r="G87" s="248">
-        <v>9589.45954981646</v>
+        <v>9589.45954981647</v>
       </c>
       <c r="H87" s="248">
         <v>7409.1657297420707</v>
@@ -26758,7 +26761,7 @@
         <v>2607.2870588585452</v>
       </c>
       <c r="J87" s="248">
-        <v>-1130.3867327269836</v>
+        <v>-1130.3867327269909</v>
       </c>
       <c r="K87" s="248">
         <v>63416</v>
@@ -26839,10 +26842,10 @@
         <v>80</v>
       </c>
       <c r="B90" s="248">
-        <v>6057.0707116979884</v>
+        <v>6057.0707116979984</v>
       </c>
       <c r="C90" s="248">
-        <v>6209.4471587661692</v>
+        <v>6209.4471587661583</v>
       </c>
       <c r="D90" s="248">
         <v>10495.953568531297</v>
@@ -26854,7 +26857,7 @@
         <v>9051.50278352431</v>
       </c>
       <c r="G90" s="248">
-        <v>9589.45954981646</v>
+        <v>9589.45954981647</v>
       </c>
       <c r="H90" s="248">
         <v>7409.1657297420707</v>
@@ -26863,7 +26866,7 @@
         <v>2607.2870588585452</v>
       </c>
       <c r="J90" s="248">
-        <v>-850.38673272698361</v>
+        <v>-850.38673272699089</v>
       </c>
       <c r="K90" s="248">
         <v>63696</v>
@@ -26889,34 +26892,34 @@
         <v>88</v>
       </c>
       <c r="B93" s="248">
-        <v>6065.382744368877</v>
+        <v>6065.3857441802274</v>
       </c>
       <c r="C93" s="248">
-        <v>-4395.3817302473881</v>
+        <v>-4395.36183418531</v>
       </c>
       <c r="D93" s="248">
-        <v>-5225.011346686153</v>
+        <v>-5224.9481756193854</v>
       </c>
       <c r="E93" s="248">
-        <v>-6701.567236830102</v>
+        <v>-6701.4899143008151</v>
       </c>
       <c r="F93" s="248">
-        <v>-5238.5932024762324</v>
+        <v>-5238.5969258395116</v>
       </c>
       <c r="G93" s="248">
-        <v>-4320.3793677445519</v>
+        <v>-4320.4397793032931</v>
       </c>
       <c r="H93" s="248">
-        <v>-1100.2606429363191</v>
+        <v>-1100.3500944816974</v>
       </c>
       <c r="I93" s="248">
-        <v>35585.899024372164</v>
+        <v>35585.76665080872</v>
       </c>
       <c r="J93" s="248">
-        <v>2602.9117581797072</v>
+        <v>2603.0343287410942</v>
       </c>
       <c r="K93" s="248">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
   </sheetData>
@@ -27100,34 +27103,34 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>12510.629079763081</v>
+        <v>12510.632117369054</v>
       </c>
       <c r="C9" s="231">
-        <v>1917.8924572581209</v>
+        <v>1917.9127784508703</v>
       </c>
       <c r="D9" s="231">
-        <v>5615.0448613452236</v>
+        <v>5615.1080500792</v>
       </c>
       <c r="E9" s="231">
-        <v>7087.042062771402</v>
+        <v>7087.1132967769108</v>
       </c>
       <c r="F9" s="231">
-        <v>3974.2708542230253</v>
+        <v>3974.2700724239394</v>
       </c>
       <c r="G9" s="231">
-        <v>19347.96708757562</v>
+        <v>19347.962597591941</v>
       </c>
       <c r="H9" s="231">
-        <v>5316.5251918509866</v>
+        <v>5316.4629931565278</v>
       </c>
       <c r="I9" s="231">
-        <v>23466.408127943745</v>
+        <v>23466.154214558286</v>
       </c>
       <c r="J9" s="231">
-        <v>1733.2202772687888</v>
+        <v>1733.383879593297</v>
       </c>
       <c r="K9" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="10" hidden="1" ht="15" customHeight="1">
@@ -27150,31 +27153,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>12510.629079763081</v>
+        <v>12510.632117369054</v>
       </c>
       <c r="C11" s="231">
-        <v>14428.521537021203</v>
+        <v>14428.544895819925</v>
       </c>
       <c r="D11" s="231">
-        <v>20043.566398366427</v>
+        <v>20043.652945899124</v>
       </c>
       <c r="E11" s="231">
-        <v>27130.608461137828</v>
+        <v>27130.766242676036</v>
       </c>
       <c r="F11" s="231">
-        <v>31104.879315360853</v>
+        <v>31105.036315099976</v>
       </c>
       <c r="G11" s="231">
-        <v>50452.84640293647</v>
+        <v>50452.998912691917</v>
       </c>
       <c r="H11" s="231">
-        <v>55769.371594787459</v>
+        <v>55769.461905848446</v>
       </c>
       <c r="I11" s="231">
-        <v>79235.779722731211</v>
+        <v>79235.616120406732</v>
       </c>
       <c r="J11" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K11" s="231">
         <v>0</v>
@@ -27200,16 +27203,16 @@
         <v>9033.0586389747714</v>
       </c>
       <c r="G12" s="231">
-        <v>9536.38729439461</v>
+        <v>9536.3872943945989</v>
       </c>
       <c r="H12" s="231">
         <v>7228.24725232614</v>
       </c>
       <c r="I12" s="231">
-        <v>2529.0635465673931</v>
+        <v>2529.0635465673922</v>
       </c>
       <c r="J12" s="231">
-        <v>-480.10315153884585</v>
+        <v>-480.1031515388313</v>
       </c>
       <c r="K12" s="231">
         <v>63696</v>
@@ -27244,10 +27247,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="K13" s="231">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -27270,16 +27273,16 @@
         <v>44882.405058250704</v>
       </c>
       <c r="G14" s="231">
-        <v>54418.792352645316</v>
+        <v>54418.7923526453</v>
       </c>
       <c r="H14" s="231">
-        <v>61647.039604971455</v>
+        <v>61647.03960497144</v>
       </c>
       <c r="I14" s="231">
-        <v>64176.103151538846</v>
+        <v>64176.103151538831</v>
       </c>
       <c r="J14" s="231">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="K14" s="231"/>
     </row>
@@ -27288,31 +27291,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>6463.9202520202116</v>
+        <v>6463.9232896261847</v>
       </c>
       <c r="C15" s="231">
-        <v>-4289.8500817082868</v>
+        <v>-4289.8297605155376</v>
       </c>
       <c r="D15" s="231">
-        <v>-4875.6773871967243</v>
+        <v>-4875.6141984627475</v>
       </c>
       <c r="E15" s="231">
-        <v>-6017.1307412533088</v>
+        <v>-6017.0595072478</v>
       </c>
       <c r="F15" s="231">
-        <v>-5058.7877847517466</v>
+        <v>-5058.788566550832</v>
       </c>
       <c r="G15" s="231">
-        <v>9811.57979318101</v>
+        <v>9811.5753031973418</v>
       </c>
       <c r="H15" s="231">
-        <v>-1911.7220604751537</v>
+        <v>-1911.7842591696126</v>
       </c>
       <c r="I15" s="231">
-        <v>20937.344581376354</v>
+        <v>20937.090667990895</v>
       </c>
       <c r="J15" s="231">
-        <v>-15059.676571192365</v>
+        <v>-15059.5129688679</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -27321,31 +27324,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.079832037594884608</v>
+        <v>0.079832075110550738</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.052981388947724278</v>
+        <v>-0.052981137972749268</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.060216593846987417</v>
+        <v>-0.060215813440486432</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.074314005869571181</v>
+        <v>-0.0743131261007027</v>
       </c>
       <c r="F16" s="237">
-        <v>-0.062478081546662873</v>
+        <v>-0.062478091202198743</v>
       </c>
       <c r="G16" s="236">
-        <v>0.12117699110994344</v>
+        <v>0.12117693565682344</v>
       </c>
       <c r="H16" s="236">
-        <v>-0.023610543053207443</v>
+        <v>-0.023611311232318691</v>
       </c>
       <c r="I16" s="236">
-        <v>0.25858470008739581</v>
+        <v>0.25858156415406991</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.1859931155280708</v>
+        <v>-0.18599109497298838</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -27354,28 +27357,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>6463.9202520202116</v>
+        <v>6463.9232896261847</v>
       </c>
       <c r="C17" s="231">
-        <v>2174.0701703119266</v>
+        <v>2174.0935291106489</v>
       </c>
       <c r="D17" s="231">
-        <v>-2701.6072168847968</v>
+        <v>-2701.5206693520995</v>
       </c>
       <c r="E17" s="231">
-        <v>-8718.7379581381065</v>
+        <v>-8718.5801765998986</v>
       </c>
       <c r="F17" s="231">
-        <v>-13777.525742889851</v>
+        <v>-13777.368743150728</v>
       </c>
       <c r="G17" s="231">
-        <v>-3965.9459497088465</v>
+        <v>-3965.7934399533842</v>
       </c>
       <c r="H17" s="231">
-        <v>-5877.6680101839956</v>
+        <v>-5877.5776991229941</v>
       </c>
       <c r="I17" s="231">
-        <v>15059.676571192365</v>
+        <v>15059.5129688679</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -27387,28 +27390,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.079832037594884608</v>
+        <v>0.079832075110550738</v>
       </c>
       <c r="C18" s="236">
-        <v>0.026850648647160354</v>
+        <v>0.02685093713780148</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.10767995106939825</v>
+        <v>-0.10767800240338765</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.17015803261606111</v>
+        <v>-0.1701560936055864</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.048981041506117727</v>
+        <v>-0.0489791579487629</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.072591584559325129</v>
+        <v>-0.072590469181081557</v>
       </c>
       <c r="I18" s="236">
-        <v>0.1859931155280708</v>
+        <v>0.18599109497298838</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -27420,31 +27423,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>2.0689981006466089</v>
+        <v>2.068998603003521</v>
       </c>
       <c r="C19" s="236">
-        <v>0.30895167530215434</v>
+        <v>0.30895494882592273</v>
       </c>
       <c r="D19" s="236">
-        <v>0.53523911207597075</v>
+        <v>0.5352451353727925</v>
       </c>
       <c r="E19" s="236">
-        <v>0.54082330634366671</v>
+        <v>0.54082874232246325</v>
       </c>
       <c r="F19" s="237">
-        <v>0.43996956214535266</v>
+        <v>0.43996947559669652</v>
       </c>
       <c r="G19" s="236">
-        <v>2.0288571017819459</v>
+        <v>2.0288566309554663</v>
       </c>
       <c r="H19" s="236">
-        <v>0.73552066030116248</v>
+        <v>0.735512055352786</v>
       </c>
       <c r="I19" s="236">
-        <v>9.2786945428057166</v>
+        <v>9.2785941446224474</v>
       </c>
       <c r="J19" s="236">
-        <v>0.10321151215953639</v>
+        <v>0.10322125451226923</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -27453,28 +27456,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>2.0689981006466089</v>
+        <v>2.068998603003521</v>
       </c>
       <c r="C20" s="236">
-        <v>1.1774106490167364</v>
+        <v>1.1774125551647985</v>
       </c>
       <c r="D20" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="E20" s="236">
-        <v>0.7567950652107257</v>
+        <v>0.75679946644963147</v>
       </c>
       <c r="F20" s="237">
-        <v>0.69303058236276183</v>
+        <v>0.69303408038696346</v>
       </c>
       <c r="G20" s="236">
-        <v>0.9271217574251065</v>
+        <v>0.92712455994513432</v>
       </c>
       <c r="H20" s="236">
-        <v>0.90465611896617337</v>
+        <v>0.904657583936131</v>
       </c>
       <c r="I20" s="236">
-        <v>1.2346617484023921</v>
+        <v>1.2346591991306781</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -27517,28 +27520,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="C23" s="236">
-        <v>0.17503208458087272</v>
+        <v>0.17503315023815977</v>
       </c>
       <c r="D23" s="236">
-        <v>0.16448777717364524</v>
+        <v>0.16448882203174506</v>
       </c>
       <c r="E23" s="236">
-        <v>0.15115599717870348</v>
+        <v>0.1511570405067062</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.02932874414626092</v>
+        <v>-0.029327720509765318</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.037648674993115243</v>
+        <v>-0.037647664879439005</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.043905819913357742</v>
+        <v>-0.043904756951728026</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.033365945199827059</v>
+        <v>-0.033364876302684962</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -27548,28 +27551,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="C24" s="236">
-        <v>1.6358861591377818</v>
+        <v>1.6358900306378033</v>
       </c>
       <c r="D24" s="236">
-        <v>1.5923832729820098</v>
+        <v>1.5923870359148646</v>
       </c>
       <c r="E24" s="236">
-        <v>1.5401671108326311</v>
+        <v>1.5401708392422442</v>
       </c>
       <c r="F24" s="236">
-        <v>0.89541960686328637</v>
+        <v>0.89542325694481062</v>
       </c>
       <c r="G24" s="236">
-        <v>0.8659964793222702</v>
+        <v>0.86600007463575523</v>
       </c>
       <c r="H24" s="236">
-        <v>0.84382142588987907</v>
+        <v>0.84382520697931074</v>
       </c>
       <c r="I24" s="236">
-        <v>0.88122283599219042</v>
+        <v>0.8812266410865881</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -27905,34 +27908,34 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>232.54805613445498</v>
+        <v>232.55129368123298</v>
       </c>
       <c r="C50" s="246">
-        <v>293.385660935027</v>
+        <v>293.388477217431</v>
       </c>
       <c r="D50" s="246">
-        <v>594.69495108137107</v>
+        <v>594.703523563079</v>
       </c>
       <c r="E50" s="246">
-        <v>1110.16358814183</v>
+        <v>1110.19269558791</v>
       </c>
       <c r="F50" s="246">
-        <v>863.93170536382206</v>
+        <v>863.957780872287</v>
       </c>
       <c r="G50" s="246">
-        <v>1320.27655740655</v>
+        <v>1320.30987597022</v>
       </c>
       <c r="H50" s="246">
-        <v>2106.8711666539302</v>
+        <v>2106.86717930719</v>
       </c>
       <c r="I50" s="246">
-        <v>2216.3315632286003</v>
+        <v>2216.23242274625</v>
       </c>
       <c r="J50" s="246">
-        <v>354.79675105441493</v>
+        <v>354.79675105440947</v>
       </c>
       <c r="K50" s="246">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="51" outlineLevel="2">
@@ -27940,34 +27943,34 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>232.54805613445498</v>
+        <v>232.55129368123298</v>
       </c>
       <c r="C51" s="248">
-        <v>293.385660935027</v>
+        <v>293.388477217431</v>
       </c>
       <c r="D51" s="248">
-        <v>594.69495108137107</v>
+        <v>594.703523563079</v>
       </c>
       <c r="E51" s="248">
-        <v>1110.16358814183</v>
+        <v>1110.19269558791</v>
       </c>
       <c r="F51" s="248">
-        <v>863.93170536382206</v>
+        <v>863.957780872287</v>
       </c>
       <c r="G51" s="248">
-        <v>1320.27655740655</v>
+        <v>1320.30987597022</v>
       </c>
       <c r="H51" s="248">
-        <v>2106.8711666539302</v>
+        <v>2106.86717930719</v>
       </c>
       <c r="I51" s="248">
-        <v>2216.3315632286003</v>
+        <v>2216.23242274625</v>
       </c>
       <c r="J51" s="248">
-        <v>354.79675105441493</v>
+        <v>354.79675105440947</v>
       </c>
       <c r="K51" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="52" outlineLevel="2">
@@ -27975,34 +27978,34 @@
         <v>53</v>
       </c>
       <c r="B52" s="248">
-        <v>232.54805613445498</v>
+        <v>232.55129368123298</v>
       </c>
       <c r="C52" s="248">
-        <v>293.385660935027</v>
+        <v>293.388477217431</v>
       </c>
       <c r="D52" s="248">
-        <v>594.69495108137107</v>
+        <v>594.703523563079</v>
       </c>
       <c r="E52" s="248">
-        <v>1110.16358814183</v>
+        <v>1110.19269558791</v>
       </c>
       <c r="F52" s="248">
-        <v>863.93170536382206</v>
+        <v>863.957780872287</v>
       </c>
       <c r="G52" s="248">
-        <v>1320.27655740655</v>
+        <v>1320.30987597022</v>
       </c>
       <c r="H52" s="248">
-        <v>2106.8711666539302</v>
+        <v>2106.86717930719</v>
       </c>
       <c r="I52" s="248">
-        <v>2216.3315632286003</v>
+        <v>2216.23242274625</v>
       </c>
       <c r="J52" s="248">
-        <v>354.79675105441493</v>
+        <v>354.79675105440947</v>
       </c>
       <c r="K52" s="248">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
@@ -28010,34 +28013,34 @@
         <v>54</v>
       </c>
       <c r="B53" s="248">
-        <v>936.843117451855</v>
+        <v>936.846354998633</v>
       </c>
       <c r="C53" s="248">
-        <v>439.920548626229</v>
+        <v>439.923364908633</v>
       </c>
       <c r="D53" s="248">
-        <v>726.67951909163014</v>
+        <v>726.688091573338</v>
       </c>
       <c r="E53" s="248">
-        <v>1374.132724162348</v>
+        <v>1374.1618316084282</v>
       </c>
       <c r="F53" s="248">
-        <v>863.93170536382206</v>
+        <v>863.957780872287</v>
       </c>
       <c r="G53" s="248">
-        <v>15416.376557406551</v>
+        <v>15416.409875970221</v>
       </c>
       <c r="H53" s="248">
-        <v>2634.116666925378</v>
+        <v>2634.1126795786377</v>
       </c>
       <c r="I53" s="248">
-        <v>22619.996961432258</v>
+        <v>22619.897820949907</v>
       </c>
       <c r="J53" s="248">
-        <v>1493.0021995399293</v>
+        <v>1493.002199539922</v>
       </c>
       <c r="K53" s="248">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
     </row>
     <row r="54" outlineLevel="2">
@@ -28069,10 +28072,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J54" s="246">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K54" s="246">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="55" outlineLevel="2">
@@ -28104,10 +28107,10 @@
         <v>3.7316903669172996</v>
       </c>
       <c r="J55" s="248">
-        <v>2.5254383528316</v>
+        <v>2.5254383528325661</v>
       </c>
       <c r="K55" s="248">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
     </row>
     <row r="56" outlineLevel="2">
@@ -28139,10 +28142,10 @@
         <v>75.7672924169149</v>
       </c>
       <c r="J56" s="246">
-        <v>6.680402474820994</v>
+        <v>6.6804024748220172</v>
       </c>
       <c r="K56" s="246">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" outlineLevel="2">
@@ -28185,31 +28188,31 @@
         <v>59</v>
       </c>
       <c r="B58" s="246">
-        <v>893.75706101081994</v>
+        <v>893.756861070015</v>
       </c>
       <c r="C58" s="246">
-        <v>785.57048970123992</v>
+        <v>785.587994611585</v>
       </c>
       <c r="D58" s="246">
-        <v>1676.0054894001</v>
+        <v>1676.06010565237</v>
       </c>
       <c r="E58" s="246">
-        <v>2908.67675529125</v>
+        <v>2908.7188818506797</v>
       </c>
       <c r="F58" s="246">
-        <v>1673.3116581301902</v>
+        <v>1673.2848008226401</v>
       </c>
       <c r="G58" s="246">
-        <v>1603.4802201221899</v>
+        <v>1603.44241157484</v>
       </c>
       <c r="H58" s="246">
-        <v>910.98994314518893</v>
+        <v>910.931731797469</v>
       </c>
       <c r="I58" s="246">
-        <v>474.509639047241</v>
+        <v>474.354866144129</v>
       </c>
       <c r="J58" s="246">
-        <v>68.698744151781284</v>
+        <v>68.862346476271341</v>
       </c>
       <c r="K58" s="246">
         <v>10995</v>
@@ -28255,31 +28258,31 @@
         <v>61</v>
       </c>
       <c r="B60" s="248">
-        <v>895.59827126047162</v>
+        <v>895.5980713196667</v>
       </c>
       <c r="C60" s="248">
-        <v>787.21933171950593</v>
+        <v>787.236836629851</v>
       </c>
       <c r="D60" s="248">
-        <v>1678.6078270426988</v>
+        <v>1678.6624432949689</v>
       </c>
       <c r="E60" s="248">
-        <v>2911.1048386583711</v>
+        <v>2911.1469652178007</v>
       </c>
       <c r="F60" s="248">
-        <v>1674.4094518979784</v>
+        <v>1674.3825945904284</v>
       </c>
       <c r="G60" s="248">
-        <v>1604.339871105685</v>
+        <v>1604.3020625583349</v>
       </c>
       <c r="H60" s="248">
-        <v>911.40051353667434</v>
+        <v>911.34230218895436</v>
       </c>
       <c r="I60" s="248">
-        <v>474.5293872047942</v>
+        <v>474.37461430168224</v>
       </c>
       <c r="J60" s="248">
-        <v>68.790507573819923</v>
+        <v>68.954109898315437</v>
       </c>
       <c r="K60" s="248">
         <v>11006</v>
@@ -28290,31 +28293,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="248">
-        <v>896.49539188634412</v>
+        <v>896.4951919455392</v>
       </c>
       <c r="C61" s="248">
-        <v>788.03972987577629</v>
+        <v>788.0572347861214</v>
       </c>
       <c r="D61" s="248">
-        <v>1680.0431661204957</v>
+        <v>1680.0977823727658</v>
       </c>
       <c r="E61" s="248">
-        <v>2913.2329992731984</v>
+        <v>2913.275125832628</v>
       </c>
       <c r="F61" s="248">
-        <v>1675.9135246726269</v>
+        <v>1675.8866673650766</v>
       </c>
       <c r="G61" s="248">
-        <v>1606.1224364907014</v>
+        <v>1606.0846279433515</v>
       </c>
       <c r="H61" s="248">
-        <v>912.68098485340192</v>
+        <v>912.622773505682</v>
       </c>
       <c r="I61" s="248">
-        <v>474.5293872047942</v>
+        <v>474.37461430168224</v>
       </c>
       <c r="J61" s="248">
-        <v>68.942379622660155</v>
+        <v>69.105981947155669</v>
       </c>
       <c r="K61" s="248">
         <v>11016</v>
@@ -28430,34 +28433,34 @@
         <v>66</v>
       </c>
       <c r="B65" s="248">
-        <v>1169.4230815589297</v>
+        <v>1169.4228816181249</v>
       </c>
       <c r="C65" s="248">
-        <v>968.017967232608</v>
+        <v>968.035472142953</v>
       </c>
       <c r="D65" s="248">
-        <v>2125.8921423591087</v>
+        <v>2125.9467586113792</v>
       </c>
       <c r="E65" s="248">
-        <v>3337.3739193579027</v>
+        <v>3337.4160459173327</v>
       </c>
       <c r="F65" s="248">
-        <v>1968.2284103202587</v>
+        <v>1968.2015530127087</v>
       </c>
       <c r="G65" s="248">
-        <v>1984.6421357434597</v>
+        <v>1984.6043271961098</v>
       </c>
       <c r="H65" s="248">
-        <v>1321.225301896241</v>
+        <v>1321.167090548521</v>
       </c>
       <c r="I65" s="248">
-        <v>767.61776180195454</v>
+        <v>767.46298889884258</v>
       </c>
       <c r="J65" s="248">
-        <v>96.579279729539849</v>
+        <v>96.742882054033544</v>
       </c>
       <c r="K65" s="248">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
     </row>
     <row r="66" outlineLevel="2">
@@ -28506,7 +28509,7 @@
         <v>42.471009258632</v>
       </c>
       <c r="D67" s="246">
-        <v>969.774245581298</v>
+        <v>969.774245581297</v>
       </c>
       <c r="E67" s="246">
         <v>712.116581906361</v>
@@ -28518,16 +28521,16 @@
         <v>784.86808113923792</v>
       </c>
       <c r="H67" s="246">
-        <v>635.255879897253</v>
+        <v>635.255879897255</v>
       </c>
       <c r="I67" s="246">
         <v>33.211815008886</v>
       </c>
       <c r="J67" s="246">
-        <v>35.791814771044756</v>
+        <v>35.791814771053396</v>
       </c>
       <c r="K67" s="246">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
     </row>
     <row r="68" outlineLevel="2">
@@ -28579,7 +28582,7 @@
         <v>292.614468361673</v>
       </c>
       <c r="E69" s="246">
-        <v>263.912271730721</v>
+        <v>263.91227173072</v>
       </c>
       <c r="F69" s="246">
         <v>148.939983214501</v>
@@ -28594,7 +28597,7 @@
         <v>3.4658179356144</v>
       </c>
       <c r="J69" s="246">
-        <v>33.634309422666092</v>
+        <v>33.634309422667</v>
       </c>
       <c r="K69" s="246">
         <v>1202</v>
@@ -28614,7 +28617,7 @@
         <v>818.23284664399807</v>
       </c>
       <c r="E70" s="248">
-        <v>961.955156824441</v>
+        <v>961.95515682444</v>
       </c>
       <c r="F70" s="248">
         <v>524.93421555215</v>
@@ -28629,7 +28632,7 @@
         <v>12.439717249689798</v>
       </c>
       <c r="J70" s="248">
-        <v>63.969282883429514</v>
+        <v>63.969282883430424</v>
       </c>
       <c r="K70" s="248">
         <v>3758</v>
@@ -28649,7 +28652,7 @@
         <v>938.782269236272</v>
       </c>
       <c r="E71" s="246">
-        <v>679.772539024381</v>
+        <v>679.772539024382</v>
       </c>
       <c r="F71" s="246">
         <v>299.414402929664</v>
@@ -28664,7 +28667,7 @@
         <v>32.5514071600062</v>
       </c>
       <c r="J71" s="246">
-        <v>35.080104333234431</v>
+        <v>35.080104333233521</v>
       </c>
       <c r="K71" s="246">
         <v>3401</v>
@@ -28745,34 +28748,34 @@
         <v>75</v>
       </c>
       <c r="B74" s="248">
-        <v>1673.7859623112254</v>
+        <v>1673.7857623704206</v>
       </c>
       <c r="C74" s="248">
-        <v>1477.9719086318919</v>
+        <v>1477.9894135422371</v>
       </c>
       <c r="D74" s="248">
-        <v>4888.3653422535926</v>
+        <v>4888.4199585058623</v>
       </c>
       <c r="E74" s="248">
-        <v>5712.9093386090535</v>
+        <v>5712.951465168484</v>
       </c>
       <c r="F74" s="248">
-        <v>3110.3391488592029</v>
+        <v>3110.3122915516524</v>
       </c>
       <c r="G74" s="248">
-        <v>3931.59053016907</v>
+        <v>3931.5527216217206</v>
       </c>
       <c r="H74" s="248">
-        <v>2682.4085249256082</v>
+        <v>2682.3503135778906</v>
       </c>
       <c r="I74" s="248">
-        <v>846.41116651148775</v>
+        <v>846.25639360837579</v>
       </c>
       <c r="J74" s="248">
-        <v>232.21807772887041</v>
+        <v>232.38168005337502</v>
       </c>
       <c r="K74" s="248">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
     </row>
     <row r="75" outlineLevel="2">
@@ -28920,34 +28923,34 @@
         <v>44</v>
       </c>
       <c r="B79" s="248">
-        <v>12510.629079763081</v>
+        <v>12510.632117369054</v>
       </c>
       <c r="C79" s="248">
-        <v>1917.8924572581209</v>
+        <v>1917.9127784508703</v>
       </c>
       <c r="D79" s="248">
-        <v>5615.0448613452236</v>
+        <v>5615.1080500792</v>
       </c>
       <c r="E79" s="248">
-        <v>7087.042062771402</v>
+        <v>7087.1132967769108</v>
       </c>
       <c r="F79" s="248">
-        <v>3974.2708542230253</v>
+        <v>3974.2700724239394</v>
       </c>
       <c r="G79" s="248">
-        <v>19347.96708757562</v>
+        <v>19347.962597591941</v>
       </c>
       <c r="H79" s="248">
-        <v>5316.5251918509866</v>
+        <v>5316.4629931565278</v>
       </c>
       <c r="I79" s="248">
-        <v>23466.408127943745</v>
+        <v>23466.154214558286</v>
       </c>
       <c r="J79" s="248">
-        <v>1733.2202772687888</v>
+        <v>1733.383879593297</v>
       </c>
       <c r="K79" s="248">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
     </row>
     <row r="81">
@@ -28985,16 +28988,16 @@
         <v>3402.66563897477</v>
       </c>
       <c r="G82" s="246">
-        <v>3030.80170439461</v>
+        <v>3030.8017043945997</v>
       </c>
       <c r="H82" s="246">
         <v>1747.7858650600301</v>
       </c>
       <c r="I82" s="246">
-        <v>383.513523833492</v>
+        <v>383.51352383349104</v>
       </c>
       <c r="J82" s="246">
-        <v>-760.10315153885313</v>
+        <v>-760.10315153883857</v>
       </c>
       <c r="K82" s="246">
         <v>22615</v>
@@ -29160,16 +29163,16 @@
         <v>9033.0586389747714</v>
       </c>
       <c r="G87" s="248">
-        <v>9536.38729439461</v>
+        <v>9536.3872943945989</v>
       </c>
       <c r="H87" s="248">
         <v>7228.24725232614</v>
       </c>
       <c r="I87" s="248">
-        <v>2529.0635465673931</v>
+        <v>2529.0635465673922</v>
       </c>
       <c r="J87" s="248">
-        <v>-760.10315153884585</v>
+        <v>-760.1031515388313</v>
       </c>
       <c r="K87" s="248">
         <v>63416</v>
@@ -29265,16 +29268,16 @@
         <v>9033.0586389747714</v>
       </c>
       <c r="G90" s="248">
-        <v>9536.38729439461</v>
+        <v>9536.3872943945989</v>
       </c>
       <c r="H90" s="248">
         <v>7228.24725232614</v>
       </c>
       <c r="I90" s="248">
-        <v>2529.0635465673931</v>
+        <v>2529.0635465673922</v>
       </c>
       <c r="J90" s="248">
-        <v>-480.10315153884585</v>
+        <v>-480.1031515388313</v>
       </c>
       <c r="K90" s="248">
         <v>63696</v>
@@ -29300,34 +29303,34 @@
         <v>88</v>
       </c>
       <c r="B93" s="248">
-        <v>6463.9202520202116</v>
+        <v>6463.9232896261847</v>
       </c>
       <c r="C93" s="248">
-        <v>-4289.8500817082868</v>
+        <v>-4289.8297605155376</v>
       </c>
       <c r="D93" s="248">
-        <v>-4875.6773871967243</v>
+        <v>-4875.6141984627475</v>
       </c>
       <c r="E93" s="248">
-        <v>-6017.1307412533088</v>
+        <v>-6017.0595072478</v>
       </c>
       <c r="F93" s="248">
-        <v>-5058.7877847517457</v>
+        <v>-5058.7885665508311</v>
       </c>
       <c r="G93" s="248">
-        <v>9811.5797931810121</v>
+        <v>9811.5753031973418</v>
       </c>
       <c r="H93" s="248">
-        <v>-1911.7220604751537</v>
+        <v>-1911.7842591696121</v>
       </c>
       <c r="I93" s="248">
-        <v>20937.344581376354</v>
+        <v>20937.090667990895</v>
       </c>
       <c r="J93" s="248">
-        <v>2213.3234288076419</v>
+        <v>2213.4870311321356</v>
       </c>
       <c r="K93" s="248">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
     </row>
   </sheetData>
